--- a/output/test_temu_2.xlsx
+++ b/output/test_temu_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwang\Documents\GitHub\NimaTemu\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B28B7F4-47CE-46BB-89A6-416FB9857CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E7841-FA69-455C-B1F4-98BC94B325B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="2023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="2022">
   <si>
     <t>Using your Template</t>
   </si>
@@ -1767,9 +1767,6 @@
   </si>
   <si>
     <t>https://cdn.faire.com/fastly/4fa5265ce35cd6ea4346948c8b42010b73df932fbca99f8915354f2130ad0799.jpeg</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>HBG104065FU</t>
@@ -7370,11 +7367,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7400,16 +7407,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9258,314 +9255,314 @@
       <c r="JH4" s="62"/>
     </row>
     <row r="5" spans="1:287" ht="18.75" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="112" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
-      <c r="BM5" s="104"/>
-      <c r="BN5" s="113" t="s">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="105"/>
+      <c r="BA5" s="105"/>
+      <c r="BB5" s="105"/>
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="105"/>
+      <c r="BG5" s="105"/>
+      <c r="BH5" s="105"/>
+      <c r="BI5" s="105"/>
+      <c r="BJ5" s="105"/>
+      <c r="BK5" s="105"/>
+      <c r="BL5" s="105"/>
+      <c r="BM5" s="106"/>
+      <c r="BN5" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="BO5" s="103"/>
-      <c r="BP5" s="103"/>
-      <c r="BQ5" s="103"/>
-      <c r="BR5" s="103"/>
-      <c r="BS5" s="103"/>
-      <c r="BT5" s="103"/>
-      <c r="BU5" s="103"/>
-      <c r="BV5" s="103"/>
-      <c r="BW5" s="103"/>
-      <c r="BX5" s="103"/>
-      <c r="BY5" s="103"/>
-      <c r="BZ5" s="103"/>
-      <c r="CA5" s="103"/>
-      <c r="CB5" s="103"/>
-      <c r="CC5" s="103"/>
-      <c r="CD5" s="103"/>
-      <c r="CE5" s="103"/>
-      <c r="CF5" s="103"/>
-      <c r="CG5" s="103"/>
-      <c r="CH5" s="103"/>
-      <c r="CI5" s="103"/>
-      <c r="CJ5" s="103"/>
-      <c r="CK5" s="103"/>
-      <c r="CL5" s="103"/>
-      <c r="CM5" s="103"/>
-      <c r="CN5" s="103"/>
-      <c r="CO5" s="103"/>
-      <c r="CP5" s="103"/>
-      <c r="CQ5" s="103"/>
-      <c r="CR5" s="103"/>
-      <c r="CS5" s="103"/>
-      <c r="CT5" s="103"/>
-      <c r="CU5" s="103"/>
-      <c r="CV5" s="103"/>
-      <c r="CW5" s="103"/>
-      <c r="CX5" s="103"/>
-      <c r="CY5" s="103"/>
-      <c r="CZ5" s="103"/>
-      <c r="DA5" s="103"/>
-      <c r="DB5" s="103"/>
-      <c r="DC5" s="103"/>
-      <c r="DD5" s="103"/>
-      <c r="DE5" s="103"/>
-      <c r="DF5" s="103"/>
-      <c r="DG5" s="103"/>
-      <c r="DH5" s="103"/>
-      <c r="DI5" s="103"/>
-      <c r="DJ5" s="103"/>
-      <c r="DK5" s="103"/>
-      <c r="DL5" s="103"/>
-      <c r="DM5" s="103"/>
-      <c r="DN5" s="103"/>
-      <c r="DO5" s="103"/>
-      <c r="DP5" s="103"/>
-      <c r="DQ5" s="103"/>
-      <c r="DR5" s="103"/>
-      <c r="DS5" s="103"/>
-      <c r="DT5" s="103"/>
-      <c r="DU5" s="103"/>
-      <c r="DV5" s="103"/>
-      <c r="DW5" s="103"/>
-      <c r="DX5" s="103"/>
-      <c r="DY5" s="103"/>
-      <c r="DZ5" s="103"/>
-      <c r="EA5" s="103"/>
-      <c r="EB5" s="103"/>
-      <c r="EC5" s="103"/>
-      <c r="ED5" s="103"/>
-      <c r="EE5" s="103"/>
-      <c r="EF5" s="103"/>
-      <c r="EG5" s="103"/>
-      <c r="EH5" s="103"/>
-      <c r="EI5" s="103"/>
-      <c r="EJ5" s="103"/>
-      <c r="EK5" s="103"/>
-      <c r="EL5" s="103"/>
-      <c r="EM5" s="103"/>
-      <c r="EN5" s="103"/>
-      <c r="EO5" s="103"/>
-      <c r="EP5" s="103"/>
-      <c r="EQ5" s="103"/>
-      <c r="ER5" s="103"/>
-      <c r="ES5" s="103"/>
-      <c r="ET5" s="103"/>
-      <c r="EU5" s="103"/>
-      <c r="EV5" s="103"/>
-      <c r="EW5" s="103"/>
-      <c r="EX5" s="103"/>
-      <c r="EY5" s="103"/>
-      <c r="EZ5" s="103"/>
-      <c r="FA5" s="103"/>
-      <c r="FB5" s="103"/>
-      <c r="FC5" s="103"/>
-      <c r="FD5" s="103"/>
-      <c r="FE5" s="103"/>
-      <c r="FF5" s="103"/>
-      <c r="FG5" s="103"/>
-      <c r="FH5" s="103"/>
-      <c r="FI5" s="103"/>
-      <c r="FJ5" s="103"/>
-      <c r="FK5" s="103"/>
-      <c r="FL5" s="103"/>
-      <c r="FM5" s="103"/>
-      <c r="FN5" s="103"/>
-      <c r="FO5" s="103"/>
-      <c r="FP5" s="103"/>
-      <c r="FQ5" s="103"/>
-      <c r="FR5" s="103"/>
-      <c r="FS5" s="103"/>
-      <c r="FT5" s="103"/>
-      <c r="FU5" s="103"/>
-      <c r="FV5" s="103"/>
-      <c r="FW5" s="103"/>
-      <c r="FX5" s="103"/>
-      <c r="FY5" s="103"/>
-      <c r="FZ5" s="103"/>
-      <c r="GA5" s="103"/>
-      <c r="GB5" s="103"/>
-      <c r="GC5" s="103"/>
-      <c r="GD5" s="103"/>
-      <c r="GE5" s="103"/>
-      <c r="GF5" s="103"/>
-      <c r="GG5" s="103"/>
-      <c r="GH5" s="103"/>
-      <c r="GI5" s="103"/>
-      <c r="GJ5" s="103"/>
-      <c r="GK5" s="103"/>
-      <c r="GL5" s="103"/>
-      <c r="GM5" s="103"/>
-      <c r="GN5" s="103"/>
-      <c r="GO5" s="103"/>
-      <c r="GP5" s="103"/>
-      <c r="GQ5" s="103"/>
-      <c r="GR5" s="103"/>
-      <c r="GS5" s="104"/>
-      <c r="GT5" s="114" t="s">
+      <c r="BO5" s="105"/>
+      <c r="BP5" s="105"/>
+      <c r="BQ5" s="105"/>
+      <c r="BR5" s="105"/>
+      <c r="BS5" s="105"/>
+      <c r="BT5" s="105"/>
+      <c r="BU5" s="105"/>
+      <c r="BV5" s="105"/>
+      <c r="BW5" s="105"/>
+      <c r="BX5" s="105"/>
+      <c r="BY5" s="105"/>
+      <c r="BZ5" s="105"/>
+      <c r="CA5" s="105"/>
+      <c r="CB5" s="105"/>
+      <c r="CC5" s="105"/>
+      <c r="CD5" s="105"/>
+      <c r="CE5" s="105"/>
+      <c r="CF5" s="105"/>
+      <c r="CG5" s="105"/>
+      <c r="CH5" s="105"/>
+      <c r="CI5" s="105"/>
+      <c r="CJ5" s="105"/>
+      <c r="CK5" s="105"/>
+      <c r="CL5" s="105"/>
+      <c r="CM5" s="105"/>
+      <c r="CN5" s="105"/>
+      <c r="CO5" s="105"/>
+      <c r="CP5" s="105"/>
+      <c r="CQ5" s="105"/>
+      <c r="CR5" s="105"/>
+      <c r="CS5" s="105"/>
+      <c r="CT5" s="105"/>
+      <c r="CU5" s="105"/>
+      <c r="CV5" s="105"/>
+      <c r="CW5" s="105"/>
+      <c r="CX5" s="105"/>
+      <c r="CY5" s="105"/>
+      <c r="CZ5" s="105"/>
+      <c r="DA5" s="105"/>
+      <c r="DB5" s="105"/>
+      <c r="DC5" s="105"/>
+      <c r="DD5" s="105"/>
+      <c r="DE5" s="105"/>
+      <c r="DF5" s="105"/>
+      <c r="DG5" s="105"/>
+      <c r="DH5" s="105"/>
+      <c r="DI5" s="105"/>
+      <c r="DJ5" s="105"/>
+      <c r="DK5" s="105"/>
+      <c r="DL5" s="105"/>
+      <c r="DM5" s="105"/>
+      <c r="DN5" s="105"/>
+      <c r="DO5" s="105"/>
+      <c r="DP5" s="105"/>
+      <c r="DQ5" s="105"/>
+      <c r="DR5" s="105"/>
+      <c r="DS5" s="105"/>
+      <c r="DT5" s="105"/>
+      <c r="DU5" s="105"/>
+      <c r="DV5" s="105"/>
+      <c r="DW5" s="105"/>
+      <c r="DX5" s="105"/>
+      <c r="DY5" s="105"/>
+      <c r="DZ5" s="105"/>
+      <c r="EA5" s="105"/>
+      <c r="EB5" s="105"/>
+      <c r="EC5" s="105"/>
+      <c r="ED5" s="105"/>
+      <c r="EE5" s="105"/>
+      <c r="EF5" s="105"/>
+      <c r="EG5" s="105"/>
+      <c r="EH5" s="105"/>
+      <c r="EI5" s="105"/>
+      <c r="EJ5" s="105"/>
+      <c r="EK5" s="105"/>
+      <c r="EL5" s="105"/>
+      <c r="EM5" s="105"/>
+      <c r="EN5" s="105"/>
+      <c r="EO5" s="105"/>
+      <c r="EP5" s="105"/>
+      <c r="EQ5" s="105"/>
+      <c r="ER5" s="105"/>
+      <c r="ES5" s="105"/>
+      <c r="ET5" s="105"/>
+      <c r="EU5" s="105"/>
+      <c r="EV5" s="105"/>
+      <c r="EW5" s="105"/>
+      <c r="EX5" s="105"/>
+      <c r="EY5" s="105"/>
+      <c r="EZ5" s="105"/>
+      <c r="FA5" s="105"/>
+      <c r="FB5" s="105"/>
+      <c r="FC5" s="105"/>
+      <c r="FD5" s="105"/>
+      <c r="FE5" s="105"/>
+      <c r="FF5" s="105"/>
+      <c r="FG5" s="105"/>
+      <c r="FH5" s="105"/>
+      <c r="FI5" s="105"/>
+      <c r="FJ5" s="105"/>
+      <c r="FK5" s="105"/>
+      <c r="FL5" s="105"/>
+      <c r="FM5" s="105"/>
+      <c r="FN5" s="105"/>
+      <c r="FO5" s="105"/>
+      <c r="FP5" s="105"/>
+      <c r="FQ5" s="105"/>
+      <c r="FR5" s="105"/>
+      <c r="FS5" s="105"/>
+      <c r="FT5" s="105"/>
+      <c r="FU5" s="105"/>
+      <c r="FV5" s="105"/>
+      <c r="FW5" s="105"/>
+      <c r="FX5" s="105"/>
+      <c r="FY5" s="105"/>
+      <c r="FZ5" s="105"/>
+      <c r="GA5" s="105"/>
+      <c r="GB5" s="105"/>
+      <c r="GC5" s="105"/>
+      <c r="GD5" s="105"/>
+      <c r="GE5" s="105"/>
+      <c r="GF5" s="105"/>
+      <c r="GG5" s="105"/>
+      <c r="GH5" s="105"/>
+      <c r="GI5" s="105"/>
+      <c r="GJ5" s="105"/>
+      <c r="GK5" s="105"/>
+      <c r="GL5" s="105"/>
+      <c r="GM5" s="105"/>
+      <c r="GN5" s="105"/>
+      <c r="GO5" s="105"/>
+      <c r="GP5" s="105"/>
+      <c r="GQ5" s="105"/>
+      <c r="GR5" s="105"/>
+      <c r="GS5" s="106"/>
+      <c r="GT5" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="GU5" s="103"/>
-      <c r="GV5" s="103"/>
-      <c r="GW5" s="103"/>
-      <c r="GX5" s="103"/>
-      <c r="GY5" s="103"/>
-      <c r="GZ5" s="103"/>
-      <c r="HA5" s="103"/>
-      <c r="HB5" s="103"/>
-      <c r="HC5" s="103"/>
-      <c r="HD5" s="103"/>
-      <c r="HE5" s="103"/>
-      <c r="HF5" s="103"/>
-      <c r="HG5" s="103"/>
-      <c r="HH5" s="103"/>
-      <c r="HI5" s="103"/>
-      <c r="HJ5" s="103"/>
-      <c r="HK5" s="104"/>
-      <c r="HL5" s="102" t="s">
+      <c r="GU5" s="105"/>
+      <c r="GV5" s="105"/>
+      <c r="GW5" s="105"/>
+      <c r="GX5" s="105"/>
+      <c r="GY5" s="105"/>
+      <c r="GZ5" s="105"/>
+      <c r="HA5" s="105"/>
+      <c r="HB5" s="105"/>
+      <c r="HC5" s="105"/>
+      <c r="HD5" s="105"/>
+      <c r="HE5" s="105"/>
+      <c r="HF5" s="105"/>
+      <c r="HG5" s="105"/>
+      <c r="HH5" s="105"/>
+      <c r="HI5" s="105"/>
+      <c r="HJ5" s="105"/>
+      <c r="HK5" s="106"/>
+      <c r="HL5" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="HM5" s="103"/>
-      <c r="HN5" s="103"/>
-      <c r="HO5" s="103"/>
-      <c r="HP5" s="103"/>
-      <c r="HQ5" s="103"/>
-      <c r="HR5" s="103"/>
-      <c r="HS5" s="103"/>
-      <c r="HT5" s="103"/>
-      <c r="HU5" s="103"/>
-      <c r="HV5" s="103"/>
-      <c r="HW5" s="103"/>
-      <c r="HX5" s="103"/>
-      <c r="HY5" s="103"/>
-      <c r="HZ5" s="103"/>
-      <c r="IA5" s="103"/>
-      <c r="IB5" s="103"/>
-      <c r="IC5" s="103"/>
-      <c r="ID5" s="104"/>
-      <c r="IE5" s="114" t="s">
+      <c r="HM5" s="105"/>
+      <c r="HN5" s="105"/>
+      <c r="HO5" s="105"/>
+      <c r="HP5" s="105"/>
+      <c r="HQ5" s="105"/>
+      <c r="HR5" s="105"/>
+      <c r="HS5" s="105"/>
+      <c r="HT5" s="105"/>
+      <c r="HU5" s="105"/>
+      <c r="HV5" s="105"/>
+      <c r="HW5" s="105"/>
+      <c r="HX5" s="105"/>
+      <c r="HY5" s="105"/>
+      <c r="HZ5" s="105"/>
+      <c r="IA5" s="105"/>
+      <c r="IB5" s="105"/>
+      <c r="IC5" s="105"/>
+      <c r="ID5" s="106"/>
+      <c r="IE5" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="IF5" s="103"/>
-      <c r="IG5" s="103"/>
-      <c r="IH5" s="103"/>
-      <c r="II5" s="103"/>
-      <c r="IJ5" s="103"/>
-      <c r="IK5" s="103"/>
-      <c r="IL5" s="103"/>
-      <c r="IM5" s="103"/>
-      <c r="IN5" s="103"/>
-      <c r="IO5" s="103"/>
-      <c r="IP5" s="103"/>
-      <c r="IQ5" s="103"/>
-      <c r="IR5" s="103"/>
-      <c r="IS5" s="103"/>
-      <c r="IT5" s="103"/>
-      <c r="IU5" s="103"/>
-      <c r="IV5" s="103"/>
-      <c r="IW5" s="103"/>
-      <c r="IX5" s="103"/>
-      <c r="IY5" s="104"/>
-      <c r="IZ5" s="109" t="s">
+      <c r="IF5" s="105"/>
+      <c r="IG5" s="105"/>
+      <c r="IH5" s="105"/>
+      <c r="II5" s="105"/>
+      <c r="IJ5" s="105"/>
+      <c r="IK5" s="105"/>
+      <c r="IL5" s="105"/>
+      <c r="IM5" s="105"/>
+      <c r="IN5" s="105"/>
+      <c r="IO5" s="105"/>
+      <c r="IP5" s="105"/>
+      <c r="IQ5" s="105"/>
+      <c r="IR5" s="105"/>
+      <c r="IS5" s="105"/>
+      <c r="IT5" s="105"/>
+      <c r="IU5" s="105"/>
+      <c r="IV5" s="105"/>
+      <c r="IW5" s="105"/>
+      <c r="IX5" s="105"/>
+      <c r="IY5" s="106"/>
+      <c r="IZ5" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="JA5" s="103"/>
-      <c r="JB5" s="103"/>
-      <c r="JC5" s="104"/>
-      <c r="JD5" s="117" t="s">
+      <c r="JA5" s="105"/>
+      <c r="JB5" s="105"/>
+      <c r="JC5" s="106"/>
+      <c r="JD5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="JE5" s="103"/>
-      <c r="JF5" s="103"/>
-      <c r="JG5" s="103"/>
-      <c r="JH5" s="103"/>
-      <c r="JI5" s="103"/>
-      <c r="JJ5" s="103"/>
-      <c r="JK5" s="103"/>
-      <c r="JL5" s="103"/>
-      <c r="JM5" s="103"/>
-      <c r="JN5" s="103"/>
-      <c r="JO5" s="103"/>
-      <c r="JP5" s="103"/>
-      <c r="JQ5" s="103"/>
-      <c r="JR5" s="103"/>
-      <c r="JS5" s="103"/>
-      <c r="JT5" s="103"/>
-      <c r="JU5" s="103"/>
-      <c r="JV5" s="103"/>
-      <c r="JW5" s="103"/>
-      <c r="JX5" s="103"/>
-      <c r="JY5" s="103"/>
-      <c r="JZ5" s="103"/>
-      <c r="KA5" s="104"/>
+      <c r="JE5" s="105"/>
+      <c r="JF5" s="105"/>
+      <c r="JG5" s="105"/>
+      <c r="JH5" s="105"/>
+      <c r="JI5" s="105"/>
+      <c r="JJ5" s="105"/>
+      <c r="JK5" s="105"/>
+      <c r="JL5" s="105"/>
+      <c r="JM5" s="105"/>
+      <c r="JN5" s="105"/>
+      <c r="JO5" s="105"/>
+      <c r="JP5" s="105"/>
+      <c r="JQ5" s="105"/>
+      <c r="JR5" s="105"/>
+      <c r="JS5" s="105"/>
+      <c r="JT5" s="105"/>
+      <c r="JU5" s="105"/>
+      <c r="JV5" s="105"/>
+      <c r="JW5" s="105"/>
+      <c r="JX5" s="105"/>
+      <c r="JY5" s="105"/>
+      <c r="JZ5" s="105"/>
+      <c r="KA5" s="106"/>
     </row>
     <row r="6" spans="1:287" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="106"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="58" t="s">
         <v>49</v>
       </c>
@@ -10426,7 +10423,7 @@
       </c>
     </row>
     <row r="7" spans="1:287" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="113" t="s">
         <v>219</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -10768,7 +10765,7 @@
       <c r="JG7" s="19"/>
     </row>
     <row r="8" spans="1:287" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="19" t="s">
         <v>265</v>
       </c>
@@ -11033,7 +11030,7 @@
       </c>
     </row>
     <row r="9" spans="1:287" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="29" t="s">
         <v>289</v>
       </c>
@@ -11300,7 +11297,7 @@
       <c r="JG9" s="19"/>
     </row>
     <row r="10" spans="1:287" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="111"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="47" t="s">
         <v>302</v>
       </c>
@@ -11826,7 +11823,7 @@
       <c r="JH11" s="34"/>
     </row>
     <row r="12" spans="1:287" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="110" t="s">
         <v>316</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -12168,7 +12165,7 @@
       <c r="JG12" s="32"/>
     </row>
     <row r="13" spans="1:287" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="108"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="25" t="s">
         <v>220</v>
       </c>
@@ -12508,7 +12505,7 @@
       <c r="JG13" s="19"/>
     </row>
     <row r="14" spans="1:287" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="108"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="25" t="s">
         <v>220</v>
       </c>
@@ -12848,7 +12845,7 @@
       <c r="JG14" s="19"/>
     </row>
     <row r="15" spans="1:287" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="108"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="25" t="s">
         <v>265</v>
       </c>
@@ -13099,7 +13096,7 @@
       <c r="JG15" s="19"/>
     </row>
     <row r="16" spans="1:287" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="108"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="25" t="s">
         <v>265</v>
       </c>
@@ -13350,7 +13347,7 @@
       <c r="JG16" s="19"/>
     </row>
     <row r="17" spans="1:268" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="40" t="s">
         <v>265</v>
       </c>
@@ -13871,7 +13868,7 @@
       <c r="JH18" s="34"/>
     </row>
     <row r="19" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="102" t="s">
         <v>331</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -14213,7 +14210,7 @@
       <c r="JG19" s="32"/>
     </row>
     <row r="20" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A20" s="116"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="19" t="s">
         <v>220</v>
       </c>
@@ -14553,7 +14550,7 @@
       <c r="JG20" s="19"/>
     </row>
     <row r="21" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A21" s="116"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="19" t="s">
         <v>220</v>
       </c>
@@ -14893,7 +14890,7 @@
       <c r="JG21" s="19"/>
     </row>
     <row r="22" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A22" s="116"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="19" t="s">
         <v>220</v>
       </c>
@@ -15233,7 +15230,7 @@
       <c r="JG22" s="19"/>
     </row>
     <row r="23" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A23" s="116"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="19" t="s">
         <v>265</v>
       </c>
@@ -15487,7 +15484,7 @@
       <c r="JG23" s="19"/>
     </row>
     <row r="24" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A24" s="116"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="19" t="s">
         <v>265</v>
       </c>
@@ -15741,7 +15738,7 @@
       <c r="JG24" s="19"/>
     </row>
     <row r="25" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A25" s="116"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="19" t="s">
         <v>265</v>
       </c>
@@ -15995,7 +15992,7 @@
       <c r="JG25" s="19"/>
     </row>
     <row r="26" spans="1:268" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A26" s="116"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="19" t="s">
         <v>265</v>
       </c>
@@ -17325,16 +17322,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DC1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="DD6" sqref="DD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="99" customWidth="1"/>
     <col min="5" max="5" width="25" style="99" customWidth="1"/>
-    <col min="6" max="9" width="38" style="99" customWidth="1"/>
+    <col min="6" max="6" width="70" style="99" customWidth="1"/>
+    <col min="7" max="9" width="38" style="99" customWidth="1"/>
     <col min="10" max="10" width="38" style="99" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="38" style="99" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="12" max="15" width="38" style="99" customWidth="1"/>
@@ -17366,148 +17364,148 @@
       <c r="A1" s="127" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="106"/>
       <c r="E1" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="104"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
       <c r="N1" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
-      <c r="AO1" s="103"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="103"/>
-      <c r="BC1" s="103"/>
-      <c r="BD1" s="103"/>
-      <c r="BE1" s="103"/>
-      <c r="BF1" s="103"/>
-      <c r="BG1" s="103"/>
-      <c r="BH1" s="103"/>
-      <c r="BI1" s="103"/>
-      <c r="BJ1" s="103"/>
-      <c r="BK1" s="103"/>
-      <c r="BL1" s="103"/>
-      <c r="BM1" s="103"/>
-      <c r="BN1" s="103"/>
-      <c r="BO1" s="103"/>
-      <c r="BP1" s="103"/>
-      <c r="BQ1" s="103"/>
-      <c r="BR1" s="104"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
+      <c r="AL1" s="105"/>
+      <c r="AM1" s="105"/>
+      <c r="AN1" s="105"/>
+      <c r="AO1" s="105"/>
+      <c r="AP1" s="105"/>
+      <c r="AQ1" s="105"/>
+      <c r="AR1" s="105"/>
+      <c r="AS1" s="105"/>
+      <c r="AT1" s="105"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="105"/>
+      <c r="AW1" s="105"/>
+      <c r="AX1" s="105"/>
+      <c r="AY1" s="105"/>
+      <c r="AZ1" s="105"/>
+      <c r="BA1" s="105"/>
+      <c r="BB1" s="105"/>
+      <c r="BC1" s="105"/>
+      <c r="BD1" s="105"/>
+      <c r="BE1" s="105"/>
+      <c r="BF1" s="105"/>
+      <c r="BG1" s="105"/>
+      <c r="BH1" s="105"/>
+      <c r="BI1" s="105"/>
+      <c r="BJ1" s="105"/>
+      <c r="BK1" s="105"/>
+      <c r="BL1" s="105"/>
+      <c r="BM1" s="105"/>
+      <c r="BN1" s="105"/>
+      <c r="BO1" s="105"/>
+      <c r="BP1" s="105"/>
+      <c r="BQ1" s="105"/>
+      <c r="BR1" s="106"/>
       <c r="BS1" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="BT1" s="103"/>
-      <c r="BU1" s="103"/>
-      <c r="BV1" s="103"/>
-      <c r="BW1" s="103"/>
-      <c r="BX1" s="103"/>
-      <c r="BY1" s="103"/>
-      <c r="BZ1" s="103"/>
-      <c r="CA1" s="103"/>
-      <c r="CB1" s="103"/>
-      <c r="CC1" s="103"/>
-      <c r="CD1" s="104"/>
+      <c r="BT1" s="105"/>
+      <c r="BU1" s="105"/>
+      <c r="BV1" s="105"/>
+      <c r="BW1" s="105"/>
+      <c r="BX1" s="105"/>
+      <c r="BY1" s="105"/>
+      <c r="BZ1" s="105"/>
+      <c r="CA1" s="105"/>
+      <c r="CB1" s="105"/>
+      <c r="CC1" s="105"/>
+      <c r="CD1" s="106"/>
       <c r="CE1" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="CF1" s="103"/>
-      <c r="CG1" s="103"/>
-      <c r="CH1" s="103"/>
-      <c r="CI1" s="103"/>
-      <c r="CJ1" s="103"/>
-      <c r="CK1" s="103"/>
-      <c r="CL1" s="103"/>
-      <c r="CM1" s="103"/>
-      <c r="CN1" s="103"/>
-      <c r="CO1" s="103"/>
-      <c r="CP1" s="103"/>
-      <c r="CQ1" s="103"/>
-      <c r="CR1" s="104"/>
+      <c r="CF1" s="105"/>
+      <c r="CG1" s="105"/>
+      <c r="CH1" s="105"/>
+      <c r="CI1" s="105"/>
+      <c r="CJ1" s="105"/>
+      <c r="CK1" s="105"/>
+      <c r="CL1" s="105"/>
+      <c r="CM1" s="105"/>
+      <c r="CN1" s="105"/>
+      <c r="CO1" s="105"/>
+      <c r="CP1" s="105"/>
+      <c r="CQ1" s="105"/>
+      <c r="CR1" s="106"/>
       <c r="CS1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="CT1" s="103"/>
-      <c r="CU1" s="103"/>
-      <c r="CV1" s="103"/>
-      <c r="CW1" s="103"/>
-      <c r="CX1" s="103"/>
-      <c r="CY1" s="103"/>
-      <c r="CZ1" s="103"/>
-      <c r="DA1" s="103"/>
-      <c r="DB1" s="103"/>
-      <c r="DC1" s="103"/>
-      <c r="DD1" s="103"/>
-      <c r="DE1" s="103"/>
-      <c r="DF1" s="103"/>
-      <c r="DG1" s="103"/>
-      <c r="DH1" s="103"/>
-      <c r="DI1" s="103"/>
-      <c r="DJ1" s="103"/>
-      <c r="DK1" s="103"/>
-      <c r="DL1" s="103"/>
-      <c r="DM1" s="104"/>
+      <c r="CT1" s="105"/>
+      <c r="CU1" s="105"/>
+      <c r="CV1" s="105"/>
+      <c r="CW1" s="105"/>
+      <c r="CX1" s="105"/>
+      <c r="CY1" s="105"/>
+      <c r="CZ1" s="105"/>
+      <c r="DA1" s="105"/>
+      <c r="DB1" s="105"/>
+      <c r="DC1" s="105"/>
+      <c r="DD1" s="105"/>
+      <c r="DE1" s="105"/>
+      <c r="DF1" s="105"/>
+      <c r="DG1" s="105"/>
+      <c r="DH1" s="105"/>
+      <c r="DI1" s="105"/>
+      <c r="DJ1" s="105"/>
+      <c r="DK1" s="105"/>
+      <c r="DL1" s="105"/>
+      <c r="DM1" s="106"/>
       <c r="DN1" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="DO1" s="103"/>
-      <c r="DP1" s="103"/>
-      <c r="DQ1" s="104"/>
+      <c r="DO1" s="105"/>
+      <c r="DP1" s="105"/>
+      <c r="DQ1" s="106"/>
       <c r="DR1" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="DS1" s="103"/>
-      <c r="DT1" s="103"/>
-      <c r="DU1" s="103"/>
-      <c r="DV1" s="103"/>
-      <c r="DW1" s="103"/>
-      <c r="DX1" s="103"/>
-      <c r="DY1" s="104"/>
+      <c r="DS1" s="105"/>
+      <c r="DT1" s="105"/>
+      <c r="DU1" s="105"/>
+      <c r="DV1" s="105"/>
+      <c r="DW1" s="105"/>
+      <c r="DX1" s="105"/>
+      <c r="DY1" s="106"/>
     </row>
     <row r="2" spans="1:129" ht="15.75" customHeight="1">
       <c r="A2" s="87" t="s">
@@ -18690,7 +18688,7 @@
         <v>543</v>
       </c>
       <c r="I5" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="N5" t="s">
         <v>544</v>
@@ -18717,10 +18715,10 @@
         <v>209</v>
       </c>
       <c r="DE5">
-        <v>18</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>546</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="DG5">
+        <v>19.989999999999998</v>
       </c>
       <c r="DH5">
         <v>1</v>
@@ -18758,22 +18756,22 @@
         <v>542</v>
       </c>
       <c r="H6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I6" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="N6" t="s">
         <v>544</v>
       </c>
       <c r="U6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="CE6" t="s">
         <v>170</v>
       </c>
       <c r="CF6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="CG6" t="s">
         <v>255</v>
@@ -18782,16 +18780,16 @@
         <v>96</v>
       </c>
       <c r="CS6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="DD6">
         <v>96</v>
       </c>
       <c r="DE6">
-        <v>18</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>546</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="DG6">
+        <v>19.989999999999998</v>
       </c>
       <c r="DH6">
         <v>1</v>
@@ -18829,16 +18827,16 @@
         <v>542</v>
       </c>
       <c r="H7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="N7" t="s">
         <v>544</v>
       </c>
       <c r="U7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="CE7" t="s">
         <v>170</v>
@@ -18853,16 +18851,16 @@
         <v>154</v>
       </c>
       <c r="CS7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="DD7">
         <v>154</v>
       </c>
       <c r="DE7">
-        <v>18</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>546</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="DG7">
+        <v>19.989999999999998</v>
       </c>
       <c r="DH7">
         <v>1</v>
@@ -18900,16 +18898,16 @@
         <v>542</v>
       </c>
       <c r="H8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I8" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="N8" t="s">
         <v>544</v>
       </c>
       <c r="U8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="CE8" t="s">
         <v>170</v>
@@ -18924,16 +18922,16 @@
         <v>94</v>
       </c>
       <c r="CS8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="DD8">
         <v>94</v>
       </c>
       <c r="DE8">
-        <v>18</v>
-      </c>
-      <c r="DG8" t="s">
-        <v>546</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="DG8">
+        <v>19.989999999999998</v>
       </c>
       <c r="DH8">
         <v>1</v>
@@ -18971,16 +18969,16 @@
         <v>542</v>
       </c>
       <c r="H9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I9" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="N9" t="s">
         <v>544</v>
       </c>
       <c r="U9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="CE9" t="s">
         <v>170</v>
@@ -18995,16 +18993,16 @@
         <v>153</v>
       </c>
       <c r="CS9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="DD9">
         <v>153</v>
       </c>
       <c r="DE9">
-        <v>18</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>546</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="DG9">
+        <v>19.989999999999998</v>
       </c>
       <c r="DH9">
         <v>1</v>
@@ -19509,10 +19507,10 @@
   <sheetData>
     <row r="1" spans="1:93" ht="15.75" customHeight="1">
       <c r="A1" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>556</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>557</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>480</v>
@@ -19520,16 +19518,16 @@
     </row>
     <row r="2" spans="1:93" ht="15.75" customHeight="1">
       <c r="A2" s="95" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="95" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="C2" s="95" t="s">
         <v>559</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="D2" s="95" t="s">
         <v>560</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>561</v>
       </c>
       <c r="E2" s="95" t="s">
         <v>484</v>
@@ -19537,348 +19535,348 @@
     </row>
     <row r="3" spans="1:93" ht="15.75" customHeight="1">
       <c r="A3" s="95" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="95" t="s">
         <v>562</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="C3" s="95" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="D3" s="95" t="s">
         <v>564</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="E3" s="95" t="s">
         <v>565</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="F3" s="95" t="s">
         <v>566</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="G3" s="95" t="s">
         <v>567</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="H3" s="95" t="s">
         <v>568</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="I3" s="95" t="s">
         <v>569</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="J3" s="95" t="s">
         <v>570</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="K3" s="95" t="s">
         <v>571</v>
       </c>
-      <c r="K3" s="95" t="s">
+      <c r="L3" s="95" t="s">
         <v>572</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="M3" s="95" t="s">
         <v>573</v>
       </c>
-      <c r="M3" s="95" t="s">
+      <c r="N3" s="95" t="s">
         <v>574</v>
       </c>
-      <c r="N3" s="95" t="s">
+      <c r="O3" s="95" t="s">
         <v>575</v>
       </c>
-      <c r="O3" s="95" t="s">
+      <c r="P3" s="95" t="s">
         <v>576</v>
       </c>
-      <c r="P3" s="95" t="s">
+      <c r="Q3" s="95" t="s">
         <v>577</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="R3" s="95" t="s">
         <v>578</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="S3" s="95" t="s">
         <v>579</v>
       </c>
-      <c r="S3" s="95" t="s">
+      <c r="T3" s="95" t="s">
         <v>580</v>
       </c>
-      <c r="T3" s="95" t="s">
+      <c r="U3" s="95" t="s">
         <v>581</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="V3" s="95" t="s">
         <v>582</v>
       </c>
-      <c r="V3" s="95" t="s">
+      <c r="W3" s="95" t="s">
         <v>583</v>
       </c>
-      <c r="W3" s="95" t="s">
+      <c r="X3" s="95" t="s">
         <v>584</v>
       </c>
-      <c r="X3" s="95" t="s">
+      <c r="Y3" s="95" t="s">
         <v>585</v>
       </c>
-      <c r="Y3" s="95" t="s">
+      <c r="Z3" s="95" t="s">
         <v>586</v>
       </c>
-      <c r="Z3" s="95" t="s">
+      <c r="AA3" s="95" t="s">
         <v>587</v>
       </c>
-      <c r="AA3" s="95" t="s">
+      <c r="AB3" s="95" t="s">
         <v>588</v>
       </c>
-      <c r="AB3" s="95" t="s">
+      <c r="AC3" s="95" t="s">
         <v>589</v>
       </c>
-      <c r="AC3" s="95" t="s">
+      <c r="AD3" s="95" t="s">
+        <v>570</v>
+      </c>
+      <c r="AE3" s="95" t="s">
         <v>590</v>
       </c>
-      <c r="AD3" s="95" t="s">
-        <v>571</v>
-      </c>
-      <c r="AE3" s="95" t="s">
+      <c r="AF3" s="95" t="s">
         <v>591</v>
       </c>
-      <c r="AF3" s="95" t="s">
+      <c r="AG3" s="95" t="s">
         <v>592</v>
       </c>
-      <c r="AG3" s="95" t="s">
+      <c r="AH3" s="95" t="s">
         <v>593</v>
       </c>
-      <c r="AH3" s="95" t="s">
+      <c r="AI3" s="95" t="s">
         <v>594</v>
       </c>
-      <c r="AI3" s="95" t="s">
+      <c r="AJ3" s="95" t="s">
         <v>595</v>
       </c>
-      <c r="AJ3" s="95" t="s">
+      <c r="AK3" s="95" t="s">
         <v>596</v>
-      </c>
-      <c r="AK3" s="95" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:93" ht="15.75" customHeight="1">
       <c r="A4" s="95" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>598</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="C4" s="95" t="s">
         <v>599</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="D4" s="95" t="s">
         <v>600</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="E4" s="95" t="s">
         <v>601</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="F4" s="95" t="s">
         <v>602</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="G4" s="95" t="s">
         <v>603</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="H4" s="95" t="s">
         <v>604</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="I4" s="95" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="J4" s="95" t="s">
         <v>606</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="K4" s="95" t="s">
         <v>607</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="L4" s="95" t="s">
         <v>608</v>
-      </c>
-      <c r="L4" s="95" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:93" ht="15.75" customHeight="1">
       <c r="A5" s="95" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="C5" s="95" t="s">
         <v>611</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="D5" s="95" t="s">
         <v>612</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="E5" s="95" t="s">
         <v>613</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:93" ht="15.75" customHeight="1">
       <c r="A6" s="95" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>615</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="C6" s="95" t="s">
         <v>616</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="D6" s="95" t="s">
         <v>617</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="E6" s="95" t="s">
         <v>618</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="F6" s="95" t="s">
         <v>619</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="G6" s="95" t="s">
         <v>620</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="H6" s="95" t="s">
         <v>621</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="I6" s="95" t="s">
         <v>622</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>623</v>
       </c>
       <c r="J6" s="95" t="s">
         <v>250</v>
       </c>
       <c r="K6" s="95" t="s">
+        <v>623</v>
+      </c>
+      <c r="L6" s="95" t="s">
         <v>624</v>
-      </c>
-      <c r="L6" s="95" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:93" ht="15.75" customHeight="1">
       <c r="A7" s="95" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>626</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="C7" s="95" t="s">
         <v>627</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="D7" s="95" t="s">
         <v>628</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="E7" s="95" t="s">
         <v>629</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="F7" s="95" t="s">
         <v>630</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="G7" s="95" t="s">
         <v>631</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="H7" s="95" t="s">
         <v>632</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="I7" s="95" t="s">
         <v>633</v>
-      </c>
-      <c r="I7" s="95" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:93" ht="15.75" customHeight="1">
       <c r="A8" s="95" t="s">
+        <v>634</v>
+      </c>
+      <c r="B8" s="95" t="s">
         <v>635</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="C8" s="95" t="s">
         <v>636</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>637</v>
       </c>
       <c r="D8" s="95" t="s">
         <v>248</v>
       </c>
       <c r="E8" s="95" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:93" ht="15.75" customHeight="1">
       <c r="A9" s="95" t="s">
+        <v>638</v>
+      </c>
+      <c r="B9" s="95" t="s">
         <v>639</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="C9" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="D9" s="95" t="s">
         <v>641</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="E9" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="F9" s="95" t="s">
+        <v>579</v>
+      </c>
+      <c r="G9" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="F9" s="95" t="s">
-        <v>580</v>
-      </c>
-      <c r="G9" s="95" t="s">
+      <c r="H9" s="95" t="s">
         <v>644</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="I9" s="95" t="s">
+        <v>591</v>
+      </c>
+      <c r="J9" s="95" t="s">
         <v>645</v>
       </c>
-      <c r="I9" s="95" t="s">
-        <v>592</v>
-      </c>
-      <c r="J9" s="95" t="s">
+      <c r="K9" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="L9" s="95" t="s">
         <v>646</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="M9" s="95" t="s">
+        <v>647</v>
+      </c>
+      <c r="N9" s="95" t="s">
+        <v>648</v>
+      </c>
+      <c r="O9" s="95" t="s">
+        <v>649</v>
+      </c>
+      <c r="P9" s="95" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q9" s="95" t="s">
+        <v>563</v>
+      </c>
+      <c r="R9" s="95" t="s">
+        <v>566</v>
+      </c>
+      <c r="S9" s="95" t="s">
+        <v>576</v>
+      </c>
+      <c r="T9" s="95" t="s">
+        <v>651</v>
+      </c>
+      <c r="U9" s="95" t="s">
+        <v>650</v>
+      </c>
+      <c r="V9" s="95" t="s">
+        <v>652</v>
+      </c>
+      <c r="W9" s="95" t="s">
+        <v>653</v>
+      </c>
+      <c r="X9" s="95" t="s">
         <v>568</v>
       </c>
-      <c r="L9" s="95" t="s">
-        <v>647</v>
-      </c>
-      <c r="M9" s="95" t="s">
-        <v>648</v>
-      </c>
-      <c r="N9" s="95" t="s">
-        <v>649</v>
-      </c>
-      <c r="O9" s="95" t="s">
-        <v>650</v>
-      </c>
-      <c r="P9" s="95" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q9" s="95" t="s">
+      <c r="Y9" s="95" t="s">
         <v>564</v>
       </c>
-      <c r="R9" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="S9" s="95" t="s">
-        <v>577</v>
-      </c>
-      <c r="T9" s="95" t="s">
-        <v>652</v>
-      </c>
-      <c r="U9" s="95" t="s">
-        <v>651</v>
-      </c>
-      <c r="V9" s="95" t="s">
-        <v>653</v>
-      </c>
-      <c r="W9" s="95" t="s">
+      <c r="Z9" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="X9" s="95" t="s">
-        <v>569</v>
-      </c>
-      <c r="Y9" s="95" t="s">
-        <v>565</v>
-      </c>
-      <c r="Z9" s="95" t="s">
-        <v>655</v>
-      </c>
       <c r="AA9" s="95" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AB9" s="95" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:93" ht="15.75" customHeight="1">
       <c r="A10" s="95" t="s">
+        <v>655</v>
+      </c>
+      <c r="B10" s="95" t="s">
         <v>656</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>657</v>
       </c>
       <c r="C10" s="95" t="s">
         <v>233</v>
@@ -19889,70 +19887,70 @@
     </row>
     <row r="11" spans="1:93" ht="15.75" customHeight="1">
       <c r="A11" s="95" t="s">
+        <v>657</v>
+      </c>
+      <c r="B11" s="95" t="s">
         <v>658</v>
-      </c>
-      <c r="B11" s="95" t="s">
-        <v>659</v>
       </c>
       <c r="C11" s="95" t="s">
         <v>271</v>
       </c>
       <c r="D11" s="95" t="s">
+        <v>659</v>
+      </c>
+      <c r="E11" s="95" t="s">
         <v>660</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="F11" s="95" t="s">
         <v>661</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="G11" s="95" t="s">
         <v>662</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="H11" s="95" t="s">
         <v>663</v>
       </c>
-      <c r="H11" s="95" t="s">
+      <c r="I11" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="I11" s="95" t="s">
+      <c r="J11" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="K11" s="95" t="s">
         <v>666</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="L11" s="95" t="s">
         <v>667</v>
       </c>
-      <c r="L11" s="95" t="s">
+      <c r="M11" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="M11" s="95" t="s">
+      <c r="N11" s="95" t="s">
         <v>669</v>
       </c>
-      <c r="N11" s="95" t="s">
+      <c r="O11" s="95" t="s">
         <v>670</v>
       </c>
-      <c r="O11" s="95" t="s">
+      <c r="P11" s="95" t="s">
         <v>671</v>
       </c>
-      <c r="P11" s="95" t="s">
+      <c r="Q11" s="95" t="s">
         <v>672</v>
       </c>
-      <c r="Q11" s="95" t="s">
+      <c r="R11" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="R11" s="95" t="s">
+      <c r="S11" s="95" t="s">
         <v>674</v>
       </c>
-      <c r="S11" s="95" t="s">
+      <c r="T11" s="95" t="s">
         <v>675</v>
       </c>
-      <c r="T11" s="95" t="s">
+      <c r="U11" s="95" t="s">
         <v>676</v>
       </c>
-      <c r="U11" s="95" t="s">
+      <c r="V11" s="95" t="s">
         <v>677</v>
-      </c>
-      <c r="V11" s="95" t="s">
-        <v>678</v>
       </c>
       <c r="W11" s="95" t="s">
         <v>231</v>
@@ -19960,136 +19958,136 @@
     </row>
     <row r="12" spans="1:93" ht="15.75" customHeight="1">
       <c r="A12" s="95" t="s">
+        <v>678</v>
+      </c>
+      <c r="B12" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="C12" s="95" t="s">
         <v>680</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="D12" s="95" t="s">
         <v>681</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="E12" s="95" t="s">
         <v>682</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="F12" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="F12" s="95" t="s">
+      <c r="G12" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="G12" s="95" t="s">
+      <c r="H12" s="95" t="s">
         <v>685</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="I12" s="95" t="s">
         <v>686</v>
       </c>
-      <c r="I12" s="95" t="s">
+      <c r="J12" s="95" t="s">
         <v>687</v>
       </c>
-      <c r="J12" s="95" t="s">
+      <c r="K12" s="95" t="s">
         <v>688</v>
       </c>
-      <c r="K12" s="95" t="s">
+      <c r="L12" s="95" t="s">
         <v>689</v>
       </c>
-      <c r="L12" s="95" t="s">
+      <c r="M12" s="95" t="s">
         <v>690</v>
       </c>
-      <c r="M12" s="95" t="s">
+      <c r="N12" s="95" t="s">
         <v>691</v>
       </c>
-      <c r="N12" s="95" t="s">
+      <c r="O12" s="95" t="s">
         <v>692</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="P12" s="95" t="s">
         <v>693</v>
       </c>
-      <c r="P12" s="95" t="s">
+      <c r="Q12" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="Q12" s="95" t="s">
+      <c r="R12" s="95" t="s">
         <v>695</v>
       </c>
-      <c r="R12" s="95" t="s">
+      <c r="S12" s="95" t="s">
         <v>696</v>
       </c>
-      <c r="S12" s="95" t="s">
+      <c r="T12" s="95" t="s">
         <v>697</v>
       </c>
-      <c r="T12" s="95" t="s">
+      <c r="U12" s="95" t="s">
         <v>698</v>
       </c>
-      <c r="U12" s="95" t="s">
+      <c r="V12" s="95" t="s">
         <v>699</v>
-      </c>
-      <c r="V12" s="95" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:93" ht="15.75" customHeight="1">
       <c r="A13" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="B13" s="95" t="s">
         <v>701</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="C13" s="95" t="s">
         <v>702</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>703</v>
       </c>
       <c r="D13" s="95" t="s">
         <v>245</v>
       </c>
       <c r="E13" s="95" t="s">
+        <v>703</v>
+      </c>
+      <c r="F13" s="95" t="s">
         <v>704</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="G13" s="95" t="s">
         <v>705</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="H13" s="95" t="s">
         <v>706</v>
       </c>
-      <c r="H13" s="95" t="s">
+      <c r="I13" s="95" t="s">
         <v>707</v>
       </c>
-      <c r="I13" s="95" t="s">
+      <c r="J13" s="95" t="s">
         <v>708</v>
-      </c>
-      <c r="J13" s="95" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:93" ht="15.75" customHeight="1">
       <c r="A14" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="B14" s="95" t="s">
         <v>710</v>
-      </c>
-      <c r="B14" s="95" t="s">
-        <v>711</v>
       </c>
       <c r="C14" s="95" t="s">
         <v>252</v>
       </c>
       <c r="D14" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="E14" s="95" t="s">
         <v>712</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="F14" s="95" t="s">
         <v>713</v>
       </c>
-      <c r="F14" s="95" t="s">
+      <c r="G14" s="95" t="s">
         <v>714</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="H14" s="95" t="s">
         <v>715</v>
-      </c>
-      <c r="H14" s="95" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:93" ht="15.75" customHeight="1">
       <c r="A15" s="95" t="s">
+        <v>716</v>
+      </c>
+      <c r="B15" s="95" t="s">
         <v>717</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>718</v>
       </c>
       <c r="C15" s="95" t="s">
         <v>174</v>
@@ -20131,94 +20129,94 @@
         <v>177</v>
       </c>
       <c r="P15" s="95" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q15" s="95" t="s">
         <v>719</v>
       </c>
-      <c r="Q15" s="95" t="s">
+      <c r="R15" s="95" t="s">
         <v>720</v>
       </c>
-      <c r="R15" s="95" t="s">
+      <c r="S15" s="95" t="s">
         <v>721</v>
       </c>
-      <c r="S15" s="95" t="s">
+      <c r="T15" s="95" t="s">
         <v>722</v>
       </c>
-      <c r="T15" s="95" t="s">
+      <c r="U15" s="95" t="s">
         <v>723</v>
       </c>
-      <c r="U15" s="95" t="s">
+      <c r="V15" s="95" t="s">
         <v>724</v>
       </c>
-      <c r="V15" s="95" t="s">
+      <c r="W15" s="95" t="s">
         <v>725</v>
       </c>
-      <c r="W15" s="95" t="s">
+      <c r="X15" s="95" t="s">
         <v>726</v>
       </c>
-      <c r="X15" s="95" t="s">
+      <c r="Y15" s="95" t="s">
         <v>727</v>
       </c>
-      <c r="Y15" s="95" t="s">
+      <c r="Z15" s="95" t="s">
         <v>728</v>
       </c>
-      <c r="Z15" s="95" t="s">
+      <c r="AA15" s="95" t="s">
         <v>729</v>
       </c>
-      <c r="AA15" s="95" t="s">
+      <c r="AB15" s="95" t="s">
         <v>730</v>
       </c>
-      <c r="AB15" s="95" t="s">
+      <c r="AC15" s="95" t="s">
         <v>731</v>
       </c>
-      <c r="AC15" s="95" t="s">
+      <c r="AD15" s="95" t="s">
         <v>732</v>
       </c>
-      <c r="AD15" s="95" t="s">
+      <c r="AE15" s="95" t="s">
         <v>733</v>
       </c>
-      <c r="AE15" s="95" t="s">
+      <c r="AF15" s="95" t="s">
         <v>734</v>
       </c>
-      <c r="AF15" s="95" t="s">
+      <c r="AG15" s="95" t="s">
         <v>735</v>
       </c>
-      <c r="AG15" s="95" t="s">
+      <c r="AH15" s="95" t="s">
         <v>736</v>
       </c>
-      <c r="AH15" s="95" t="s">
+      <c r="AI15" s="95" t="s">
         <v>737</v>
       </c>
-      <c r="AI15" s="95" t="s">
+      <c r="AJ15" s="95" t="s">
         <v>738</v>
       </c>
-      <c r="AJ15" s="95" t="s">
+      <c r="AK15" s="95" t="s">
         <v>739</v>
       </c>
-      <c r="AK15" s="95" t="s">
+      <c r="AL15" s="95" t="s">
         <v>740</v>
       </c>
-      <c r="AL15" s="95" t="s">
+      <c r="AM15" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="AM15" s="95" t="s">
+      <c r="AN15" s="95" t="s">
         <v>742</v>
       </c>
-      <c r="AN15" s="95" t="s">
+      <c r="AO15" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="AO15" s="95" t="s">
+      <c r="AP15" s="95" t="s">
         <v>744</v>
       </c>
-      <c r="AP15" s="95" t="s">
+      <c r="AQ15" s="95" t="s">
         <v>745</v>
       </c>
-      <c r="AQ15" s="95" t="s">
+      <c r="AR15" s="95" t="s">
         <v>746</v>
       </c>
-      <c r="AR15" s="95" t="s">
+      <c r="AS15" s="95" t="s">
         <v>747</v>
-      </c>
-      <c r="AS15" s="95" t="s">
-        <v>748</v>
       </c>
       <c r="AT15" s="95" t="s">
         <v>336</v>
@@ -20227,142 +20225,142 @@
         <v>282</v>
       </c>
       <c r="AV15" s="95" t="s">
+        <v>748</v>
+      </c>
+      <c r="AW15" s="95" t="s">
         <v>749</v>
       </c>
-      <c r="AW15" s="95" t="s">
+      <c r="AX15" s="95" t="s">
         <v>750</v>
       </c>
-      <c r="AX15" s="95" t="s">
+      <c r="AY15" s="95" t="s">
         <v>751</v>
       </c>
-      <c r="AY15" s="95" t="s">
+      <c r="AZ15" s="95" t="s">
         <v>752</v>
       </c>
-      <c r="AZ15" s="95" t="s">
+      <c r="BA15" s="95" t="s">
         <v>753</v>
       </c>
-      <c r="BA15" s="95" t="s">
+      <c r="BB15" s="95" t="s">
         <v>754</v>
       </c>
-      <c r="BB15" s="95" t="s">
+      <c r="BC15" s="95" t="s">
         <v>755</v>
       </c>
-      <c r="BC15" s="95" t="s">
+      <c r="BD15" s="95" t="s">
         <v>756</v>
       </c>
-      <c r="BD15" s="95" t="s">
+      <c r="BE15" s="95" t="s">
         <v>757</v>
       </c>
-      <c r="BE15" s="95" t="s">
+      <c r="BF15" s="95" t="s">
         <v>758</v>
       </c>
-      <c r="BF15" s="95" t="s">
+      <c r="BG15" s="95" t="s">
         <v>759</v>
       </c>
-      <c r="BG15" s="95" t="s">
+      <c r="BH15" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="BH15" s="95" t="s">
+      <c r="BI15" s="95" t="s">
         <v>761</v>
       </c>
-      <c r="BI15" s="95" t="s">
+      <c r="BJ15" s="95" t="s">
         <v>762</v>
       </c>
-      <c r="BJ15" s="95" t="s">
+      <c r="BK15" s="95" t="s">
         <v>763</v>
       </c>
-      <c r="BK15" s="95" t="s">
+      <c r="BL15" s="95" t="s">
         <v>764</v>
       </c>
-      <c r="BL15" s="95" t="s">
+      <c r="BM15" s="95" t="s">
         <v>765</v>
       </c>
-      <c r="BM15" s="95" t="s">
+      <c r="BN15" s="95" t="s">
         <v>766</v>
       </c>
-      <c r="BN15" s="95" t="s">
+      <c r="BO15" s="95" t="s">
         <v>767</v>
       </c>
-      <c r="BO15" s="95" t="s">
+      <c r="BP15" s="95" t="s">
         <v>768</v>
       </c>
-      <c r="BP15" s="95" t="s">
+      <c r="BQ15" s="95" t="s">
         <v>769</v>
       </c>
-      <c r="BQ15" s="95" t="s">
+      <c r="BR15" s="95" t="s">
         <v>770</v>
       </c>
-      <c r="BR15" s="95" t="s">
+      <c r="BS15" s="95" t="s">
         <v>771</v>
       </c>
-      <c r="BS15" s="95" t="s">
+      <c r="BT15" s="95" t="s">
         <v>772</v>
       </c>
-      <c r="BT15" s="95" t="s">
+      <c r="BU15" s="95" t="s">
         <v>773</v>
       </c>
-      <c r="BU15" s="95" t="s">
+      <c r="BV15" s="95" t="s">
         <v>774</v>
       </c>
-      <c r="BV15" s="95" t="s">
+      <c r="BW15" s="95" t="s">
         <v>775</v>
       </c>
-      <c r="BW15" s="95" t="s">
+      <c r="BX15" s="95" t="s">
         <v>776</v>
       </c>
-      <c r="BX15" s="95" t="s">
+      <c r="BY15" s="95" t="s">
         <v>777</v>
       </c>
-      <c r="BY15" s="95" t="s">
+      <c r="BZ15" s="95" t="s">
         <v>778</v>
       </c>
-      <c r="BZ15" s="95" t="s">
+      <c r="CA15" s="95" t="s">
         <v>779</v>
       </c>
-      <c r="CA15" s="95" t="s">
+      <c r="CB15" s="95" t="s">
         <v>780</v>
       </c>
-      <c r="CB15" s="95" t="s">
+      <c r="CC15" s="95" t="s">
         <v>781</v>
       </c>
-      <c r="CC15" s="95" t="s">
+      <c r="CD15" s="95" t="s">
         <v>782</v>
       </c>
-      <c r="CD15" s="95" t="s">
+      <c r="CE15" s="95" t="s">
         <v>783</v>
       </c>
-      <c r="CE15" s="95" t="s">
+      <c r="CF15" s="95" t="s">
         <v>784</v>
       </c>
-      <c r="CF15" s="95" t="s">
+      <c r="CG15" s="95" t="s">
         <v>785</v>
       </c>
-      <c r="CG15" s="95" t="s">
+      <c r="CH15" s="95" t="s">
         <v>786</v>
       </c>
-      <c r="CH15" s="95" t="s">
+      <c r="CI15" s="95" t="s">
         <v>787</v>
       </c>
-      <c r="CI15" s="95" t="s">
+      <c r="CJ15" s="95" t="s">
         <v>788</v>
       </c>
-      <c r="CJ15" s="95" t="s">
+      <c r="CK15" s="95" t="s">
         <v>789</v>
       </c>
-      <c r="CK15" s="95" t="s">
+      <c r="CL15" s="95" t="s">
         <v>790</v>
       </c>
-      <c r="CL15" s="95" t="s">
+      <c r="CM15" s="95" t="s">
         <v>791</v>
       </c>
-      <c r="CM15" s="95" t="s">
+      <c r="CN15" s="95" t="s">
         <v>792</v>
       </c>
-      <c r="CN15" s="95" t="s">
+      <c r="CO15" s="95" t="s">
         <v>793</v>
-      </c>
-      <c r="CO15" s="95" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:93" ht="15.75" customHeight="1">
@@ -20370,10 +20368,10 @@
         <v>531</v>
       </c>
       <c r="B16" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="C16" s="95" t="s">
         <v>795</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>796</v>
       </c>
       <c r="D16" s="95" t="s">
         <v>425</v>
@@ -20384,13 +20382,13 @@
     </row>
     <row r="17" spans="1:900" ht="15.75" customHeight="1">
       <c r="A17" s="95" t="s">
+        <v>796</v>
+      </c>
+      <c r="B17" s="95" t="s">
         <v>797</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="C17" s="95" t="s">
         <v>798</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>799</v>
       </c>
       <c r="D17" s="95" t="s">
         <v>489</v>
@@ -20401,13 +20399,13 @@
         <v>533</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C18" s="95" t="s">
         <v>260</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:900" ht="15.75" customHeight="1">
@@ -20415,19 +20413,19 @@
         <v>534</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C19" s="95" t="s">
         <v>262</v>
       </c>
       <c r="D19" s="95" t="s">
+        <v>802</v>
+      </c>
+      <c r="E19" s="95" t="s">
         <v>803</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="F19" s="95" t="s">
         <v>804</v>
-      </c>
-      <c r="F19" s="95" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:900" ht="15.75" customHeight="1">
@@ -20435,7 +20433,7 @@
         <v>535</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C20" s="95" t="s">
         <v>263</v>
@@ -20443,800 +20441,800 @@
     </row>
     <row r="21" spans="1:900" ht="15.75" customHeight="1">
       <c r="A21" s="95" t="s">
+        <v>806</v>
+      </c>
+      <c r="B21" s="95" t="s">
         <v>807</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="C21" s="95" t="s">
         <v>808</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="D21" s="95" t="s">
         <v>809</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="E21" s="95" t="s">
         <v>810</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="F21" s="95" t="s">
         <v>811</v>
       </c>
-      <c r="F21" s="95" t="s">
+      <c r="G21" s="95" t="s">
         <v>812</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="H21" s="95" t="s">
         <v>813</v>
       </c>
-      <c r="H21" s="95" t="s">
+      <c r="I21" s="95" t="s">
         <v>814</v>
       </c>
-      <c r="I21" s="95" t="s">
+      <c r="J21" s="95" t="s">
         <v>815</v>
       </c>
-      <c r="J21" s="95" t="s">
+      <c r="K21" s="95" t="s">
         <v>816</v>
       </c>
-      <c r="K21" s="95" t="s">
+      <c r="L21" s="95" t="s">
         <v>817</v>
       </c>
-      <c r="L21" s="95" t="s">
+      <c r="M21" s="95" t="s">
         <v>818</v>
       </c>
-      <c r="M21" s="95" t="s">
+      <c r="N21" s="95" t="s">
         <v>819</v>
       </c>
-      <c r="N21" s="95" t="s">
+      <c r="O21" s="95" t="s">
         <v>820</v>
       </c>
-      <c r="O21" s="95" t="s">
+      <c r="P21" s="95" t="s">
         <v>821</v>
       </c>
-      <c r="P21" s="95" t="s">
+      <c r="Q21" s="95" t="s">
         <v>822</v>
       </c>
-      <c r="Q21" s="95" t="s">
+      <c r="R21" s="95" t="s">
         <v>823</v>
       </c>
-      <c r="R21" s="95" t="s">
+      <c r="S21" s="95" t="s">
         <v>824</v>
       </c>
-      <c r="S21" s="95" t="s">
+      <c r="T21" s="95" t="s">
         <v>825</v>
       </c>
-      <c r="T21" s="95" t="s">
+      <c r="U21" s="95" t="s">
         <v>826</v>
       </c>
-      <c r="U21" s="95" t="s">
+      <c r="V21" s="95" t="s">
         <v>827</v>
       </c>
-      <c r="V21" s="95" t="s">
+      <c r="W21" s="95" t="s">
         <v>828</v>
       </c>
-      <c r="W21" s="95" t="s">
+      <c r="X21" s="95" t="s">
         <v>829</v>
       </c>
-      <c r="X21" s="95" t="s">
+      <c r="Y21" s="95" t="s">
         <v>830</v>
       </c>
-      <c r="Y21" s="95" t="s">
+      <c r="Z21" s="95" t="s">
         <v>831</v>
       </c>
-      <c r="Z21" s="95" t="s">
+      <c r="AA21" s="95" t="s">
         <v>832</v>
       </c>
-      <c r="AA21" s="95" t="s">
+      <c r="AB21" s="95" t="s">
         <v>833</v>
       </c>
-      <c r="AB21" s="95" t="s">
+      <c r="AC21" s="95" t="s">
         <v>834</v>
       </c>
-      <c r="AC21" s="95" t="s">
+      <c r="AD21" s="95" t="s">
         <v>835</v>
       </c>
-      <c r="AD21" s="95" t="s">
+      <c r="AE21" s="95" t="s">
         <v>836</v>
       </c>
-      <c r="AE21" s="95" t="s">
+      <c r="AF21" s="95" t="s">
         <v>837</v>
       </c>
-      <c r="AF21" s="95" t="s">
+      <c r="AG21" s="95" t="s">
         <v>838</v>
       </c>
-      <c r="AG21" s="95" t="s">
+      <c r="AH21" s="95" t="s">
         <v>839</v>
       </c>
-      <c r="AH21" s="95" t="s">
+      <c r="AI21" s="95" t="s">
         <v>840</v>
       </c>
-      <c r="AI21" s="95" t="s">
+      <c r="AJ21" s="95" t="s">
         <v>841</v>
       </c>
-      <c r="AJ21" s="95" t="s">
+      <c r="AK21" s="95" t="s">
         <v>842</v>
       </c>
-      <c r="AK21" s="95" t="s">
+      <c r="AL21" s="95" t="s">
         <v>843</v>
       </c>
-      <c r="AL21" s="95" t="s">
+      <c r="AM21" s="95" t="s">
         <v>844</v>
       </c>
-      <c r="AM21" s="95" t="s">
+      <c r="AN21" s="95" t="s">
         <v>845</v>
       </c>
-      <c r="AN21" s="95" t="s">
+      <c r="AO21" s="95" t="s">
         <v>846</v>
       </c>
-      <c r="AO21" s="95" t="s">
+      <c r="AP21" s="95" t="s">
         <v>847</v>
       </c>
-      <c r="AP21" s="95" t="s">
+      <c r="AQ21" s="95" t="s">
         <v>848</v>
-      </c>
-      <c r="AQ21" s="95" t="s">
-        <v>849</v>
       </c>
       <c r="AR21" s="95" t="s">
         <v>490</v>
       </c>
       <c r="AS21" s="95" t="s">
+        <v>849</v>
+      </c>
+      <c r="AT21" s="95" t="s">
         <v>850</v>
       </c>
-      <c r="AT21" s="95" t="s">
+      <c r="AU21" s="95" t="s">
         <v>851</v>
       </c>
-      <c r="AU21" s="95" t="s">
+      <c r="AV21" s="95" t="s">
         <v>852</v>
       </c>
-      <c r="AV21" s="95" t="s">
+      <c r="AW21" s="95" t="s">
         <v>853</v>
       </c>
-      <c r="AW21" s="95" t="s">
+      <c r="AX21" s="95" t="s">
         <v>854</v>
       </c>
-      <c r="AX21" s="95" t="s">
+      <c r="AY21" s="95" t="s">
         <v>855</v>
       </c>
-      <c r="AY21" s="95" t="s">
+      <c r="AZ21" s="95" t="s">
         <v>856</v>
       </c>
-      <c r="AZ21" s="95" t="s">
+      <c r="BA21" s="95" t="s">
         <v>857</v>
       </c>
-      <c r="BA21" s="95" t="s">
+      <c r="BB21" s="95" t="s">
         <v>858</v>
       </c>
-      <c r="BB21" s="95" t="s">
+      <c r="BC21" s="95" t="s">
         <v>859</v>
       </c>
-      <c r="BC21" s="95" t="s">
+      <c r="BD21" s="95" t="s">
         <v>860</v>
       </c>
-      <c r="BD21" s="95" t="s">
+      <c r="BE21" s="95" t="s">
         <v>861</v>
       </c>
-      <c r="BE21" s="95" t="s">
+      <c r="BF21" s="95" t="s">
         <v>862</v>
       </c>
-      <c r="BF21" s="95" t="s">
+      <c r="BG21" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="BG21" s="95" t="s">
+      <c r="BH21" s="95" t="s">
         <v>864</v>
       </c>
-      <c r="BH21" s="95" t="s">
+      <c r="BI21" s="95" t="s">
         <v>865</v>
       </c>
-      <c r="BI21" s="95" t="s">
+      <c r="BJ21" s="95" t="s">
         <v>866</v>
       </c>
-      <c r="BJ21" s="95" t="s">
+      <c r="BK21" s="95" t="s">
         <v>867</v>
       </c>
-      <c r="BK21" s="95" t="s">
+      <c r="BL21" s="95" t="s">
         <v>868</v>
       </c>
-      <c r="BL21" s="95" t="s">
+      <c r="BM21" s="95" t="s">
         <v>869</v>
       </c>
-      <c r="BM21" s="95" t="s">
+      <c r="BN21" s="95" t="s">
         <v>870</v>
       </c>
-      <c r="BN21" s="95" t="s">
+      <c r="BO21" s="95" t="s">
         <v>871</v>
       </c>
-      <c r="BO21" s="95" t="s">
+      <c r="BP21" s="95" t="s">
         <v>872</v>
       </c>
-      <c r="BP21" s="95" t="s">
+      <c r="BQ21" s="95" t="s">
         <v>873</v>
       </c>
-      <c r="BQ21" s="95" t="s">
+      <c r="BR21" s="95" t="s">
         <v>874</v>
       </c>
-      <c r="BR21" s="95" t="s">
+      <c r="BS21" s="95" t="s">
         <v>875</v>
       </c>
-      <c r="BS21" s="95" t="s">
+      <c r="BT21" s="95" t="s">
         <v>876</v>
       </c>
-      <c r="BT21" s="95" t="s">
+      <c r="BU21" s="95" t="s">
         <v>877</v>
       </c>
-      <c r="BU21" s="95" t="s">
+      <c r="BV21" s="95" t="s">
         <v>878</v>
       </c>
-      <c r="BV21" s="95" t="s">
+      <c r="BW21" s="95" t="s">
         <v>879</v>
       </c>
-      <c r="BW21" s="95" t="s">
+      <c r="BX21" s="95" t="s">
         <v>880</v>
-      </c>
-      <c r="BX21" s="95" t="s">
-        <v>881</v>
       </c>
       <c r="BY21" s="95" t="s">
         <v>452</v>
       </c>
       <c r="BZ21" s="95" t="s">
+        <v>881</v>
+      </c>
+      <c r="CA21" s="95" t="s">
         <v>882</v>
       </c>
-      <c r="CA21" s="95" t="s">
+      <c r="CB21" s="95" t="s">
         <v>883</v>
       </c>
-      <c r="CB21" s="95" t="s">
+      <c r="CC21" s="95" t="s">
         <v>884</v>
       </c>
-      <c r="CC21" s="95" t="s">
+      <c r="CD21" s="95" t="s">
         <v>885</v>
       </c>
-      <c r="CD21" s="95" t="s">
+      <c r="CE21" s="95" t="s">
         <v>886</v>
       </c>
-      <c r="CE21" s="95" t="s">
+      <c r="CF21" s="95" t="s">
         <v>887</v>
       </c>
-      <c r="CF21" s="95" t="s">
+      <c r="CG21" s="95" t="s">
         <v>888</v>
       </c>
-      <c r="CG21" s="95" t="s">
+      <c r="CH21" s="95" t="s">
         <v>889</v>
       </c>
-      <c r="CH21" s="95" t="s">
+      <c r="CI21" s="95" t="s">
         <v>890</v>
       </c>
-      <c r="CI21" s="95" t="s">
+      <c r="CJ21" s="95" t="s">
         <v>891</v>
       </c>
-      <c r="CJ21" s="95" t="s">
+      <c r="CK21" s="95" t="s">
         <v>892</v>
       </c>
-      <c r="CK21" s="95" t="s">
+      <c r="CL21" s="95" t="s">
         <v>893</v>
       </c>
-      <c r="CL21" s="95" t="s">
+      <c r="CM21" s="95" t="s">
         <v>894</v>
       </c>
-      <c r="CM21" s="95" t="s">
+      <c r="CN21" s="95" t="s">
         <v>895</v>
       </c>
-      <c r="CN21" s="95" t="s">
+      <c r="CO21" s="95" t="s">
         <v>896</v>
       </c>
-      <c r="CO21" s="95" t="s">
+      <c r="CP21" s="95" t="s">
         <v>897</v>
       </c>
-      <c r="CP21" s="95" t="s">
+      <c r="CQ21" s="95" t="s">
         <v>898</v>
       </c>
-      <c r="CQ21" s="95" t="s">
+      <c r="CR21" s="95" t="s">
         <v>899</v>
       </c>
-      <c r="CR21" s="95" t="s">
+      <c r="CS21" s="95" t="s">
         <v>900</v>
       </c>
-      <c r="CS21" s="95" t="s">
+      <c r="CT21" s="95" t="s">
         <v>901</v>
       </c>
-      <c r="CT21" s="95" t="s">
+      <c r="CU21" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="CU21" s="95" t="s">
+      <c r="CV21" s="95" t="s">
         <v>903</v>
       </c>
-      <c r="CV21" s="95" t="s">
+      <c r="CW21" s="95" t="s">
         <v>904</v>
       </c>
-      <c r="CW21" s="95" t="s">
+      <c r="CX21" s="95" t="s">
         <v>905</v>
       </c>
-      <c r="CX21" s="95" t="s">
+      <c r="CY21" s="95" t="s">
         <v>906</v>
       </c>
-      <c r="CY21" s="95" t="s">
+      <c r="CZ21" s="95" t="s">
         <v>907</v>
       </c>
-      <c r="CZ21" s="95" t="s">
+      <c r="DA21" s="95" t="s">
         <v>908</v>
       </c>
-      <c r="DA21" s="95" t="s">
+      <c r="DB21" s="95" t="s">
         <v>909</v>
       </c>
-      <c r="DB21" s="95" t="s">
+      <c r="DC21" s="95" t="s">
         <v>910</v>
       </c>
-      <c r="DC21" s="95" t="s">
+      <c r="DD21" s="95" t="s">
         <v>911</v>
       </c>
-      <c r="DD21" s="95" t="s">
+      <c r="DE21" s="95" t="s">
         <v>912</v>
       </c>
-      <c r="DE21" s="95" t="s">
+      <c r="DF21" s="95" t="s">
         <v>913</v>
       </c>
-      <c r="DF21" s="95" t="s">
+      <c r="DG21" s="95" t="s">
         <v>914</v>
       </c>
-      <c r="DG21" s="95" t="s">
+      <c r="DH21" s="95" t="s">
         <v>915</v>
       </c>
-      <c r="DH21" s="95" t="s">
+      <c r="DI21" s="95" t="s">
         <v>916</v>
       </c>
-      <c r="DI21" s="95" t="s">
+      <c r="DJ21" s="95" t="s">
         <v>917</v>
       </c>
-      <c r="DJ21" s="95" t="s">
+      <c r="DK21" s="95" t="s">
         <v>918</v>
       </c>
-      <c r="DK21" s="95" t="s">
+      <c r="DL21" s="95" t="s">
         <v>919</v>
       </c>
-      <c r="DL21" s="95" t="s">
+      <c r="DM21" s="95" t="s">
         <v>920</v>
       </c>
-      <c r="DM21" s="95" t="s">
+      <c r="DN21" s="95" t="s">
         <v>921</v>
       </c>
-      <c r="DN21" s="95" t="s">
+      <c r="DO21" s="95" t="s">
         <v>922</v>
       </c>
-      <c r="DO21" s="95" t="s">
+      <c r="DP21" s="95" t="s">
         <v>923</v>
       </c>
-      <c r="DP21" s="95" t="s">
+      <c r="DQ21" s="95" t="s">
         <v>924</v>
       </c>
-      <c r="DQ21" s="95" t="s">
+      <c r="DR21" s="95" t="s">
         <v>925</v>
       </c>
-      <c r="DR21" s="95" t="s">
+      <c r="DS21" s="95" t="s">
         <v>926</v>
       </c>
-      <c r="DS21" s="95" t="s">
+      <c r="DT21" s="95" t="s">
         <v>927</v>
       </c>
-      <c r="DT21" s="95" t="s">
+      <c r="DU21" s="95" t="s">
         <v>928</v>
       </c>
-      <c r="DU21" s="95" t="s">
+      <c r="DV21" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="DV21" s="95" t="s">
+      <c r="DW21" s="95" t="s">
         <v>930</v>
       </c>
-      <c r="DW21" s="95" t="s">
+      <c r="DX21" s="95" t="s">
         <v>931</v>
       </c>
-      <c r="DX21" s="95" t="s">
+      <c r="DY21" s="95" t="s">
         <v>932</v>
       </c>
-      <c r="DY21" s="95" t="s">
+      <c r="DZ21" s="95" t="s">
         <v>933</v>
       </c>
-      <c r="DZ21" s="95" t="s">
+      <c r="EA21" s="95" t="s">
         <v>934</v>
       </c>
-      <c r="EA21" s="95" t="s">
+      <c r="EB21" s="95" t="s">
         <v>935</v>
       </c>
-      <c r="EB21" s="95" t="s">
+      <c r="EC21" s="95" t="s">
         <v>936</v>
       </c>
-      <c r="EC21" s="95" t="s">
+      <c r="ED21" s="95" t="s">
         <v>937</v>
       </c>
-      <c r="ED21" s="95" t="s">
+      <c r="EE21" s="95" t="s">
         <v>938</v>
       </c>
-      <c r="EE21" s="95" t="s">
+      <c r="EF21" s="95" t="s">
         <v>939</v>
       </c>
-      <c r="EF21" s="95" t="s">
+      <c r="EG21" s="95" t="s">
         <v>940</v>
       </c>
-      <c r="EG21" s="95" t="s">
+      <c r="EH21" s="95" t="s">
         <v>941</v>
       </c>
-      <c r="EH21" s="95" t="s">
+      <c r="EI21" s="95" t="s">
         <v>942</v>
       </c>
-      <c r="EI21" s="95" t="s">
+      <c r="EJ21" s="95" t="s">
         <v>943</v>
       </c>
-      <c r="EJ21" s="95" t="s">
+      <c r="EK21" s="95" t="s">
         <v>944</v>
       </c>
-      <c r="EK21" s="95" t="s">
+      <c r="EL21" s="95" t="s">
         <v>945</v>
       </c>
-      <c r="EL21" s="95" t="s">
+      <c r="EM21" s="95" t="s">
         <v>946</v>
       </c>
-      <c r="EM21" s="95" t="s">
+      <c r="EN21" s="95" t="s">
         <v>947</v>
       </c>
-      <c r="EN21" s="95" t="s">
+      <c r="EO21" s="95" t="s">
         <v>948</v>
       </c>
-      <c r="EO21" s="95" t="s">
+      <c r="EP21" s="95" t="s">
         <v>949</v>
       </c>
-      <c r="EP21" s="95" t="s">
+      <c r="EQ21" s="95" t="s">
         <v>950</v>
       </c>
-      <c r="EQ21" s="95" t="s">
+      <c r="ER21" s="95" t="s">
         <v>951</v>
       </c>
-      <c r="ER21" s="95" t="s">
+      <c r="ES21" s="95" t="s">
         <v>952</v>
       </c>
-      <c r="ES21" s="95" t="s">
+      <c r="ET21" s="95" t="s">
         <v>953</v>
       </c>
-      <c r="ET21" s="95" t="s">
+      <c r="EU21" s="95" t="s">
         <v>954</v>
       </c>
-      <c r="EU21" s="95" t="s">
+      <c r="EV21" s="95" t="s">
         <v>955</v>
       </c>
-      <c r="EV21" s="95" t="s">
+      <c r="EW21" s="95" t="s">
         <v>956</v>
       </c>
-      <c r="EW21" s="95" t="s">
+      <c r="EX21" s="95" t="s">
         <v>957</v>
       </c>
-      <c r="EX21" s="95" t="s">
+      <c r="EY21" s="95" t="s">
         <v>958</v>
       </c>
-      <c r="EY21" s="95" t="s">
+      <c r="EZ21" s="95" t="s">
         <v>959</v>
       </c>
-      <c r="EZ21" s="95" t="s">
+      <c r="FA21" s="95" t="s">
         <v>960</v>
       </c>
-      <c r="FA21" s="95" t="s">
+      <c r="FB21" s="95" t="s">
         <v>961</v>
       </c>
-      <c r="FB21" s="95" t="s">
+      <c r="FC21" s="95" t="s">
         <v>962</v>
       </c>
-      <c r="FC21" s="95" t="s">
+      <c r="FD21" s="95" t="s">
         <v>963</v>
       </c>
-      <c r="FD21" s="95" t="s">
+      <c r="FE21" s="95" t="s">
         <v>964</v>
       </c>
-      <c r="FE21" s="95" t="s">
+      <c r="FF21" s="95" t="s">
         <v>965</v>
       </c>
-      <c r="FF21" s="95" t="s">
+      <c r="FG21" s="95" t="s">
         <v>966</v>
       </c>
-      <c r="FG21" s="95" t="s">
+      <c r="FH21" s="95" t="s">
         <v>967</v>
       </c>
-      <c r="FH21" s="95" t="s">
+      <c r="FI21" s="95" t="s">
         <v>968</v>
       </c>
-      <c r="FI21" s="95" t="s">
+      <c r="FJ21" s="95" t="s">
         <v>969</v>
       </c>
-      <c r="FJ21" s="95" t="s">
+      <c r="FK21" s="95" t="s">
         <v>970</v>
       </c>
-      <c r="FK21" s="95" t="s">
+      <c r="FL21" s="95" t="s">
         <v>971</v>
       </c>
-      <c r="FL21" s="95" t="s">
+      <c r="FM21" s="95" t="s">
         <v>972</v>
       </c>
-      <c r="FM21" s="95" t="s">
+      <c r="FN21" s="95" t="s">
         <v>973</v>
       </c>
-      <c r="FN21" s="95" t="s">
+      <c r="FO21" s="95" t="s">
         <v>974</v>
       </c>
-      <c r="FO21" s="95" t="s">
+      <c r="FP21" s="95" t="s">
         <v>975</v>
       </c>
-      <c r="FP21" s="95" t="s">
+      <c r="FQ21" s="95" t="s">
         <v>976</v>
       </c>
-      <c r="FQ21" s="95" t="s">
+      <c r="FR21" s="95" t="s">
         <v>977</v>
       </c>
-      <c r="FR21" s="95" t="s">
+      <c r="FS21" s="95" t="s">
         <v>978</v>
       </c>
-      <c r="FS21" s="95" t="s">
+      <c r="FT21" s="95" t="s">
         <v>979</v>
       </c>
-      <c r="FT21" s="95" t="s">
+      <c r="FU21" s="95" t="s">
         <v>980</v>
       </c>
-      <c r="FU21" s="95" t="s">
+      <c r="FV21" s="95" t="s">
         <v>981</v>
       </c>
-      <c r="FV21" s="95" t="s">
+      <c r="FW21" s="95" t="s">
         <v>982</v>
       </c>
-      <c r="FW21" s="95" t="s">
+      <c r="FX21" s="95" t="s">
         <v>983</v>
       </c>
-      <c r="FX21" s="95" t="s">
+      <c r="FY21" s="95" t="s">
         <v>984</v>
       </c>
-      <c r="FY21" s="95" t="s">
+      <c r="FZ21" s="95" t="s">
         <v>985</v>
       </c>
-      <c r="FZ21" s="95" t="s">
+      <c r="GA21" s="95" t="s">
         <v>986</v>
       </c>
-      <c r="GA21" s="95" t="s">
+      <c r="GB21" s="95" t="s">
         <v>987</v>
       </c>
-      <c r="GB21" s="95" t="s">
+      <c r="GC21" s="95" t="s">
         <v>988</v>
       </c>
-      <c r="GC21" s="95" t="s">
+      <c r="GD21" s="95" t="s">
         <v>989</v>
       </c>
-      <c r="GD21" s="95" t="s">
+      <c r="GE21" s="95" t="s">
         <v>990</v>
       </c>
-      <c r="GE21" s="95" t="s">
+      <c r="GF21" s="95" t="s">
         <v>991</v>
       </c>
-      <c r="GF21" s="95" t="s">
+      <c r="GG21" s="95" t="s">
         <v>992</v>
       </c>
-      <c r="GG21" s="95" t="s">
+      <c r="GH21" s="95" t="s">
         <v>993</v>
       </c>
-      <c r="GH21" s="95" t="s">
+      <c r="GI21" s="95" t="s">
         <v>994</v>
       </c>
-      <c r="GI21" s="95" t="s">
+      <c r="GJ21" s="95" t="s">
         <v>995</v>
       </c>
-      <c r="GJ21" s="95" t="s">
+      <c r="GK21" s="95" t="s">
         <v>996</v>
       </c>
-      <c r="GK21" s="95" t="s">
+      <c r="GL21" s="95" t="s">
         <v>997</v>
       </c>
-      <c r="GL21" s="95" t="s">
+      <c r="GM21" s="95" t="s">
         <v>998</v>
       </c>
-      <c r="GM21" s="95" t="s">
+      <c r="GN21" s="95" t="s">
         <v>999</v>
       </c>
-      <c r="GN21" s="95" t="s">
+      <c r="GO21" s="95" t="s">
         <v>1000</v>
       </c>
-      <c r="GO21" s="95" t="s">
+      <c r="GP21" s="95" t="s">
         <v>1001</v>
       </c>
-      <c r="GP21" s="95" t="s">
+      <c r="GQ21" s="95" t="s">
         <v>1002</v>
       </c>
-      <c r="GQ21" s="95" t="s">
+      <c r="GR21" s="95" t="s">
         <v>1003</v>
       </c>
-      <c r="GR21" s="95" t="s">
+      <c r="GS21" s="95" t="s">
         <v>1004</v>
       </c>
-      <c r="GS21" s="95" t="s">
+      <c r="GT21" s="95" t="s">
         <v>1005</v>
       </c>
-      <c r="GT21" s="95" t="s">
+      <c r="GU21" s="95" t="s">
         <v>1006</v>
       </c>
-      <c r="GU21" s="95" t="s">
+      <c r="GV21" s="95" t="s">
         <v>1007</v>
       </c>
-      <c r="GV21" s="95" t="s">
+      <c r="GW21" s="95" t="s">
         <v>1008</v>
       </c>
-      <c r="GW21" s="95" t="s">
+      <c r="GX21" s="95" t="s">
         <v>1009</v>
       </c>
-      <c r="GX21" s="95" t="s">
+      <c r="GY21" s="95" t="s">
         <v>1010</v>
       </c>
-      <c r="GY21" s="95" t="s">
+      <c r="GZ21" s="95" t="s">
         <v>1011</v>
       </c>
-      <c r="GZ21" s="95" t="s">
+      <c r="HA21" s="95" t="s">
         <v>1012</v>
       </c>
-      <c r="HA21" s="95" t="s">
+      <c r="HB21" s="95" t="s">
         <v>1013</v>
       </c>
-      <c r="HB21" s="95" t="s">
+      <c r="HC21" s="95" t="s">
         <v>1014</v>
       </c>
-      <c r="HC21" s="95" t="s">
+      <c r="HD21" s="95" t="s">
         <v>1015</v>
       </c>
-      <c r="HD21" s="95" t="s">
+      <c r="HE21" s="95" t="s">
         <v>1016</v>
       </c>
-      <c r="HE21" s="95" t="s">
+      <c r="HF21" s="95" t="s">
         <v>1017</v>
       </c>
-      <c r="HF21" s="95" t="s">
+      <c r="HG21" s="95" t="s">
         <v>1018</v>
       </c>
-      <c r="HG21" s="95" t="s">
+      <c r="HH21" s="95" t="s">
         <v>1019</v>
       </c>
-      <c r="HH21" s="95" t="s">
+      <c r="HI21" s="95" t="s">
         <v>1020</v>
       </c>
-      <c r="HI21" s="95" t="s">
+      <c r="HJ21" s="95" t="s">
         <v>1021</v>
       </c>
-      <c r="HJ21" s="95" t="s">
+      <c r="HK21" s="95" t="s">
         <v>1022</v>
       </c>
-      <c r="HK21" s="95" t="s">
+      <c r="HL21" s="95" t="s">
         <v>1023</v>
       </c>
-      <c r="HL21" s="95" t="s">
+      <c r="HM21" s="95" t="s">
         <v>1024</v>
       </c>
-      <c r="HM21" s="95" t="s">
+      <c r="HN21" s="95" t="s">
         <v>1025</v>
       </c>
-      <c r="HN21" s="95" t="s">
+      <c r="HO21" s="95" t="s">
         <v>1026</v>
       </c>
-      <c r="HO21" s="95" t="s">
+      <c r="HP21" s="95" t="s">
         <v>1027</v>
       </c>
-      <c r="HP21" s="95" t="s">
+      <c r="HQ21" s="95" t="s">
         <v>1028</v>
       </c>
-      <c r="HQ21" s="95" t="s">
+      <c r="HR21" s="95" t="s">
         <v>1029</v>
       </c>
-      <c r="HR21" s="95" t="s">
+      <c r="HS21" s="95" t="s">
         <v>1030</v>
       </c>
-      <c r="HS21" s="95" t="s">
+      <c r="HT21" s="95" t="s">
         <v>1031</v>
       </c>
-      <c r="HT21" s="95" t="s">
+      <c r="HU21" s="95" t="s">
         <v>1032</v>
-      </c>
-      <c r="HU21" s="95" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="22" spans="1:900" ht="15.75" customHeight="1">
       <c r="A22" s="95" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B22" s="95" t="s">
         <v>1034</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="C22" s="95" t="s">
         <v>1035</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="D22" s="95" t="s">
         <v>1036</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="E22" s="95" t="s">
         <v>1037</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="F22" s="95" t="s">
         <v>1038</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="G22" s="95" t="s">
         <v>1039</v>
       </c>
-      <c r="G22" s="95" t="s">
+      <c r="H22" s="95" t="s">
         <v>1040</v>
       </c>
-      <c r="H22" s="95" t="s">
+      <c r="I22" s="95" t="s">
         <v>1041</v>
       </c>
-      <c r="I22" s="95" t="s">
+      <c r="J22" s="95" t="s">
         <v>1042</v>
       </c>
-      <c r="J22" s="95" t="s">
+      <c r="K22" s="95" t="s">
         <v>1043</v>
       </c>
-      <c r="K22" s="95" t="s">
+      <c r="L22" s="95" t="s">
         <v>1044</v>
       </c>
-      <c r="L22" s="95" t="s">
+      <c r="M22" s="95" t="s">
         <v>1045</v>
       </c>
-      <c r="M22" s="95" t="s">
+      <c r="N22" s="95" t="s">
         <v>1046</v>
       </c>
-      <c r="N22" s="95" t="s">
+      <c r="O22" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="O22" s="95" t="s">
+      <c r="P22" s="95" t="s">
         <v>1048</v>
       </c>
-      <c r="P22" s="95" t="s">
+      <c r="Q22" s="95" t="s">
         <v>1049</v>
       </c>
-      <c r="Q22" s="95" t="s">
+      <c r="R22" s="95" t="s">
         <v>1050</v>
       </c>
-      <c r="R22" s="95" t="s">
+      <c r="S22" s="95" t="s">
         <v>1051</v>
       </c>
-      <c r="S22" s="95" t="s">
+      <c r="T22" s="95" t="s">
         <v>1052</v>
-      </c>
-      <c r="T22" s="95" t="s">
-        <v>1053</v>
       </c>
       <c r="U22" s="95" t="s">
         <v>491</v>
       </c>
       <c r="V22" s="95" t="s">
+        <v>1053</v>
+      </c>
+      <c r="W22" s="95" t="s">
         <v>1054</v>
       </c>
-      <c r="W22" s="95" t="s">
+      <c r="X22" s="95" t="s">
         <v>1055</v>
       </c>
-      <c r="X22" s="95" t="s">
+      <c r="Y22" s="95" t="s">
         <v>1056</v>
       </c>
-      <c r="Y22" s="95" t="s">
+      <c r="Z22" s="95" t="s">
         <v>1057</v>
       </c>
-      <c r="Z22" s="95" t="s">
+      <c r="AA22" s="95" t="s">
         <v>1058</v>
       </c>
-      <c r="AA22" s="95" t="s">
+      <c r="AB22" s="95" t="s">
         <v>1059</v>
       </c>
-      <c r="AB22" s="95" t="s">
+      <c r="AC22" s="95" t="s">
         <v>1060</v>
       </c>
-      <c r="AC22" s="95" t="s">
+      <c r="AD22" s="95" t="s">
         <v>1061</v>
       </c>
-      <c r="AD22" s="95" t="s">
+      <c r="AE22" s="95" t="s">
         <v>1062</v>
       </c>
-      <c r="AE22" s="95" t="s">
+      <c r="AF22" s="95" t="s">
         <v>1063</v>
       </c>
-      <c r="AF22" s="95" t="s">
+      <c r="AG22" s="95" t="s">
         <v>1064</v>
-      </c>
-      <c r="AG22" s="95" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="23" spans="1:900" ht="15.75" customHeight="1">
       <c r="A23" s="95" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B23" s="95" t="s">
         <v>1066</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>1067</v>
       </c>
       <c r="C23" s="95" t="s">
         <v>285</v>
@@ -21245,36 +21243,36 @@
         <v>315</v>
       </c>
       <c r="E23" s="95" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F23" s="95" t="s">
         <v>1068</v>
       </c>
-      <c r="F23" s="95" t="s">
+      <c r="G23" s="95" t="s">
         <v>1069</v>
-      </c>
-      <c r="G23" s="95" t="s">
-        <v>1070</v>
       </c>
       <c r="H23" s="95" t="s">
         <v>286</v>
       </c>
       <c r="I23" s="95" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J23" s="95" t="s">
         <v>1071</v>
-      </c>
-      <c r="J23" s="95" t="s">
-        <v>1072</v>
       </c>
       <c r="K23" s="95" t="s">
         <v>264</v>
       </c>
       <c r="L23" s="95" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="24" spans="1:900" ht="15.75" customHeight="1">
       <c r="A24" s="95" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>1074</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>1075</v>
       </c>
       <c r="C24" s="95" t="s">
         <v>287</v>
@@ -21286,2689 +21284,2689 @@
         <v>288</v>
       </c>
       <c r="F24" s="95" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G24" s="95" t="s">
         <v>1076</v>
       </c>
-      <c r="G24" s="95" t="s">
+      <c r="H24" s="95" t="s">
         <v>1077</v>
       </c>
-      <c r="H24" s="95" t="s">
+      <c r="I24" s="95" t="s">
         <v>1078</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="J24" s="95" t="s">
         <v>1079</v>
       </c>
-      <c r="J24" s="95" t="s">
+      <c r="K24" s="95" t="s">
         <v>1080</v>
       </c>
-      <c r="K24" s="95" t="s">
+      <c r="L24" s="95" t="s">
         <v>1081</v>
       </c>
-      <c r="L24" s="95" t="s">
+      <c r="M24" s="95" t="s">
         <v>1082</v>
       </c>
-      <c r="M24" s="95" t="s">
+      <c r="N24" s="95" t="s">
         <v>1083</v>
       </c>
-      <c r="N24" s="95" t="s">
+      <c r="O24" s="95" t="s">
         <v>1084</v>
       </c>
-      <c r="O24" s="95" t="s">
+      <c r="P24" s="95" t="s">
         <v>1085</v>
       </c>
-      <c r="P24" s="95" t="s">
+      <c r="Q24" s="95" t="s">
         <v>1086</v>
       </c>
-      <c r="Q24" s="95" t="s">
+      <c r="R24" s="95" t="s">
         <v>1087</v>
       </c>
-      <c r="R24" s="95" t="s">
+      <c r="S24" s="95" t="s">
         <v>1088</v>
       </c>
-      <c r="S24" s="95" t="s">
+      <c r="T24" s="95" t="s">
         <v>1089</v>
       </c>
-      <c r="T24" s="95" t="s">
+      <c r="U24" s="95" t="s">
         <v>1090</v>
       </c>
-      <c r="U24" s="95" t="s">
+      <c r="V24" s="95" t="s">
         <v>1091</v>
       </c>
-      <c r="V24" s="95" t="s">
+      <c r="W24" s="95" t="s">
         <v>1092</v>
       </c>
-      <c r="W24" s="95" t="s">
+      <c r="X24" s="95" t="s">
         <v>1093</v>
       </c>
-      <c r="X24" s="95" t="s">
+      <c r="Y24" s="95" t="s">
         <v>1094</v>
       </c>
-      <c r="Y24" s="95" t="s">
+      <c r="Z24" s="95" t="s">
         <v>1095</v>
       </c>
-      <c r="Z24" s="95" t="s">
+      <c r="AA24" s="95" t="s">
         <v>1096</v>
       </c>
-      <c r="AA24" s="95" t="s">
+      <c r="AB24" s="95" t="s">
         <v>1097</v>
       </c>
-      <c r="AB24" s="95" t="s">
+      <c r="AC24" s="95" t="s">
         <v>1098</v>
       </c>
-      <c r="AC24" s="95" t="s">
+      <c r="AD24" s="95" t="s">
         <v>1099</v>
       </c>
-      <c r="AD24" s="95" t="s">
+      <c r="AE24" s="95" t="s">
         <v>1100</v>
       </c>
-      <c r="AE24" s="95" t="s">
+      <c r="AF24" s="95" t="s">
         <v>1101</v>
       </c>
-      <c r="AF24" s="95" t="s">
+      <c r="AG24" s="95" t="s">
         <v>1102</v>
       </c>
-      <c r="AG24" s="95" t="s">
+      <c r="AH24" s="95" t="s">
         <v>1103</v>
       </c>
-      <c r="AH24" s="95" t="s">
+      <c r="AI24" s="95" t="s">
         <v>1104</v>
       </c>
-      <c r="AI24" s="95" t="s">
+      <c r="AJ24" s="95" t="s">
         <v>1105</v>
       </c>
-      <c r="AJ24" s="95" t="s">
+      <c r="AK24" s="95" t="s">
         <v>1106</v>
       </c>
-      <c r="AK24" s="95" t="s">
+      <c r="AL24" s="95" t="s">
         <v>1107</v>
       </c>
-      <c r="AL24" s="95" t="s">
+      <c r="AM24" s="95" t="s">
         <v>1108</v>
       </c>
-      <c r="AM24" s="95" t="s">
+      <c r="AN24" s="95" t="s">
         <v>1109</v>
       </c>
-      <c r="AN24" s="95" t="s">
+      <c r="AO24" s="95" t="s">
         <v>1110</v>
       </c>
-      <c r="AO24" s="95" t="s">
+      <c r="AP24" s="95" t="s">
         <v>1111</v>
       </c>
-      <c r="AP24" s="95" t="s">
+      <c r="AQ24" s="95" t="s">
         <v>1112</v>
       </c>
-      <c r="AQ24" s="95" t="s">
+      <c r="AR24" s="95" t="s">
         <v>1113</v>
       </c>
-      <c r="AR24" s="95" t="s">
+      <c r="AS24" s="95" t="s">
         <v>1114</v>
       </c>
-      <c r="AS24" s="95" t="s">
+      <c r="AT24" s="95" t="s">
         <v>1115</v>
       </c>
-      <c r="AT24" s="95" t="s">
+      <c r="AU24" s="95" t="s">
         <v>1116</v>
       </c>
-      <c r="AU24" s="95" t="s">
+      <c r="AV24" s="95" t="s">
         <v>1117</v>
       </c>
-      <c r="AV24" s="95" t="s">
+      <c r="AW24" s="95" t="s">
         <v>1118</v>
       </c>
-      <c r="AW24" s="95" t="s">
+      <c r="AX24" s="95" t="s">
         <v>1119</v>
       </c>
-      <c r="AX24" s="95" t="s">
+      <c r="AY24" s="95" t="s">
         <v>1120</v>
       </c>
-      <c r="AY24" s="95" t="s">
+      <c r="AZ24" s="95" t="s">
         <v>1121</v>
       </c>
-      <c r="AZ24" s="95" t="s">
+      <c r="BA24" s="95" t="s">
         <v>1122</v>
       </c>
-      <c r="BA24" s="95" t="s">
+      <c r="BB24" s="95" t="s">
         <v>1123</v>
       </c>
-      <c r="BB24" s="95" t="s">
+      <c r="BC24" s="95" t="s">
         <v>1124</v>
       </c>
-      <c r="BC24" s="95" t="s">
+      <c r="BD24" s="95" t="s">
         <v>1125</v>
       </c>
-      <c r="BD24" s="95" t="s">
+      <c r="BE24" s="95" t="s">
         <v>1126</v>
       </c>
-      <c r="BE24" s="95" t="s">
+      <c r="BF24" s="95" t="s">
         <v>1127</v>
       </c>
-      <c r="BF24" s="95" t="s">
+      <c r="BG24" s="95" t="s">
         <v>1128</v>
       </c>
-      <c r="BG24" s="95" t="s">
+      <c r="BH24" s="95" t="s">
         <v>1129</v>
       </c>
-      <c r="BH24" s="95" t="s">
+      <c r="BI24" s="95" t="s">
         <v>1130</v>
       </c>
-      <c r="BI24" s="95" t="s">
+      <c r="BJ24" s="95" t="s">
         <v>1131</v>
       </c>
-      <c r="BJ24" s="95" t="s">
+      <c r="BK24" s="95" t="s">
         <v>1132</v>
       </c>
-      <c r="BK24" s="95" t="s">
+      <c r="BL24" s="95" t="s">
         <v>1133</v>
       </c>
-      <c r="BL24" s="95" t="s">
+      <c r="BM24" s="95" t="s">
         <v>1134</v>
       </c>
-      <c r="BM24" s="95" t="s">
+      <c r="BN24" s="95" t="s">
         <v>1135</v>
       </c>
-      <c r="BN24" s="95" t="s">
+      <c r="BO24" s="95" t="s">
         <v>1136</v>
       </c>
-      <c r="BO24" s="95" t="s">
+      <c r="BP24" s="95" t="s">
         <v>1137</v>
       </c>
-      <c r="BP24" s="95" t="s">
+      <c r="BQ24" s="95" t="s">
         <v>1138</v>
       </c>
-      <c r="BQ24" s="95" t="s">
+      <c r="BR24" s="95" t="s">
         <v>1139</v>
       </c>
-      <c r="BR24" s="95" t="s">
+      <c r="BS24" s="95" t="s">
         <v>1140</v>
       </c>
-      <c r="BS24" s="95" t="s">
+      <c r="BT24" s="95" t="s">
         <v>1141</v>
       </c>
-      <c r="BT24" s="95" t="s">
+      <c r="BU24" s="95" t="s">
         <v>1142</v>
       </c>
-      <c r="BU24" s="95" t="s">
+      <c r="BV24" s="95" t="s">
         <v>1143</v>
       </c>
-      <c r="BV24" s="95" t="s">
+      <c r="BW24" s="95" t="s">
         <v>1144</v>
       </c>
-      <c r="BW24" s="95" t="s">
+      <c r="BX24" s="95" t="s">
         <v>1145</v>
       </c>
-      <c r="BX24" s="95" t="s">
+      <c r="BY24" s="95" t="s">
         <v>1146</v>
       </c>
-      <c r="BY24" s="95" t="s">
+      <c r="BZ24" s="95" t="s">
         <v>1147</v>
       </c>
-      <c r="BZ24" s="95" t="s">
+      <c r="CA24" s="95" t="s">
         <v>1148</v>
       </c>
-      <c r="CA24" s="95" t="s">
+      <c r="CB24" s="95" t="s">
         <v>1149</v>
       </c>
-      <c r="CB24" s="95" t="s">
+      <c r="CC24" s="95" t="s">
         <v>1150</v>
       </c>
-      <c r="CC24" s="95" t="s">
+      <c r="CD24" s="95" t="s">
         <v>1151</v>
       </c>
-      <c r="CD24" s="95" t="s">
+      <c r="CE24" s="95" t="s">
         <v>1152</v>
       </c>
-      <c r="CE24" s="95" t="s">
+      <c r="CF24" s="95" t="s">
         <v>1153</v>
       </c>
-      <c r="CF24" s="95" t="s">
+      <c r="CG24" s="95" t="s">
         <v>1154</v>
       </c>
-      <c r="CG24" s="95" t="s">
+      <c r="CH24" s="95" t="s">
         <v>1155</v>
       </c>
-      <c r="CH24" s="95" t="s">
+      <c r="CI24" s="95" t="s">
         <v>1156</v>
       </c>
-      <c r="CI24" s="95" t="s">
+      <c r="CJ24" s="95" t="s">
         <v>1157</v>
       </c>
-      <c r="CJ24" s="95" t="s">
+      <c r="CK24" s="95" t="s">
         <v>1158</v>
       </c>
-      <c r="CK24" s="95" t="s">
+      <c r="CL24" s="95" t="s">
         <v>1159</v>
       </c>
-      <c r="CL24" s="95" t="s">
+      <c r="CM24" s="95" t="s">
         <v>1160</v>
       </c>
-      <c r="CM24" s="95" t="s">
+      <c r="CN24" s="95" t="s">
         <v>1161</v>
       </c>
-      <c r="CN24" s="95" t="s">
+      <c r="CO24" s="95" t="s">
         <v>1162</v>
       </c>
-      <c r="CO24" s="95" t="s">
+      <c r="CP24" s="95" t="s">
         <v>1163</v>
       </c>
-      <c r="CP24" s="95" t="s">
+      <c r="CQ24" s="95" t="s">
         <v>1164</v>
       </c>
-      <c r="CQ24" s="95" t="s">
+      <c r="CR24" s="95" t="s">
         <v>1165</v>
       </c>
-      <c r="CR24" s="95" t="s">
+      <c r="CS24" s="95" t="s">
         <v>1166</v>
       </c>
-      <c r="CS24" s="95" t="s">
+      <c r="CT24" s="95" t="s">
         <v>1167</v>
       </c>
-      <c r="CT24" s="95" t="s">
+      <c r="CU24" s="95" t="s">
         <v>1168</v>
       </c>
-      <c r="CU24" s="95" t="s">
+      <c r="CV24" s="95" t="s">
         <v>1169</v>
       </c>
-      <c r="CV24" s="95" t="s">
+      <c r="CW24" s="95" t="s">
         <v>1170</v>
       </c>
-      <c r="CW24" s="95" t="s">
+      <c r="CX24" s="95" t="s">
         <v>1171</v>
       </c>
-      <c r="CX24" s="95" t="s">
+      <c r="CY24" s="95" t="s">
         <v>1172</v>
       </c>
-      <c r="CY24" s="95" t="s">
+      <c r="CZ24" s="95" t="s">
         <v>1173</v>
       </c>
-      <c r="CZ24" s="95" t="s">
+      <c r="DA24" s="95" t="s">
         <v>1174</v>
       </c>
-      <c r="DA24" s="95" t="s">
+      <c r="DB24" s="95" t="s">
         <v>1175</v>
       </c>
-      <c r="DB24" s="95" t="s">
+      <c r="DC24" s="95" t="s">
         <v>1176</v>
       </c>
-      <c r="DC24" s="95" t="s">
+      <c r="DD24" s="95" t="s">
         <v>1177</v>
       </c>
-      <c r="DD24" s="95" t="s">
+      <c r="DE24" s="95" t="s">
         <v>1178</v>
       </c>
-      <c r="DE24" s="95" t="s">
+      <c r="DF24" s="95" t="s">
         <v>1179</v>
       </c>
-      <c r="DF24" s="95" t="s">
+      <c r="DG24" s="95" t="s">
         <v>1180</v>
       </c>
-      <c r="DG24" s="95" t="s">
+      <c r="DH24" s="95" t="s">
         <v>1181</v>
       </c>
-      <c r="DH24" s="95" t="s">
+      <c r="DI24" s="95" t="s">
         <v>1182</v>
       </c>
-      <c r="DI24" s="95" t="s">
+      <c r="DJ24" s="95" t="s">
         <v>1183</v>
       </c>
-      <c r="DJ24" s="95" t="s">
+      <c r="DK24" s="95" t="s">
         <v>1184</v>
       </c>
-      <c r="DK24" s="95" t="s">
+      <c r="DL24" s="95" t="s">
         <v>1185</v>
       </c>
-      <c r="DL24" s="95" t="s">
+      <c r="DM24" s="95" t="s">
         <v>1186</v>
       </c>
-      <c r="DM24" s="95" t="s">
+      <c r="DN24" s="95" t="s">
         <v>1187</v>
       </c>
-      <c r="DN24" s="95" t="s">
+      <c r="DO24" s="95" t="s">
         <v>1188</v>
       </c>
-      <c r="DO24" s="95" t="s">
+      <c r="DP24" s="95" t="s">
         <v>1189</v>
       </c>
-      <c r="DP24" s="95" t="s">
+      <c r="DQ24" s="95" t="s">
         <v>1190</v>
       </c>
-      <c r="DQ24" s="95" t="s">
+      <c r="DR24" s="95" t="s">
         <v>1191</v>
       </c>
-      <c r="DR24" s="95" t="s">
+      <c r="DS24" s="95" t="s">
         <v>1192</v>
       </c>
-      <c r="DS24" s="95" t="s">
+      <c r="DT24" s="95" t="s">
         <v>1193</v>
       </c>
-      <c r="DT24" s="95" t="s">
+      <c r="DU24" s="95" t="s">
         <v>1194</v>
       </c>
-      <c r="DU24" s="95" t="s">
+      <c r="DV24" s="95" t="s">
         <v>1195</v>
       </c>
-      <c r="DV24" s="95" t="s">
+      <c r="DW24" s="95" t="s">
         <v>1196</v>
       </c>
-      <c r="DW24" s="95" t="s">
+      <c r="DX24" s="95" t="s">
         <v>1197</v>
       </c>
-      <c r="DX24" s="95" t="s">
+      <c r="DY24" s="95" t="s">
         <v>1198</v>
       </c>
-      <c r="DY24" s="95" t="s">
+      <c r="DZ24" s="95" t="s">
         <v>1199</v>
       </c>
-      <c r="DZ24" s="95" t="s">
+      <c r="EA24" s="95" t="s">
         <v>1200</v>
       </c>
-      <c r="EA24" s="95" t="s">
+      <c r="EB24" s="95" t="s">
         <v>1201</v>
       </c>
-      <c r="EB24" s="95" t="s">
+      <c r="EC24" s="95" t="s">
         <v>1202</v>
       </c>
-      <c r="EC24" s="95" t="s">
+      <c r="ED24" s="95" t="s">
         <v>1203</v>
       </c>
-      <c r="ED24" s="95" t="s">
+      <c r="EE24" s="95" t="s">
         <v>1204</v>
       </c>
-      <c r="EE24" s="95" t="s">
+      <c r="EF24" s="95" t="s">
         <v>1205</v>
       </c>
-      <c r="EF24" s="95" t="s">
+      <c r="EG24" s="95" t="s">
         <v>1206</v>
       </c>
-      <c r="EG24" s="95" t="s">
+      <c r="EH24" s="95" t="s">
         <v>1207</v>
       </c>
-      <c r="EH24" s="95" t="s">
+      <c r="EI24" s="95" t="s">
         <v>1208</v>
       </c>
-      <c r="EI24" s="95" t="s">
+      <c r="EJ24" s="95" t="s">
         <v>1209</v>
       </c>
-      <c r="EJ24" s="95" t="s">
+      <c r="EK24" s="95" t="s">
         <v>1210</v>
       </c>
-      <c r="EK24" s="95" t="s">
+      <c r="EL24" s="95" t="s">
         <v>1211</v>
       </c>
-      <c r="EL24" s="95" t="s">
+      <c r="EM24" s="95" t="s">
         <v>1212</v>
       </c>
-      <c r="EM24" s="95" t="s">
+      <c r="EN24" s="95" t="s">
         <v>1213</v>
       </c>
-      <c r="EN24" s="95" t="s">
+      <c r="EO24" s="95" t="s">
         <v>1214</v>
       </c>
-      <c r="EO24" s="95" t="s">
+      <c r="EP24" s="95" t="s">
         <v>1215</v>
       </c>
-      <c r="EP24" s="95" t="s">
+      <c r="EQ24" s="95" t="s">
         <v>1216</v>
       </c>
-      <c r="EQ24" s="95" t="s">
+      <c r="ER24" s="95" t="s">
         <v>1217</v>
       </c>
-      <c r="ER24" s="95" t="s">
+      <c r="ES24" s="95" t="s">
         <v>1218</v>
       </c>
-      <c r="ES24" s="95" t="s">
+      <c r="ET24" s="95" t="s">
         <v>1219</v>
       </c>
-      <c r="ET24" s="95" t="s">
+      <c r="EU24" s="95" t="s">
         <v>1220</v>
       </c>
-      <c r="EU24" s="95" t="s">
+      <c r="EV24" s="95" t="s">
         <v>1221</v>
       </c>
-      <c r="EV24" s="95" t="s">
+      <c r="EW24" s="95" t="s">
         <v>1222</v>
       </c>
-      <c r="EW24" s="95" t="s">
+      <c r="EX24" s="95" t="s">
         <v>1223</v>
       </c>
-      <c r="EX24" s="95" t="s">
+      <c r="EY24" s="95" t="s">
         <v>1224</v>
       </c>
-      <c r="EY24" s="95" t="s">
+      <c r="EZ24" s="95" t="s">
         <v>1225</v>
       </c>
-      <c r="EZ24" s="95" t="s">
+      <c r="FA24" s="95" t="s">
         <v>1226</v>
       </c>
-      <c r="FA24" s="95" t="s">
+      <c r="FB24" s="95" t="s">
         <v>1227</v>
       </c>
-      <c r="FB24" s="95" t="s">
+      <c r="FC24" s="95" t="s">
         <v>1228</v>
       </c>
-      <c r="FC24" s="95" t="s">
+      <c r="FD24" s="95" t="s">
         <v>1229</v>
       </c>
-      <c r="FD24" s="95" t="s">
+      <c r="FE24" s="95" t="s">
         <v>1230</v>
       </c>
-      <c r="FE24" s="95" t="s">
+      <c r="FF24" s="95" t="s">
         <v>1231</v>
       </c>
-      <c r="FF24" s="95" t="s">
+      <c r="FG24" s="95" t="s">
         <v>1232</v>
       </c>
-      <c r="FG24" s="95" t="s">
+      <c r="FH24" s="95" t="s">
         <v>1233</v>
       </c>
-      <c r="FH24" s="95" t="s">
+      <c r="FI24" s="95" t="s">
         <v>1234</v>
       </c>
-      <c r="FI24" s="95" t="s">
+      <c r="FJ24" s="95" t="s">
         <v>1235</v>
       </c>
-      <c r="FJ24" s="95" t="s">
+      <c r="FK24" s="95" t="s">
         <v>1236</v>
       </c>
-      <c r="FK24" s="95" t="s">
+      <c r="FL24" s="95" t="s">
         <v>1237</v>
       </c>
-      <c r="FL24" s="95" t="s">
+      <c r="FM24" s="95" t="s">
         <v>1238</v>
       </c>
-      <c r="FM24" s="95" t="s">
+      <c r="FN24" s="95" t="s">
         <v>1239</v>
       </c>
-      <c r="FN24" s="95" t="s">
+      <c r="FO24" s="95" t="s">
         <v>1240</v>
       </c>
-      <c r="FO24" s="95" t="s">
+      <c r="FP24" s="95" t="s">
         <v>1241</v>
       </c>
-      <c r="FP24" s="95" t="s">
+      <c r="FQ24" s="95" t="s">
         <v>1242</v>
       </c>
-      <c r="FQ24" s="95" t="s">
+      <c r="FR24" s="95" t="s">
         <v>1243</v>
       </c>
-      <c r="FR24" s="95" t="s">
+      <c r="FS24" s="95" t="s">
         <v>1244</v>
       </c>
-      <c r="FS24" s="95" t="s">
+      <c r="FT24" s="95" t="s">
         <v>1245</v>
       </c>
-      <c r="FT24" s="95" t="s">
+      <c r="FU24" s="95" t="s">
         <v>1246</v>
       </c>
-      <c r="FU24" s="95" t="s">
+      <c r="FV24" s="95" t="s">
         <v>1247</v>
       </c>
-      <c r="FV24" s="95" t="s">
+      <c r="FW24" s="95" t="s">
         <v>1248</v>
       </c>
-      <c r="FW24" s="95" t="s">
+      <c r="FX24" s="95" t="s">
         <v>1249</v>
       </c>
-      <c r="FX24" s="95" t="s">
+      <c r="FY24" s="95" t="s">
         <v>1250</v>
       </c>
-      <c r="FY24" s="95" t="s">
+      <c r="FZ24" s="95" t="s">
         <v>1251</v>
       </c>
-      <c r="FZ24" s="95" t="s">
+      <c r="GA24" s="95" t="s">
         <v>1252</v>
       </c>
-      <c r="GA24" s="95" t="s">
+      <c r="GB24" s="95" t="s">
         <v>1253</v>
       </c>
-      <c r="GB24" s="95" t="s">
+      <c r="GC24" s="95" t="s">
         <v>1254</v>
       </c>
-      <c r="GC24" s="95" t="s">
+      <c r="GD24" s="95" t="s">
         <v>1255</v>
       </c>
-      <c r="GD24" s="95" t="s">
+      <c r="GE24" s="95" t="s">
         <v>1256</v>
       </c>
-      <c r="GE24" s="95" t="s">
+      <c r="GF24" s="95" t="s">
         <v>1257</v>
       </c>
-      <c r="GF24" s="95" t="s">
+      <c r="GG24" s="95" t="s">
         <v>1258</v>
       </c>
-      <c r="GG24" s="95" t="s">
+      <c r="GH24" s="95" t="s">
         <v>1259</v>
       </c>
-      <c r="GH24" s="95" t="s">
+      <c r="GI24" s="95" t="s">
         <v>1260</v>
       </c>
-      <c r="GI24" s="95" t="s">
+      <c r="GJ24" s="95" t="s">
         <v>1261</v>
       </c>
-      <c r="GJ24" s="95" t="s">
+      <c r="GK24" s="95" t="s">
         <v>1262</v>
       </c>
-      <c r="GK24" s="95" t="s">
+      <c r="GL24" s="95" t="s">
         <v>1263</v>
       </c>
-      <c r="GL24" s="95" t="s">
+      <c r="GM24" s="95" t="s">
         <v>1264</v>
       </c>
-      <c r="GM24" s="95" t="s">
+      <c r="GN24" s="95" t="s">
         <v>1265</v>
       </c>
-      <c r="GN24" s="95" t="s">
+      <c r="GO24" s="95" t="s">
         <v>1266</v>
       </c>
-      <c r="GO24" s="95" t="s">
+      <c r="GP24" s="95" t="s">
         <v>1267</v>
       </c>
-      <c r="GP24" s="95" t="s">
+      <c r="GQ24" s="95" t="s">
         <v>1268</v>
       </c>
-      <c r="GQ24" s="95" t="s">
+      <c r="GR24" s="95" t="s">
         <v>1269</v>
       </c>
-      <c r="GR24" s="95" t="s">
+      <c r="GS24" s="95" t="s">
         <v>1270</v>
       </c>
-      <c r="GS24" s="95" t="s">
+      <c r="GT24" s="95" t="s">
         <v>1271</v>
       </c>
-      <c r="GT24" s="95" t="s">
+      <c r="GU24" s="95" t="s">
         <v>1272</v>
       </c>
-      <c r="GU24" s="95" t="s">
+      <c r="GV24" s="95" t="s">
         <v>1273</v>
       </c>
-      <c r="GV24" s="95" t="s">
+      <c r="GW24" s="95" t="s">
         <v>1274</v>
       </c>
-      <c r="GW24" s="95" t="s">
+      <c r="GX24" s="95" t="s">
         <v>1275</v>
       </c>
-      <c r="GX24" s="95" t="s">
+      <c r="GY24" s="95" t="s">
         <v>1276</v>
       </c>
-      <c r="GY24" s="95" t="s">
+      <c r="GZ24" s="95" t="s">
         <v>1277</v>
       </c>
-      <c r="GZ24" s="95" t="s">
+      <c r="HA24" s="95" t="s">
         <v>1278</v>
       </c>
-      <c r="HA24" s="95" t="s">
+      <c r="HB24" s="95" t="s">
         <v>1279</v>
       </c>
-      <c r="HB24" s="95" t="s">
+      <c r="HC24" s="95" t="s">
         <v>1280</v>
       </c>
-      <c r="HC24" s="95" t="s">
+      <c r="HD24" s="95" t="s">
         <v>1281</v>
       </c>
-      <c r="HD24" s="95" t="s">
+      <c r="HE24" s="95" t="s">
         <v>1282</v>
       </c>
-      <c r="HE24" s="95" t="s">
+      <c r="HF24" s="95" t="s">
         <v>1283</v>
       </c>
-      <c r="HF24" s="95" t="s">
+      <c r="HG24" s="95" t="s">
         <v>1284</v>
       </c>
-      <c r="HG24" s="95" t="s">
+      <c r="HH24" s="95" t="s">
         <v>1285</v>
       </c>
-      <c r="HH24" s="95" t="s">
+      <c r="HI24" s="95" t="s">
         <v>1286</v>
       </c>
-      <c r="HI24" s="95" t="s">
+      <c r="HJ24" s="95" t="s">
         <v>1287</v>
       </c>
-      <c r="HJ24" s="95" t="s">
+      <c r="HK24" s="95" t="s">
         <v>1288</v>
       </c>
-      <c r="HK24" s="95" t="s">
+      <c r="HL24" s="95" t="s">
         <v>1289</v>
       </c>
-      <c r="HL24" s="95" t="s">
+      <c r="HM24" s="95" t="s">
         <v>1290</v>
       </c>
-      <c r="HM24" s="95" t="s">
+      <c r="HN24" s="95" t="s">
         <v>1291</v>
       </c>
-      <c r="HN24" s="95" t="s">
+      <c r="HO24" s="95" t="s">
         <v>1292</v>
       </c>
-      <c r="HO24" s="95" t="s">
+      <c r="HP24" s="95" t="s">
         <v>1293</v>
       </c>
-      <c r="HP24" s="95" t="s">
+      <c r="HQ24" s="95" t="s">
         <v>1294</v>
       </c>
-      <c r="HQ24" s="95" t="s">
+      <c r="HR24" s="95" t="s">
         <v>1295</v>
       </c>
-      <c r="HR24" s="95" t="s">
+      <c r="HS24" s="95" t="s">
         <v>1296</v>
       </c>
-      <c r="HS24" s="95" t="s">
+      <c r="HT24" s="95" t="s">
         <v>1297</v>
       </c>
-      <c r="HT24" s="95" t="s">
+      <c r="HU24" s="95" t="s">
         <v>1298</v>
       </c>
-      <c r="HU24" s="95" t="s">
+      <c r="HV24" s="95" t="s">
         <v>1299</v>
       </c>
-      <c r="HV24" s="95" t="s">
+      <c r="HW24" s="95" t="s">
         <v>1300</v>
       </c>
-      <c r="HW24" s="95" t="s">
+      <c r="HX24" s="95" t="s">
         <v>1301</v>
       </c>
-      <c r="HX24" s="95" t="s">
+      <c r="HY24" s="95" t="s">
         <v>1302</v>
       </c>
-      <c r="HY24" s="95" t="s">
+      <c r="HZ24" s="95" t="s">
         <v>1303</v>
       </c>
-      <c r="HZ24" s="95" t="s">
+      <c r="IA24" s="95" t="s">
         <v>1304</v>
       </c>
-      <c r="IA24" s="95" t="s">
+      <c r="IB24" s="95" t="s">
         <v>1305</v>
       </c>
-      <c r="IB24" s="95" t="s">
+      <c r="IC24" s="95" t="s">
         <v>1306</v>
       </c>
-      <c r="IC24" s="95" t="s">
+      <c r="ID24" s="95" t="s">
         <v>1307</v>
       </c>
-      <c r="ID24" s="95" t="s">
+      <c r="IE24" s="95" t="s">
         <v>1308</v>
       </c>
-      <c r="IE24" s="95" t="s">
+      <c r="IF24" s="95" t="s">
         <v>1309</v>
       </c>
-      <c r="IF24" s="95" t="s">
+      <c r="IG24" s="95" t="s">
         <v>1310</v>
       </c>
-      <c r="IG24" s="95" t="s">
+      <c r="IH24" s="95" t="s">
         <v>1311</v>
       </c>
-      <c r="IH24" s="95" t="s">
+      <c r="II24" s="95" t="s">
         <v>1312</v>
       </c>
-      <c r="II24" s="95" t="s">
+      <c r="IJ24" s="95" t="s">
         <v>1313</v>
       </c>
-      <c r="IJ24" s="95" t="s">
+      <c r="IK24" s="95" t="s">
         <v>1314</v>
       </c>
-      <c r="IK24" s="95" t="s">
+      <c r="IL24" s="95" t="s">
         <v>1315</v>
       </c>
-      <c r="IL24" s="95" t="s">
+      <c r="IM24" s="95" t="s">
         <v>1316</v>
       </c>
-      <c r="IM24" s="95" t="s">
+      <c r="IN24" s="95" t="s">
         <v>1317</v>
       </c>
-      <c r="IN24" s="95" t="s">
+      <c r="IO24" s="95" t="s">
         <v>1318</v>
       </c>
-      <c r="IO24" s="95" t="s">
+      <c r="IP24" s="95" t="s">
         <v>1319</v>
       </c>
-      <c r="IP24" s="95" t="s">
+      <c r="IQ24" s="95" t="s">
         <v>1320</v>
       </c>
-      <c r="IQ24" s="95" t="s">
+      <c r="IR24" s="95" t="s">
         <v>1321</v>
       </c>
-      <c r="IR24" s="95" t="s">
+      <c r="IS24" s="95" t="s">
         <v>1322</v>
       </c>
-      <c r="IS24" s="95" t="s">
+      <c r="IT24" s="95" t="s">
         <v>1323</v>
       </c>
-      <c r="IT24" s="95" t="s">
+      <c r="IU24" s="95" t="s">
         <v>1324</v>
       </c>
-      <c r="IU24" s="95" t="s">
+      <c r="IV24" s="95" t="s">
         <v>1325</v>
       </c>
-      <c r="IV24" s="95" t="s">
+      <c r="IW24" s="95" t="s">
         <v>1326</v>
       </c>
-      <c r="IW24" s="95" t="s">
+      <c r="IX24" s="95" t="s">
         <v>1327</v>
       </c>
-      <c r="IX24" s="95" t="s">
+      <c r="IY24" s="95" t="s">
         <v>1328</v>
       </c>
-      <c r="IY24" s="95" t="s">
+      <c r="IZ24" s="95" t="s">
         <v>1329</v>
       </c>
-      <c r="IZ24" s="95" t="s">
+      <c r="JA24" s="95" t="s">
         <v>1330</v>
       </c>
-      <c r="JA24" s="95" t="s">
+      <c r="JB24" s="95" t="s">
         <v>1331</v>
       </c>
-      <c r="JB24" s="95" t="s">
+      <c r="JC24" s="95" t="s">
         <v>1332</v>
       </c>
-      <c r="JC24" s="95" t="s">
+      <c r="JD24" s="95" t="s">
         <v>1333</v>
       </c>
-      <c r="JD24" s="95" t="s">
+      <c r="JE24" s="95" t="s">
         <v>1334</v>
       </c>
-      <c r="JE24" s="95" t="s">
+      <c r="JF24" s="95" t="s">
         <v>1335</v>
       </c>
-      <c r="JF24" s="95" t="s">
+      <c r="JG24" s="95" t="s">
         <v>1336</v>
       </c>
-      <c r="JG24" s="95" t="s">
+      <c r="JH24" s="95" t="s">
         <v>1337</v>
       </c>
-      <c r="JH24" s="95" t="s">
+      <c r="JI24" s="95" t="s">
         <v>1338</v>
       </c>
-      <c r="JI24" s="95" t="s">
+      <c r="JJ24" s="95" t="s">
         <v>1339</v>
       </c>
-      <c r="JJ24" s="95" t="s">
+      <c r="JK24" s="95" t="s">
         <v>1340</v>
       </c>
-      <c r="JK24" s="95" t="s">
+      <c r="JL24" s="95" t="s">
         <v>1341</v>
       </c>
-      <c r="JL24" s="95" t="s">
+      <c r="JM24" s="95" t="s">
         <v>1342</v>
       </c>
-      <c r="JM24" s="95" t="s">
+      <c r="JN24" s="95" t="s">
         <v>1343</v>
       </c>
-      <c r="JN24" s="95" t="s">
+      <c r="JO24" s="95" t="s">
         <v>1344</v>
       </c>
-      <c r="JO24" s="95" t="s">
+      <c r="JP24" s="95" t="s">
         <v>1345</v>
       </c>
-      <c r="JP24" s="95" t="s">
+      <c r="JQ24" s="95" t="s">
         <v>1346</v>
       </c>
-      <c r="JQ24" s="95" t="s">
+      <c r="JR24" s="95" t="s">
         <v>1347</v>
       </c>
-      <c r="JR24" s="95" t="s">
+      <c r="JS24" s="95" t="s">
         <v>1348</v>
       </c>
-      <c r="JS24" s="95" t="s">
+      <c r="JT24" s="95" t="s">
         <v>1349</v>
       </c>
-      <c r="JT24" s="95" t="s">
+      <c r="JU24" s="95" t="s">
         <v>1350</v>
       </c>
-      <c r="JU24" s="95" t="s">
+      <c r="JV24" s="95" t="s">
         <v>1351</v>
       </c>
-      <c r="JV24" s="95" t="s">
+      <c r="JW24" s="95" t="s">
         <v>1352</v>
       </c>
-      <c r="JW24" s="95" t="s">
+      <c r="JX24" s="95" t="s">
         <v>1353</v>
       </c>
-      <c r="JX24" s="95" t="s">
+      <c r="JY24" s="95" t="s">
         <v>1354</v>
       </c>
-      <c r="JY24" s="95" t="s">
+      <c r="JZ24" s="95" t="s">
         <v>1355</v>
       </c>
-      <c r="JZ24" s="95" t="s">
+      <c r="KA24" s="95" t="s">
         <v>1356</v>
       </c>
-      <c r="KA24" s="95" t="s">
+      <c r="KB24" s="95" t="s">
         <v>1357</v>
       </c>
-      <c r="KB24" s="95" t="s">
+      <c r="KC24" s="95" t="s">
         <v>1358</v>
       </c>
-      <c r="KC24" s="95" t="s">
+      <c r="KD24" s="95" t="s">
         <v>1359</v>
       </c>
-      <c r="KD24" s="95" t="s">
+      <c r="KE24" s="95" t="s">
         <v>1360</v>
       </c>
-      <c r="KE24" s="95" t="s">
+      <c r="KF24" s="95" t="s">
         <v>1361</v>
       </c>
-      <c r="KF24" s="95" t="s">
+      <c r="KG24" s="95" t="s">
         <v>1362</v>
       </c>
-      <c r="KG24" s="95" t="s">
+      <c r="KH24" s="95" t="s">
         <v>1363</v>
       </c>
-      <c r="KH24" s="95" t="s">
+      <c r="KI24" s="95" t="s">
         <v>1364</v>
       </c>
-      <c r="KI24" s="95" t="s">
+      <c r="KJ24" s="95" t="s">
         <v>1365</v>
       </c>
-      <c r="KJ24" s="95" t="s">
+      <c r="KK24" s="95" t="s">
         <v>1366</v>
       </c>
-      <c r="KK24" s="95" t="s">
+      <c r="KL24" s="95" t="s">
         <v>1367</v>
       </c>
-      <c r="KL24" s="95" t="s">
+      <c r="KM24" s="95" t="s">
         <v>1368</v>
       </c>
-      <c r="KM24" s="95" t="s">
+      <c r="KN24" s="95" t="s">
         <v>1369</v>
       </c>
-      <c r="KN24" s="95" t="s">
+      <c r="KO24" s="95" t="s">
         <v>1370</v>
       </c>
-      <c r="KO24" s="95" t="s">
+      <c r="KP24" s="95" t="s">
         <v>1371</v>
       </c>
-      <c r="KP24" s="95" t="s">
+      <c r="KQ24" s="95" t="s">
         <v>1372</v>
       </c>
-      <c r="KQ24" s="95" t="s">
+      <c r="KR24" s="95" t="s">
         <v>1373</v>
       </c>
-      <c r="KR24" s="95" t="s">
+      <c r="KS24" s="95" t="s">
         <v>1374</v>
       </c>
-      <c r="KS24" s="95" t="s">
+      <c r="KT24" s="95" t="s">
         <v>1375</v>
       </c>
-      <c r="KT24" s="95" t="s">
+      <c r="KU24" s="95" t="s">
         <v>1376</v>
       </c>
-      <c r="KU24" s="95" t="s">
+      <c r="KV24" s="95" t="s">
         <v>1377</v>
       </c>
-      <c r="KV24" s="95" t="s">
+      <c r="KW24" s="95" t="s">
         <v>1378</v>
       </c>
-      <c r="KW24" s="95" t="s">
+      <c r="KX24" s="95" t="s">
         <v>1379</v>
       </c>
-      <c r="KX24" s="95" t="s">
+      <c r="KY24" s="95" t="s">
         <v>1380</v>
       </c>
-      <c r="KY24" s="95" t="s">
+      <c r="KZ24" s="95" t="s">
         <v>1381</v>
       </c>
-      <c r="KZ24" s="95" t="s">
+      <c r="LA24" s="95" t="s">
         <v>1382</v>
       </c>
-      <c r="LA24" s="95" t="s">
+      <c r="LB24" s="95" t="s">
         <v>1383</v>
       </c>
-      <c r="LB24" s="95" t="s">
+      <c r="LC24" s="95" t="s">
         <v>1384</v>
       </c>
-      <c r="LC24" s="95" t="s">
+      <c r="LD24" s="95" t="s">
         <v>1385</v>
       </c>
-      <c r="LD24" s="95" t="s">
+      <c r="LE24" s="95" t="s">
         <v>1386</v>
       </c>
-      <c r="LE24" s="95" t="s">
+      <c r="LF24" s="95" t="s">
         <v>1387</v>
       </c>
-      <c r="LF24" s="95" t="s">
+      <c r="LG24" s="95" t="s">
         <v>1388</v>
       </c>
-      <c r="LG24" s="95" t="s">
+      <c r="LH24" s="95" t="s">
         <v>1389</v>
       </c>
-      <c r="LH24" s="95" t="s">
+      <c r="LI24" s="95" t="s">
         <v>1390</v>
       </c>
-      <c r="LI24" s="95" t="s">
+      <c r="LJ24" s="95" t="s">
         <v>1391</v>
       </c>
-      <c r="LJ24" s="95" t="s">
+      <c r="LK24" s="95" t="s">
         <v>1392</v>
       </c>
-      <c r="LK24" s="95" t="s">
+      <c r="LL24" s="95" t="s">
         <v>1393</v>
       </c>
-      <c r="LL24" s="95" t="s">
+      <c r="LM24" s="95" t="s">
         <v>1394</v>
       </c>
-      <c r="LM24" s="95" t="s">
+      <c r="LN24" s="95" t="s">
         <v>1395</v>
       </c>
-      <c r="LN24" s="95" t="s">
+      <c r="LO24" s="95" t="s">
         <v>1396</v>
       </c>
-      <c r="LO24" s="95" t="s">
+      <c r="LP24" s="95" t="s">
         <v>1397</v>
       </c>
-      <c r="LP24" s="95" t="s">
+      <c r="LQ24" s="95" t="s">
         <v>1398</v>
       </c>
-      <c r="LQ24" s="95" t="s">
+      <c r="LR24" s="95" t="s">
         <v>1399</v>
       </c>
-      <c r="LR24" s="95" t="s">
+      <c r="LS24" s="95" t="s">
         <v>1400</v>
       </c>
-      <c r="LS24" s="95" t="s">
+      <c r="LT24" s="95" t="s">
         <v>1401</v>
       </c>
-      <c r="LT24" s="95" t="s">
+      <c r="LU24" s="95" t="s">
         <v>1402</v>
       </c>
-      <c r="LU24" s="95" t="s">
+      <c r="LV24" s="95" t="s">
         <v>1403</v>
       </c>
-      <c r="LV24" s="95" t="s">
+      <c r="LW24" s="95" t="s">
         <v>1404</v>
       </c>
-      <c r="LW24" s="95" t="s">
+      <c r="LX24" s="95" t="s">
         <v>1405</v>
       </c>
-      <c r="LX24" s="95" t="s">
+      <c r="LY24" s="95" t="s">
         <v>1406</v>
       </c>
-      <c r="LY24" s="95" t="s">
+      <c r="LZ24" s="95" t="s">
         <v>1407</v>
       </c>
-      <c r="LZ24" s="95" t="s">
+      <c r="MA24" s="95" t="s">
         <v>1408</v>
       </c>
-      <c r="MA24" s="95" t="s">
+      <c r="MB24" s="95" t="s">
         <v>1409</v>
       </c>
-      <c r="MB24" s="95" t="s">
+      <c r="MC24" s="95" t="s">
         <v>1410</v>
       </c>
-      <c r="MC24" s="95" t="s">
+      <c r="MD24" s="95" t="s">
         <v>1411</v>
       </c>
-      <c r="MD24" s="95" t="s">
+      <c r="ME24" s="95" t="s">
         <v>1412</v>
       </c>
-      <c r="ME24" s="95" t="s">
+      <c r="MF24" s="95" t="s">
         <v>1413</v>
       </c>
-      <c r="MF24" s="95" t="s">
+      <c r="MG24" s="95" t="s">
         <v>1414</v>
       </c>
-      <c r="MG24" s="95" t="s">
+      <c r="MH24" s="95" t="s">
         <v>1415</v>
       </c>
-      <c r="MH24" s="95" t="s">
+      <c r="MI24" s="95" t="s">
         <v>1416</v>
       </c>
-      <c r="MI24" s="95" t="s">
+      <c r="MJ24" s="95" t="s">
         <v>1417</v>
       </c>
-      <c r="MJ24" s="95" t="s">
+      <c r="MK24" s="95" t="s">
         <v>1418</v>
       </c>
-      <c r="MK24" s="95" t="s">
+      <c r="ML24" s="95" t="s">
         <v>1419</v>
       </c>
-      <c r="ML24" s="95" t="s">
+      <c r="MM24" s="95" t="s">
         <v>1420</v>
       </c>
-      <c r="MM24" s="95" t="s">
+      <c r="MN24" s="95" t="s">
         <v>1421</v>
       </c>
-      <c r="MN24" s="95" t="s">
+      <c r="MO24" s="95" t="s">
         <v>1422</v>
       </c>
-      <c r="MO24" s="95" t="s">
+      <c r="MP24" s="95" t="s">
         <v>1423</v>
       </c>
-      <c r="MP24" s="95" t="s">
+      <c r="MQ24" s="95" t="s">
         <v>1424</v>
       </c>
-      <c r="MQ24" s="95" t="s">
+      <c r="MR24" s="95" t="s">
         <v>1425</v>
       </c>
-      <c r="MR24" s="95" t="s">
+      <c r="MS24" s="95" t="s">
         <v>1426</v>
       </c>
-      <c r="MS24" s="95" t="s">
+      <c r="MT24" s="95" t="s">
         <v>1427</v>
       </c>
-      <c r="MT24" s="95" t="s">
+      <c r="MU24" s="95" t="s">
         <v>1428</v>
       </c>
-      <c r="MU24" s="95" t="s">
+      <c r="MV24" s="95" t="s">
         <v>1429</v>
       </c>
-      <c r="MV24" s="95" t="s">
+      <c r="MW24" s="95" t="s">
         <v>1430</v>
       </c>
-      <c r="MW24" s="95" t="s">
+      <c r="MX24" s="95" t="s">
         <v>1431</v>
       </c>
-      <c r="MX24" s="95" t="s">
+      <c r="MY24" s="95" t="s">
         <v>1432</v>
       </c>
-      <c r="MY24" s="95" t="s">
+      <c r="MZ24" s="95" t="s">
         <v>1433</v>
       </c>
-      <c r="MZ24" s="95" t="s">
+      <c r="NA24" s="95" t="s">
         <v>1434</v>
       </c>
-      <c r="NA24" s="95" t="s">
+      <c r="NB24" s="95" t="s">
         <v>1435</v>
       </c>
-      <c r="NB24" s="95" t="s">
+      <c r="NC24" s="95" t="s">
         <v>1436</v>
       </c>
-      <c r="NC24" s="95" t="s">
+      <c r="ND24" s="95" t="s">
         <v>1437</v>
       </c>
-      <c r="ND24" s="95" t="s">
+      <c r="NE24" s="95" t="s">
         <v>1438</v>
       </c>
-      <c r="NE24" s="95" t="s">
+      <c r="NF24" s="95" t="s">
         <v>1439</v>
       </c>
-      <c r="NF24" s="95" t="s">
+      <c r="NG24" s="95" t="s">
         <v>1440</v>
       </c>
-      <c r="NG24" s="95" t="s">
+      <c r="NH24" s="95" t="s">
         <v>1441</v>
       </c>
-      <c r="NH24" s="95" t="s">
+      <c r="NI24" s="95" t="s">
         <v>1442</v>
       </c>
-      <c r="NI24" s="95" t="s">
+      <c r="NJ24" s="95" t="s">
         <v>1443</v>
       </c>
-      <c r="NJ24" s="95" t="s">
+      <c r="NK24" s="95" t="s">
         <v>1444</v>
       </c>
-      <c r="NK24" s="95" t="s">
+      <c r="NL24" s="95" t="s">
         <v>1445</v>
       </c>
-      <c r="NL24" s="95" t="s">
+      <c r="NM24" s="95" t="s">
         <v>1446</v>
       </c>
-      <c r="NM24" s="95" t="s">
+      <c r="NN24" s="95" t="s">
         <v>1447</v>
       </c>
-      <c r="NN24" s="95" t="s">
+      <c r="NO24" s="95" t="s">
         <v>1448</v>
       </c>
-      <c r="NO24" s="95" t="s">
+      <c r="NP24" s="95" t="s">
         <v>1449</v>
       </c>
-      <c r="NP24" s="95" t="s">
+      <c r="NQ24" s="95" t="s">
         <v>1450</v>
       </c>
-      <c r="NQ24" s="95" t="s">
+      <c r="NR24" s="95" t="s">
         <v>1451</v>
       </c>
-      <c r="NR24" s="95" t="s">
+      <c r="NS24" s="95" t="s">
         <v>1452</v>
       </c>
-      <c r="NS24" s="95" t="s">
+      <c r="NT24" s="95" t="s">
         <v>1453</v>
       </c>
-      <c r="NT24" s="95" t="s">
+      <c r="NU24" s="95" t="s">
         <v>1454</v>
       </c>
-      <c r="NU24" s="95" t="s">
+      <c r="NV24" s="95" t="s">
         <v>1455</v>
       </c>
-      <c r="NV24" s="95" t="s">
+      <c r="NW24" s="95" t="s">
         <v>1456</v>
       </c>
-      <c r="NW24" s="95" t="s">
+      <c r="NX24" s="95" t="s">
         <v>1457</v>
       </c>
-      <c r="NX24" s="95" t="s">
+      <c r="NY24" s="95" t="s">
         <v>1458</v>
       </c>
-      <c r="NY24" s="95" t="s">
+      <c r="NZ24" s="95" t="s">
         <v>1459</v>
       </c>
-      <c r="NZ24" s="95" t="s">
+      <c r="OA24" s="95" t="s">
         <v>1460</v>
       </c>
-      <c r="OA24" s="95" t="s">
+      <c r="OB24" s="95" t="s">
         <v>1461</v>
       </c>
-      <c r="OB24" s="95" t="s">
+      <c r="OC24" s="95" t="s">
         <v>1462</v>
       </c>
-      <c r="OC24" s="95" t="s">
+      <c r="OD24" s="95" t="s">
         <v>1463</v>
       </c>
-      <c r="OD24" s="95" t="s">
+      <c r="OE24" s="95" t="s">
         <v>1464</v>
       </c>
-      <c r="OE24" s="95" t="s">
+      <c r="OF24" s="95" t="s">
         <v>1465</v>
       </c>
-      <c r="OF24" s="95" t="s">
+      <c r="OG24" s="95" t="s">
         <v>1466</v>
       </c>
-      <c r="OG24" s="95" t="s">
+      <c r="OH24" s="95" t="s">
         <v>1467</v>
       </c>
-      <c r="OH24" s="95" t="s">
+      <c r="OI24" s="95" t="s">
         <v>1468</v>
       </c>
-      <c r="OI24" s="95" t="s">
+      <c r="OJ24" s="95" t="s">
         <v>1469</v>
       </c>
-      <c r="OJ24" s="95" t="s">
+      <c r="OK24" s="95" t="s">
         <v>1470</v>
       </c>
-      <c r="OK24" s="95" t="s">
+      <c r="OL24" s="95" t="s">
         <v>1471</v>
       </c>
-      <c r="OL24" s="95" t="s">
+      <c r="OM24" s="95" t="s">
         <v>1472</v>
       </c>
-      <c r="OM24" s="95" t="s">
+      <c r="ON24" s="95" t="s">
         <v>1473</v>
       </c>
-      <c r="ON24" s="95" t="s">
+      <c r="OO24" s="95" t="s">
         <v>1474</v>
       </c>
-      <c r="OO24" s="95" t="s">
+      <c r="OP24" s="95" t="s">
         <v>1475</v>
       </c>
-      <c r="OP24" s="95" t="s">
+      <c r="OQ24" s="95" t="s">
         <v>1476</v>
       </c>
-      <c r="OQ24" s="95" t="s">
+      <c r="OR24" s="95" t="s">
         <v>1477</v>
       </c>
-      <c r="OR24" s="95" t="s">
+      <c r="OS24" s="95" t="s">
         <v>1478</v>
       </c>
-      <c r="OS24" s="95" t="s">
+      <c r="OT24" s="95" t="s">
         <v>1479</v>
       </c>
-      <c r="OT24" s="95" t="s">
+      <c r="OU24" s="95" t="s">
         <v>1480</v>
       </c>
-      <c r="OU24" s="95" t="s">
+      <c r="OV24" s="95" t="s">
         <v>1481</v>
       </c>
-      <c r="OV24" s="95" t="s">
+      <c r="OW24" s="95" t="s">
         <v>1482</v>
       </c>
-      <c r="OW24" s="95" t="s">
+      <c r="OX24" s="95" t="s">
         <v>1483</v>
       </c>
-      <c r="OX24" s="95" t="s">
+      <c r="OY24" s="95" t="s">
         <v>1484</v>
       </c>
-      <c r="OY24" s="95" t="s">
+      <c r="OZ24" s="95" t="s">
         <v>1485</v>
       </c>
-      <c r="OZ24" s="95" t="s">
+      <c r="PA24" s="95" t="s">
         <v>1486</v>
       </c>
-      <c r="PA24" s="95" t="s">
+      <c r="PB24" s="95" t="s">
         <v>1487</v>
       </c>
-      <c r="PB24" s="95" t="s">
+      <c r="PC24" s="95" t="s">
         <v>1488</v>
       </c>
-      <c r="PC24" s="95" t="s">
+      <c r="PD24" s="95" t="s">
         <v>1489</v>
       </c>
-      <c r="PD24" s="95" t="s">
+      <c r="PE24" s="95" t="s">
         <v>1490</v>
       </c>
-      <c r="PE24" s="95" t="s">
+      <c r="PF24" s="95" t="s">
         <v>1491</v>
       </c>
-      <c r="PF24" s="95" t="s">
+      <c r="PG24" s="95" t="s">
         <v>1492</v>
       </c>
-      <c r="PG24" s="95" t="s">
+      <c r="PH24" s="95" t="s">
         <v>1493</v>
       </c>
-      <c r="PH24" s="95" t="s">
+      <c r="PI24" s="95" t="s">
         <v>1494</v>
       </c>
-      <c r="PI24" s="95" t="s">
+      <c r="PJ24" s="95" t="s">
         <v>1495</v>
       </c>
-      <c r="PJ24" s="95" t="s">
+      <c r="PK24" s="95" t="s">
         <v>1496</v>
       </c>
-      <c r="PK24" s="95" t="s">
+      <c r="PL24" s="95" t="s">
         <v>1497</v>
       </c>
-      <c r="PL24" s="95" t="s">
+      <c r="PM24" s="95" t="s">
         <v>1498</v>
       </c>
-      <c r="PM24" s="95" t="s">
+      <c r="PN24" s="95" t="s">
         <v>1499</v>
       </c>
-      <c r="PN24" s="95" t="s">
+      <c r="PO24" s="95" t="s">
         <v>1500</v>
       </c>
-      <c r="PO24" s="95" t="s">
+      <c r="PP24" s="95" t="s">
         <v>1501</v>
       </c>
-      <c r="PP24" s="95" t="s">
+      <c r="PQ24" s="95" t="s">
         <v>1502</v>
       </c>
-      <c r="PQ24" s="95" t="s">
+      <c r="PR24" s="95" t="s">
         <v>1503</v>
       </c>
-      <c r="PR24" s="95" t="s">
+      <c r="PS24" s="95" t="s">
         <v>1504</v>
       </c>
-      <c r="PS24" s="95" t="s">
+      <c r="PT24" s="95" t="s">
         <v>1505</v>
       </c>
-      <c r="PT24" s="95" t="s">
+      <c r="PU24" s="95" t="s">
         <v>1506</v>
       </c>
-      <c r="PU24" s="95" t="s">
+      <c r="PV24" s="95" t="s">
         <v>1507</v>
       </c>
-      <c r="PV24" s="95" t="s">
+      <c r="PW24" s="95" t="s">
         <v>1508</v>
       </c>
-      <c r="PW24" s="95" t="s">
+      <c r="PX24" s="95" t="s">
         <v>1509</v>
       </c>
-      <c r="PX24" s="95" t="s">
+      <c r="PY24" s="95" t="s">
         <v>1510</v>
       </c>
-      <c r="PY24" s="95" t="s">
+      <c r="PZ24" s="95" t="s">
         <v>1511</v>
       </c>
-      <c r="PZ24" s="95" t="s">
+      <c r="QA24" s="95" t="s">
         <v>1512</v>
       </c>
-      <c r="QA24" s="95" t="s">
+      <c r="QB24" s="95" t="s">
         <v>1513</v>
       </c>
-      <c r="QB24" s="95" t="s">
+      <c r="QC24" s="95" t="s">
         <v>1514</v>
       </c>
-      <c r="QC24" s="95" t="s">
+      <c r="QD24" s="95" t="s">
         <v>1515</v>
       </c>
-      <c r="QD24" s="95" t="s">
+      <c r="QE24" s="95" t="s">
         <v>1516</v>
       </c>
-      <c r="QE24" s="95" t="s">
+      <c r="QF24" s="95" t="s">
         <v>1517</v>
       </c>
-      <c r="QF24" s="95" t="s">
+      <c r="QG24" s="95" t="s">
         <v>1518</v>
       </c>
-      <c r="QG24" s="95" t="s">
+      <c r="QH24" s="95" t="s">
         <v>1519</v>
       </c>
-      <c r="QH24" s="95" t="s">
+      <c r="QI24" s="95" t="s">
         <v>1520</v>
       </c>
-      <c r="QI24" s="95" t="s">
+      <c r="QJ24" s="95" t="s">
         <v>1521</v>
       </c>
-      <c r="QJ24" s="95" t="s">
+      <c r="QK24" s="95" t="s">
         <v>1522</v>
       </c>
-      <c r="QK24" s="95" t="s">
+      <c r="QL24" s="95" t="s">
         <v>1523</v>
       </c>
-      <c r="QL24" s="95" t="s">
+      <c r="QM24" s="95" t="s">
         <v>1524</v>
       </c>
-      <c r="QM24" s="95" t="s">
+      <c r="QN24" s="95" t="s">
         <v>1525</v>
       </c>
-      <c r="QN24" s="95" t="s">
+      <c r="QO24" s="95" t="s">
         <v>1526</v>
       </c>
-      <c r="QO24" s="95" t="s">
+      <c r="QP24" s="95" t="s">
         <v>1527</v>
       </c>
-      <c r="QP24" s="95" t="s">
+      <c r="QQ24" s="95" t="s">
         <v>1528</v>
       </c>
-      <c r="QQ24" s="95" t="s">
+      <c r="QR24" s="95" t="s">
         <v>1529</v>
       </c>
-      <c r="QR24" s="95" t="s">
+      <c r="QS24" s="95" t="s">
         <v>1530</v>
       </c>
-      <c r="QS24" s="95" t="s">
+      <c r="QT24" s="95" t="s">
         <v>1531</v>
       </c>
-      <c r="QT24" s="95" t="s">
+      <c r="QU24" s="95" t="s">
         <v>1532</v>
       </c>
-      <c r="QU24" s="95" t="s">
+      <c r="QV24" s="95" t="s">
         <v>1533</v>
       </c>
-      <c r="QV24" s="95" t="s">
+      <c r="QW24" s="95" t="s">
         <v>1534</v>
       </c>
-      <c r="QW24" s="95" t="s">
+      <c r="QX24" s="95" t="s">
         <v>1535</v>
       </c>
-      <c r="QX24" s="95" t="s">
+      <c r="QY24" s="95" t="s">
         <v>1536</v>
       </c>
-      <c r="QY24" s="95" t="s">
+      <c r="QZ24" s="95" t="s">
         <v>1537</v>
       </c>
-      <c r="QZ24" s="95" t="s">
+      <c r="RA24" s="95" t="s">
         <v>1538</v>
       </c>
-      <c r="RA24" s="95" t="s">
+      <c r="RB24" s="95" t="s">
         <v>1539</v>
       </c>
-      <c r="RB24" s="95" t="s">
+      <c r="RC24" s="95" t="s">
         <v>1540</v>
       </c>
-      <c r="RC24" s="95" t="s">
+      <c r="RD24" s="95" t="s">
         <v>1541</v>
       </c>
-      <c r="RD24" s="95" t="s">
+      <c r="RE24" s="95" t="s">
         <v>1542</v>
       </c>
-      <c r="RE24" s="95" t="s">
+      <c r="RF24" s="95" t="s">
         <v>1543</v>
       </c>
-      <c r="RF24" s="95" t="s">
+      <c r="RG24" s="95" t="s">
         <v>1544</v>
       </c>
-      <c r="RG24" s="95" t="s">
+      <c r="RH24" s="95" t="s">
         <v>1545</v>
       </c>
-      <c r="RH24" s="95" t="s">
+      <c r="RI24" s="95" t="s">
         <v>1546</v>
       </c>
-      <c r="RI24" s="95" t="s">
+      <c r="RJ24" s="95" t="s">
         <v>1547</v>
       </c>
-      <c r="RJ24" s="95" t="s">
+      <c r="RK24" s="95" t="s">
         <v>1548</v>
       </c>
-      <c r="RK24" s="95" t="s">
+      <c r="RL24" s="95" t="s">
         <v>1549</v>
       </c>
-      <c r="RL24" s="95" t="s">
+      <c r="RM24" s="95" t="s">
         <v>1550</v>
       </c>
-      <c r="RM24" s="95" t="s">
+      <c r="RN24" s="95" t="s">
         <v>1551</v>
       </c>
-      <c r="RN24" s="95" t="s">
+      <c r="RO24" s="95" t="s">
         <v>1552</v>
       </c>
-      <c r="RO24" s="95" t="s">
+      <c r="RP24" s="95" t="s">
         <v>1553</v>
       </c>
-      <c r="RP24" s="95" t="s">
+      <c r="RQ24" s="95" t="s">
         <v>1554</v>
       </c>
-      <c r="RQ24" s="95" t="s">
+      <c r="RR24" s="95" t="s">
         <v>1555</v>
       </c>
-      <c r="RR24" s="95" t="s">
+      <c r="RS24" s="95" t="s">
         <v>1556</v>
       </c>
-      <c r="RS24" s="95" t="s">
+      <c r="RT24" s="95" t="s">
         <v>1557</v>
       </c>
-      <c r="RT24" s="95" t="s">
+      <c r="RU24" s="95" t="s">
         <v>1558</v>
       </c>
-      <c r="RU24" s="95" t="s">
+      <c r="RV24" s="95" t="s">
         <v>1559</v>
       </c>
-      <c r="RV24" s="95" t="s">
+      <c r="RW24" s="95" t="s">
         <v>1560</v>
       </c>
-      <c r="RW24" s="95" t="s">
+      <c r="RX24" s="95" t="s">
         <v>1561</v>
       </c>
-      <c r="RX24" s="95" t="s">
+      <c r="RY24" s="95" t="s">
         <v>1562</v>
       </c>
-      <c r="RY24" s="95" t="s">
+      <c r="RZ24" s="95" t="s">
         <v>1563</v>
       </c>
-      <c r="RZ24" s="95" t="s">
+      <c r="SA24" s="95" t="s">
         <v>1564</v>
       </c>
-      <c r="SA24" s="95" t="s">
+      <c r="SB24" s="95" t="s">
         <v>1565</v>
       </c>
-      <c r="SB24" s="95" t="s">
+      <c r="SC24" s="95" t="s">
         <v>1566</v>
       </c>
-      <c r="SC24" s="95" t="s">
+      <c r="SD24" s="95" t="s">
         <v>1567</v>
       </c>
-      <c r="SD24" s="95" t="s">
+      <c r="SE24" s="95" t="s">
         <v>1568</v>
       </c>
-      <c r="SE24" s="95" t="s">
+      <c r="SF24" s="95" t="s">
         <v>1569</v>
       </c>
-      <c r="SF24" s="95" t="s">
+      <c r="SG24" s="95" t="s">
         <v>1570</v>
       </c>
-      <c r="SG24" s="95" t="s">
+      <c r="SH24" s="95" t="s">
         <v>1571</v>
       </c>
-      <c r="SH24" s="95" t="s">
+      <c r="SI24" s="95" t="s">
         <v>1572</v>
       </c>
-      <c r="SI24" s="95" t="s">
+      <c r="SJ24" s="95" t="s">
         <v>1573</v>
       </c>
-      <c r="SJ24" s="95" t="s">
+      <c r="SK24" s="95" t="s">
         <v>1574</v>
       </c>
-      <c r="SK24" s="95" t="s">
+      <c r="SL24" s="95" t="s">
         <v>1575</v>
       </c>
-      <c r="SL24" s="95" t="s">
+      <c r="SM24" s="95" t="s">
         <v>1576</v>
       </c>
-      <c r="SM24" s="95" t="s">
+      <c r="SN24" s="95" t="s">
         <v>1577</v>
       </c>
-      <c r="SN24" s="95" t="s">
+      <c r="SO24" s="95" t="s">
         <v>1578</v>
       </c>
-      <c r="SO24" s="95" t="s">
+      <c r="SP24" s="95" t="s">
         <v>1579</v>
       </c>
-      <c r="SP24" s="95" t="s">
+      <c r="SQ24" s="95" t="s">
         <v>1580</v>
       </c>
-      <c r="SQ24" s="95" t="s">
+      <c r="SR24" s="95" t="s">
         <v>1581</v>
       </c>
-      <c r="SR24" s="95" t="s">
+      <c r="SS24" s="95" t="s">
         <v>1582</v>
       </c>
-      <c r="SS24" s="95" t="s">
+      <c r="ST24" s="95" t="s">
         <v>1583</v>
       </c>
-      <c r="ST24" s="95" t="s">
+      <c r="SU24" s="95" t="s">
         <v>1584</v>
       </c>
-      <c r="SU24" s="95" t="s">
+      <c r="SV24" s="95" t="s">
         <v>1585</v>
       </c>
-      <c r="SV24" s="95" t="s">
+      <c r="SW24" s="95" t="s">
         <v>1586</v>
       </c>
-      <c r="SW24" s="95" t="s">
+      <c r="SX24" s="95" t="s">
         <v>1587</v>
       </c>
-      <c r="SX24" s="95" t="s">
+      <c r="SY24" s="95" t="s">
         <v>1588</v>
       </c>
-      <c r="SY24" s="95" t="s">
+      <c r="SZ24" s="95" t="s">
         <v>1589</v>
       </c>
-      <c r="SZ24" s="95" t="s">
+      <c r="TA24" s="95" t="s">
         <v>1590</v>
       </c>
-      <c r="TA24" s="95" t="s">
+      <c r="TB24" s="95" t="s">
         <v>1591</v>
       </c>
-      <c r="TB24" s="95" t="s">
+      <c r="TC24" s="95" t="s">
         <v>1592</v>
       </c>
-      <c r="TC24" s="95" t="s">
+      <c r="TD24" s="95" t="s">
         <v>1593</v>
       </c>
-      <c r="TD24" s="95" t="s">
+      <c r="TE24" s="95" t="s">
         <v>1594</v>
       </c>
-      <c r="TE24" s="95" t="s">
+      <c r="TF24" s="95" t="s">
         <v>1595</v>
       </c>
-      <c r="TF24" s="95" t="s">
+      <c r="TG24" s="95" t="s">
         <v>1596</v>
       </c>
-      <c r="TG24" s="95" t="s">
+      <c r="TH24" s="95" t="s">
         <v>1597</v>
       </c>
-      <c r="TH24" s="95" t="s">
+      <c r="TI24" s="95" t="s">
         <v>1598</v>
       </c>
-      <c r="TI24" s="95" t="s">
+      <c r="TJ24" s="95" t="s">
         <v>1599</v>
       </c>
-      <c r="TJ24" s="95" t="s">
+      <c r="TK24" s="95" t="s">
         <v>1600</v>
       </c>
-      <c r="TK24" s="95" t="s">
+      <c r="TL24" s="95" t="s">
         <v>1601</v>
       </c>
-      <c r="TL24" s="95" t="s">
+      <c r="TM24" s="95" t="s">
         <v>1602</v>
       </c>
-      <c r="TM24" s="95" t="s">
+      <c r="TN24" s="95" t="s">
         <v>1603</v>
       </c>
-      <c r="TN24" s="95" t="s">
+      <c r="TO24" s="95" t="s">
         <v>1604</v>
       </c>
-      <c r="TO24" s="95" t="s">
+      <c r="TP24" s="95" t="s">
         <v>1605</v>
       </c>
-      <c r="TP24" s="95" t="s">
+      <c r="TQ24" s="95" t="s">
         <v>1606</v>
       </c>
-      <c r="TQ24" s="95" t="s">
+      <c r="TR24" s="95" t="s">
         <v>1607</v>
       </c>
-      <c r="TR24" s="95" t="s">
+      <c r="TS24" s="95" t="s">
         <v>1608</v>
       </c>
-      <c r="TS24" s="95" t="s">
+      <c r="TT24" s="95" t="s">
         <v>1609</v>
       </c>
-      <c r="TT24" s="95" t="s">
+      <c r="TU24" s="95" t="s">
         <v>1610</v>
       </c>
-      <c r="TU24" s="95" t="s">
+      <c r="TV24" s="95" t="s">
         <v>1611</v>
       </c>
-      <c r="TV24" s="95" t="s">
+      <c r="TW24" s="95" t="s">
         <v>1612</v>
       </c>
-      <c r="TW24" s="95" t="s">
+      <c r="TX24" s="95" t="s">
         <v>1613</v>
       </c>
-      <c r="TX24" s="95" t="s">
+      <c r="TY24" s="95" t="s">
         <v>1614</v>
       </c>
-      <c r="TY24" s="95" t="s">
+      <c r="TZ24" s="95" t="s">
         <v>1615</v>
       </c>
-      <c r="TZ24" s="95" t="s">
+      <c r="UA24" s="95" t="s">
         <v>1616</v>
       </c>
-      <c r="UA24" s="95" t="s">
+      <c r="UB24" s="95" t="s">
         <v>1617</v>
       </c>
-      <c r="UB24" s="95" t="s">
+      <c r="UC24" s="95" t="s">
         <v>1618</v>
       </c>
-      <c r="UC24" s="95" t="s">
+      <c r="UD24" s="95" t="s">
         <v>1619</v>
       </c>
-      <c r="UD24" s="95" t="s">
+      <c r="UE24" s="95" t="s">
         <v>1620</v>
       </c>
-      <c r="UE24" s="95" t="s">
+      <c r="UF24" s="95" t="s">
         <v>1621</v>
       </c>
-      <c r="UF24" s="95" t="s">
+      <c r="UG24" s="95" t="s">
         <v>1622</v>
       </c>
-      <c r="UG24" s="95" t="s">
+      <c r="UH24" s="95" t="s">
         <v>1623</v>
       </c>
-      <c r="UH24" s="95" t="s">
+      <c r="UI24" s="95" t="s">
         <v>1624</v>
       </c>
-      <c r="UI24" s="95" t="s">
+      <c r="UJ24" s="95" t="s">
         <v>1625</v>
       </c>
-      <c r="UJ24" s="95" t="s">
+      <c r="UK24" s="95" t="s">
         <v>1626</v>
       </c>
-      <c r="UK24" s="95" t="s">
+      <c r="UL24" s="95" t="s">
         <v>1627</v>
       </c>
-      <c r="UL24" s="95" t="s">
+      <c r="UM24" s="95" t="s">
         <v>1628</v>
       </c>
-      <c r="UM24" s="95" t="s">
+      <c r="UN24" s="95" t="s">
         <v>1629</v>
       </c>
-      <c r="UN24" s="95" t="s">
+      <c r="UO24" s="95" t="s">
         <v>1630</v>
       </c>
-      <c r="UO24" s="95" t="s">
+      <c r="UP24" s="95" t="s">
         <v>1631</v>
       </c>
-      <c r="UP24" s="95" t="s">
+      <c r="UQ24" s="95" t="s">
         <v>1632</v>
       </c>
-      <c r="UQ24" s="95" t="s">
+      <c r="UR24" s="95" t="s">
         <v>1633</v>
       </c>
-      <c r="UR24" s="95" t="s">
+      <c r="US24" s="95" t="s">
         <v>1634</v>
       </c>
-      <c r="US24" s="95" t="s">
+      <c r="UT24" s="95" t="s">
         <v>1635</v>
       </c>
-      <c r="UT24" s="95" t="s">
+      <c r="UU24" s="95" t="s">
         <v>1636</v>
       </c>
-      <c r="UU24" s="95" t="s">
+      <c r="UV24" s="95" t="s">
         <v>1637</v>
       </c>
-      <c r="UV24" s="95" t="s">
+      <c r="UW24" s="95" t="s">
         <v>1638</v>
       </c>
-      <c r="UW24" s="95" t="s">
+      <c r="UX24" s="95" t="s">
         <v>1639</v>
       </c>
-      <c r="UX24" s="95" t="s">
+      <c r="UY24" s="95" t="s">
         <v>1640</v>
       </c>
-      <c r="UY24" s="95" t="s">
+      <c r="UZ24" s="95" t="s">
         <v>1641</v>
       </c>
-      <c r="UZ24" s="95" t="s">
+      <c r="VA24" s="95" t="s">
         <v>1642</v>
       </c>
-      <c r="VA24" s="95" t="s">
+      <c r="VB24" s="95" t="s">
         <v>1643</v>
       </c>
-      <c r="VB24" s="95" t="s">
+      <c r="VC24" s="95" t="s">
         <v>1644</v>
       </c>
-      <c r="VC24" s="95" t="s">
+      <c r="VD24" s="95" t="s">
         <v>1645</v>
       </c>
-      <c r="VD24" s="95" t="s">
+      <c r="VE24" s="95" t="s">
         <v>1646</v>
       </c>
-      <c r="VE24" s="95" t="s">
+      <c r="VF24" s="95" t="s">
         <v>1647</v>
       </c>
-      <c r="VF24" s="95" t="s">
+      <c r="VG24" s="95" t="s">
         <v>1648</v>
       </c>
-      <c r="VG24" s="95" t="s">
+      <c r="VH24" s="95" t="s">
         <v>1649</v>
       </c>
-      <c r="VH24" s="95" t="s">
+      <c r="VI24" s="95" t="s">
         <v>1650</v>
       </c>
-      <c r="VI24" s="95" t="s">
+      <c r="VJ24" s="95" t="s">
         <v>1651</v>
       </c>
-      <c r="VJ24" s="95" t="s">
+      <c r="VK24" s="95" t="s">
         <v>1652</v>
       </c>
-      <c r="VK24" s="95" t="s">
+      <c r="VL24" s="95" t="s">
         <v>1653</v>
       </c>
-      <c r="VL24" s="95" t="s">
+      <c r="VM24" s="95" t="s">
         <v>1654</v>
       </c>
-      <c r="VM24" s="95" t="s">
+      <c r="VN24" s="95" t="s">
         <v>1655</v>
       </c>
-      <c r="VN24" s="95" t="s">
+      <c r="VO24" s="95" t="s">
         <v>1656</v>
       </c>
-      <c r="VO24" s="95" t="s">
+      <c r="VP24" s="95" t="s">
         <v>1657</v>
       </c>
-      <c r="VP24" s="95" t="s">
+      <c r="VQ24" s="95" t="s">
         <v>1658</v>
       </c>
-      <c r="VQ24" s="95" t="s">
+      <c r="VR24" s="95" t="s">
         <v>1659</v>
       </c>
-      <c r="VR24" s="95" t="s">
+      <c r="VS24" s="95" t="s">
         <v>1660</v>
       </c>
-      <c r="VS24" s="95" t="s">
+      <c r="VT24" s="95" t="s">
         <v>1661</v>
       </c>
-      <c r="VT24" s="95" t="s">
+      <c r="VU24" s="95" t="s">
         <v>1662</v>
       </c>
-      <c r="VU24" s="95" t="s">
+      <c r="VV24" s="95" t="s">
         <v>1663</v>
       </c>
-      <c r="VV24" s="95" t="s">
+      <c r="VW24" s="95" t="s">
         <v>1664</v>
       </c>
-      <c r="VW24" s="95" t="s">
+      <c r="VX24" s="95" t="s">
         <v>1665</v>
       </c>
-      <c r="VX24" s="95" t="s">
+      <c r="VY24" s="95" t="s">
         <v>1666</v>
       </c>
-      <c r="VY24" s="95" t="s">
+      <c r="VZ24" s="95" t="s">
         <v>1667</v>
       </c>
-      <c r="VZ24" s="95" t="s">
+      <c r="WA24" s="95" t="s">
         <v>1668</v>
       </c>
-      <c r="WA24" s="95" t="s">
+      <c r="WB24" s="95" t="s">
         <v>1669</v>
       </c>
-      <c r="WB24" s="95" t="s">
+      <c r="WC24" s="95" t="s">
         <v>1670</v>
       </c>
-      <c r="WC24" s="95" t="s">
+      <c r="WD24" s="95" t="s">
         <v>1671</v>
       </c>
-      <c r="WD24" s="95" t="s">
+      <c r="WE24" s="95" t="s">
         <v>1672</v>
       </c>
-      <c r="WE24" s="95" t="s">
+      <c r="WF24" s="95" t="s">
         <v>1673</v>
       </c>
-      <c r="WF24" s="95" t="s">
+      <c r="WG24" s="95" t="s">
         <v>1674</v>
       </c>
-      <c r="WG24" s="95" t="s">
+      <c r="WH24" s="95" t="s">
         <v>1675</v>
       </c>
-      <c r="WH24" s="95" t="s">
+      <c r="WI24" s="95" t="s">
         <v>1676</v>
       </c>
-      <c r="WI24" s="95" t="s">
+      <c r="WJ24" s="95" t="s">
         <v>1677</v>
       </c>
-      <c r="WJ24" s="95" t="s">
+      <c r="WK24" s="95" t="s">
         <v>1678</v>
       </c>
-      <c r="WK24" s="95" t="s">
+      <c r="WL24" s="95" t="s">
         <v>1679</v>
       </c>
-      <c r="WL24" s="95" t="s">
+      <c r="WM24" s="95" t="s">
         <v>1680</v>
       </c>
-      <c r="WM24" s="95" t="s">
+      <c r="WN24" s="95" t="s">
         <v>1681</v>
       </c>
-      <c r="WN24" s="95" t="s">
+      <c r="WO24" s="95" t="s">
         <v>1682</v>
       </c>
-      <c r="WO24" s="95" t="s">
+      <c r="WP24" s="95" t="s">
         <v>1683</v>
       </c>
-      <c r="WP24" s="95" t="s">
+      <c r="WQ24" s="95" t="s">
         <v>1684</v>
       </c>
-      <c r="WQ24" s="95" t="s">
+      <c r="WR24" s="95" t="s">
         <v>1685</v>
       </c>
-      <c r="WR24" s="95" t="s">
+      <c r="WS24" s="95" t="s">
         <v>1686</v>
       </c>
-      <c r="WS24" s="95" t="s">
+      <c r="WT24" s="95" t="s">
         <v>1687</v>
       </c>
-      <c r="WT24" s="95" t="s">
+      <c r="WU24" s="95" t="s">
         <v>1688</v>
       </c>
-      <c r="WU24" s="95" t="s">
+      <c r="WV24" s="95" t="s">
         <v>1689</v>
       </c>
-      <c r="WV24" s="95" t="s">
+      <c r="WW24" s="95" t="s">
         <v>1690</v>
       </c>
-      <c r="WW24" s="95" t="s">
+      <c r="WX24" s="95" t="s">
         <v>1691</v>
       </c>
-      <c r="WX24" s="95" t="s">
+      <c r="WY24" s="95" t="s">
         <v>1692</v>
       </c>
-      <c r="WY24" s="95" t="s">
+      <c r="WZ24" s="95" t="s">
         <v>1693</v>
       </c>
-      <c r="WZ24" s="95" t="s">
+      <c r="XA24" s="95" t="s">
         <v>1694</v>
       </c>
-      <c r="XA24" s="95" t="s">
+      <c r="XB24" s="95" t="s">
         <v>1695</v>
       </c>
-      <c r="XB24" s="95" t="s">
+      <c r="XC24" s="95" t="s">
         <v>1696</v>
       </c>
-      <c r="XC24" s="95" t="s">
+      <c r="XD24" s="95" t="s">
         <v>1697</v>
       </c>
-      <c r="XD24" s="95" t="s">
+      <c r="XE24" s="95" t="s">
         <v>1698</v>
       </c>
-      <c r="XE24" s="95" t="s">
+      <c r="XF24" s="95" t="s">
         <v>1699</v>
       </c>
-      <c r="XF24" s="95" t="s">
+      <c r="XG24" s="95" t="s">
         <v>1700</v>
       </c>
-      <c r="XG24" s="95" t="s">
+      <c r="XH24" s="95" t="s">
         <v>1701</v>
       </c>
-      <c r="XH24" s="95" t="s">
+      <c r="XI24" s="95" t="s">
         <v>1702</v>
       </c>
-      <c r="XI24" s="95" t="s">
+      <c r="XJ24" s="95" t="s">
         <v>1703</v>
       </c>
-      <c r="XJ24" s="95" t="s">
+      <c r="XK24" s="95" t="s">
         <v>1704</v>
       </c>
-      <c r="XK24" s="95" t="s">
+      <c r="XL24" s="95" t="s">
         <v>1705</v>
       </c>
-      <c r="XL24" s="95" t="s">
+      <c r="XM24" s="95" t="s">
         <v>1706</v>
       </c>
-      <c r="XM24" s="95" t="s">
+      <c r="XN24" s="95" t="s">
         <v>1707</v>
       </c>
-      <c r="XN24" s="95" t="s">
+      <c r="XO24" s="95" t="s">
         <v>1708</v>
       </c>
-      <c r="XO24" s="95" t="s">
+      <c r="XP24" s="95" t="s">
         <v>1709</v>
       </c>
-      <c r="XP24" s="95" t="s">
+      <c r="XQ24" s="95" t="s">
         <v>1710</v>
       </c>
-      <c r="XQ24" s="95" t="s">
+      <c r="XR24" s="95" t="s">
         <v>1711</v>
       </c>
-      <c r="XR24" s="95" t="s">
+      <c r="XS24" s="95" t="s">
         <v>1712</v>
       </c>
-      <c r="XS24" s="95" t="s">
+      <c r="XT24" s="95" t="s">
         <v>1713</v>
       </c>
-      <c r="XT24" s="95" t="s">
+      <c r="XU24" s="95" t="s">
         <v>1714</v>
       </c>
-      <c r="XU24" s="95" t="s">
+      <c r="XV24" s="95" t="s">
         <v>1715</v>
       </c>
-      <c r="XV24" s="95" t="s">
+      <c r="XW24" s="95" t="s">
         <v>1716</v>
       </c>
-      <c r="XW24" s="95" t="s">
+      <c r="XX24" s="95" t="s">
         <v>1717</v>
       </c>
-      <c r="XX24" s="95" t="s">
+      <c r="XY24" s="95" t="s">
         <v>1718</v>
       </c>
-      <c r="XY24" s="95" t="s">
+      <c r="XZ24" s="95" t="s">
         <v>1719</v>
       </c>
-      <c r="XZ24" s="95" t="s">
+      <c r="YA24" s="95" t="s">
         <v>1720</v>
       </c>
-      <c r="YA24" s="95" t="s">
+      <c r="YB24" s="95" t="s">
         <v>1721</v>
       </c>
-      <c r="YB24" s="95" t="s">
+      <c r="YC24" s="95" t="s">
         <v>1722</v>
       </c>
-      <c r="YC24" s="95" t="s">
+      <c r="YD24" s="95" t="s">
         <v>1723</v>
       </c>
-      <c r="YD24" s="95" t="s">
+      <c r="YE24" s="95" t="s">
         <v>1724</v>
       </c>
-      <c r="YE24" s="95" t="s">
+      <c r="YF24" s="95" t="s">
         <v>1725</v>
       </c>
-      <c r="YF24" s="95" t="s">
+      <c r="YG24" s="95" t="s">
         <v>1726</v>
       </c>
-      <c r="YG24" s="95" t="s">
+      <c r="YH24" s="95" t="s">
         <v>1727</v>
       </c>
-      <c r="YH24" s="95" t="s">
+      <c r="YI24" s="95" t="s">
         <v>1728</v>
       </c>
-      <c r="YI24" s="95" t="s">
+      <c r="YJ24" s="95" t="s">
         <v>1729</v>
       </c>
-      <c r="YJ24" s="95" t="s">
+      <c r="YK24" s="95" t="s">
         <v>1730</v>
       </c>
-      <c r="YK24" s="95" t="s">
+      <c r="YL24" s="95" t="s">
         <v>1731</v>
       </c>
-      <c r="YL24" s="95" t="s">
+      <c r="YM24" s="95" t="s">
         <v>1732</v>
       </c>
-      <c r="YM24" s="95" t="s">
+      <c r="YN24" s="95" t="s">
         <v>1733</v>
       </c>
-      <c r="YN24" s="95" t="s">
+      <c r="YO24" s="95" t="s">
         <v>1734</v>
       </c>
-      <c r="YO24" s="95" t="s">
+      <c r="YP24" s="95" t="s">
         <v>1735</v>
       </c>
-      <c r="YP24" s="95" t="s">
+      <c r="YQ24" s="95" t="s">
         <v>1736</v>
       </c>
-      <c r="YQ24" s="95" t="s">
+      <c r="YR24" s="95" t="s">
         <v>1737</v>
       </c>
-      <c r="YR24" s="95" t="s">
+      <c r="YS24" s="95" t="s">
         <v>1738</v>
       </c>
-      <c r="YS24" s="95" t="s">
+      <c r="YT24" s="95" t="s">
         <v>1739</v>
       </c>
-      <c r="YT24" s="95" t="s">
+      <c r="YU24" s="95" t="s">
         <v>1740</v>
       </c>
-      <c r="YU24" s="95" t="s">
+      <c r="YV24" s="95" t="s">
         <v>1741</v>
       </c>
-      <c r="YV24" s="95" t="s">
+      <c r="YW24" s="95" t="s">
         <v>1742</v>
       </c>
-      <c r="YW24" s="95" t="s">
+      <c r="YX24" s="95" t="s">
         <v>1743</v>
       </c>
-      <c r="YX24" s="95" t="s">
+      <c r="YY24" s="95" t="s">
         <v>1744</v>
       </c>
-      <c r="YY24" s="95" t="s">
+      <c r="YZ24" s="95" t="s">
         <v>1745</v>
       </c>
-      <c r="YZ24" s="95" t="s">
+      <c r="ZA24" s="95" t="s">
         <v>1746</v>
       </c>
-      <c r="ZA24" s="95" t="s">
+      <c r="ZB24" s="95" t="s">
         <v>1747</v>
       </c>
-      <c r="ZB24" s="95" t="s">
+      <c r="ZC24" s="95" t="s">
         <v>1748</v>
       </c>
-      <c r="ZC24" s="95" t="s">
+      <c r="ZD24" s="95" t="s">
         <v>1749</v>
       </c>
-      <c r="ZD24" s="95" t="s">
+      <c r="ZE24" s="95" t="s">
         <v>1750</v>
       </c>
-      <c r="ZE24" s="95" t="s">
+      <c r="ZF24" s="95" t="s">
         <v>1751</v>
       </c>
-      <c r="ZF24" s="95" t="s">
+      <c r="ZG24" s="95" t="s">
         <v>1752</v>
       </c>
-      <c r="ZG24" s="95" t="s">
+      <c r="ZH24" s="95" t="s">
         <v>1753</v>
       </c>
-      <c r="ZH24" s="95" t="s">
+      <c r="ZI24" s="95" t="s">
         <v>1754</v>
       </c>
-      <c r="ZI24" s="95" t="s">
+      <c r="ZJ24" s="95" t="s">
         <v>1755</v>
       </c>
-      <c r="ZJ24" s="95" t="s">
+      <c r="ZK24" s="95" t="s">
         <v>1756</v>
       </c>
-      <c r="ZK24" s="95" t="s">
+      <c r="ZL24" s="95" t="s">
         <v>1757</v>
       </c>
-      <c r="ZL24" s="95" t="s">
+      <c r="ZM24" s="95" t="s">
         <v>1758</v>
       </c>
-      <c r="ZM24" s="95" t="s">
+      <c r="ZN24" s="95" t="s">
         <v>1759</v>
       </c>
-      <c r="ZN24" s="95" t="s">
+      <c r="ZO24" s="95" t="s">
         <v>1760</v>
       </c>
-      <c r="ZO24" s="95" t="s">
+      <c r="ZP24" s="95" t="s">
         <v>1761</v>
       </c>
-      <c r="ZP24" s="95" t="s">
+      <c r="ZQ24" s="95" t="s">
         <v>1762</v>
       </c>
-      <c r="ZQ24" s="95" t="s">
+      <c r="ZR24" s="95" t="s">
         <v>1763</v>
       </c>
-      <c r="ZR24" s="95" t="s">
+      <c r="ZS24" s="95" t="s">
         <v>1764</v>
       </c>
-      <c r="ZS24" s="95" t="s">
+      <c r="ZT24" s="95" t="s">
         <v>1765</v>
       </c>
-      <c r="ZT24" s="95" t="s">
+      <c r="ZU24" s="95" t="s">
         <v>1766</v>
       </c>
-      <c r="ZU24" s="95" t="s">
+      <c r="ZV24" s="95" t="s">
         <v>1767</v>
       </c>
-      <c r="ZV24" s="95" t="s">
+      <c r="ZW24" s="95" t="s">
         <v>1768</v>
       </c>
-      <c r="ZW24" s="95" t="s">
+      <c r="ZX24" s="95" t="s">
         <v>1769</v>
       </c>
-      <c r="ZX24" s="95" t="s">
+      <c r="ZY24" s="95" t="s">
         <v>1770</v>
       </c>
-      <c r="ZY24" s="95" t="s">
+      <c r="ZZ24" s="95" t="s">
         <v>1771</v>
       </c>
-      <c r="ZZ24" s="95" t="s">
+      <c r="AAA24" s="95" t="s">
         <v>1772</v>
       </c>
-      <c r="AAA24" s="95" t="s">
+      <c r="AAB24" s="95" t="s">
         <v>1773</v>
       </c>
-      <c r="AAB24" s="95" t="s">
+      <c r="AAC24" s="95" t="s">
         <v>1774</v>
       </c>
-      <c r="AAC24" s="95" t="s">
+      <c r="AAD24" s="95" t="s">
         <v>1775</v>
       </c>
-      <c r="AAD24" s="95" t="s">
+      <c r="AAE24" s="95" t="s">
         <v>1776</v>
       </c>
-      <c r="AAE24" s="95" t="s">
+      <c r="AAF24" s="95" t="s">
         <v>1777</v>
       </c>
-      <c r="AAF24" s="95" t="s">
+      <c r="AAG24" s="95" t="s">
         <v>1778</v>
       </c>
-      <c r="AAG24" s="95" t="s">
+      <c r="AAH24" s="95" t="s">
         <v>1779</v>
       </c>
-      <c r="AAH24" s="95" t="s">
+      <c r="AAI24" s="95" t="s">
         <v>1780</v>
       </c>
-      <c r="AAI24" s="95" t="s">
+      <c r="AAJ24" s="95" t="s">
         <v>1781</v>
       </c>
-      <c r="AAJ24" s="95" t="s">
+      <c r="AAK24" s="95" t="s">
         <v>1782</v>
       </c>
-      <c r="AAK24" s="95" t="s">
+      <c r="AAL24" s="95" t="s">
         <v>1783</v>
       </c>
-      <c r="AAL24" s="95" t="s">
+      <c r="AAM24" s="95" t="s">
         <v>1784</v>
       </c>
-      <c r="AAM24" s="95" t="s">
+      <c r="AAN24" s="95" t="s">
         <v>1785</v>
       </c>
-      <c r="AAN24" s="95" t="s">
+      <c r="AAO24" s="95" t="s">
         <v>1786</v>
       </c>
-      <c r="AAO24" s="95" t="s">
+      <c r="AAP24" s="95" t="s">
         <v>1787</v>
       </c>
-      <c r="AAP24" s="95" t="s">
+      <c r="AAQ24" s="95" t="s">
         <v>1788</v>
       </c>
-      <c r="AAQ24" s="95" t="s">
+      <c r="AAR24" s="95" t="s">
         <v>1789</v>
       </c>
-      <c r="AAR24" s="95" t="s">
+      <c r="AAS24" s="95" t="s">
         <v>1790</v>
       </c>
-      <c r="AAS24" s="95" t="s">
+      <c r="AAT24" s="95" t="s">
         <v>1791</v>
       </c>
-      <c r="AAT24" s="95" t="s">
+      <c r="AAU24" s="95" t="s">
         <v>1792</v>
       </c>
-      <c r="AAU24" s="95" t="s">
+      <c r="AAV24" s="95" t="s">
         <v>1793</v>
       </c>
-      <c r="AAV24" s="95" t="s">
+      <c r="AAW24" s="95" t="s">
         <v>1794</v>
       </c>
-      <c r="AAW24" s="95" t="s">
+      <c r="AAX24" s="95" t="s">
         <v>1795</v>
       </c>
-      <c r="AAX24" s="95" t="s">
+      <c r="AAY24" s="95" t="s">
         <v>1796</v>
       </c>
-      <c r="AAY24" s="95" t="s">
+      <c r="AAZ24" s="95" t="s">
         <v>1797</v>
       </c>
-      <c r="AAZ24" s="95" t="s">
+      <c r="ABA24" s="95" t="s">
         <v>1798</v>
       </c>
-      <c r="ABA24" s="95" t="s">
+      <c r="ABB24" s="95" t="s">
         <v>1799</v>
       </c>
-      <c r="ABB24" s="95" t="s">
+      <c r="ABC24" s="95" t="s">
         <v>1800</v>
       </c>
-      <c r="ABC24" s="95" t="s">
+      <c r="ABD24" s="95" t="s">
         <v>1801</v>
       </c>
-      <c r="ABD24" s="95" t="s">
+      <c r="ABE24" s="95" t="s">
         <v>1802</v>
       </c>
-      <c r="ABE24" s="95" t="s">
+      <c r="ABF24" s="95" t="s">
         <v>1803</v>
       </c>
-      <c r="ABF24" s="95" t="s">
+      <c r="ABG24" s="95" t="s">
         <v>1804</v>
       </c>
-      <c r="ABG24" s="95" t="s">
+      <c r="ABH24" s="95" t="s">
         <v>1805</v>
       </c>
-      <c r="ABH24" s="95" t="s">
+      <c r="ABI24" s="95" t="s">
         <v>1806</v>
       </c>
-      <c r="ABI24" s="95" t="s">
+      <c r="ABJ24" s="95" t="s">
         <v>1807</v>
       </c>
-      <c r="ABJ24" s="95" t="s">
+      <c r="ABK24" s="95" t="s">
         <v>1808</v>
       </c>
-      <c r="ABK24" s="95" t="s">
+      <c r="ABL24" s="95" t="s">
         <v>1809</v>
       </c>
-      <c r="ABL24" s="95" t="s">
+      <c r="ABM24" s="95" t="s">
         <v>1810</v>
       </c>
-      <c r="ABM24" s="95" t="s">
+      <c r="ABN24" s="95" t="s">
         <v>1811</v>
       </c>
-      <c r="ABN24" s="95" t="s">
+      <c r="ABO24" s="95" t="s">
         <v>1812</v>
       </c>
-      <c r="ABO24" s="95" t="s">
+      <c r="ABP24" s="95" t="s">
         <v>1813</v>
       </c>
-      <c r="ABP24" s="95" t="s">
+      <c r="ABQ24" s="95" t="s">
         <v>1814</v>
       </c>
-      <c r="ABQ24" s="95" t="s">
+      <c r="ABR24" s="95" t="s">
         <v>1815</v>
       </c>
-      <c r="ABR24" s="95" t="s">
+      <c r="ABS24" s="95" t="s">
         <v>1816</v>
       </c>
-      <c r="ABS24" s="95" t="s">
+      <c r="ABT24" s="95" t="s">
         <v>1817</v>
       </c>
-      <c r="ABT24" s="95" t="s">
+      <c r="ABU24" s="95" t="s">
         <v>1818</v>
       </c>
-      <c r="ABU24" s="95" t="s">
+      <c r="ABV24" s="95" t="s">
         <v>1819</v>
       </c>
-      <c r="ABV24" s="95" t="s">
+      <c r="ABW24" s="95" t="s">
         <v>1820</v>
       </c>
-      <c r="ABW24" s="95" t="s">
+      <c r="ABX24" s="95" t="s">
         <v>1821</v>
       </c>
-      <c r="ABX24" s="95" t="s">
+      <c r="ABY24" s="95" t="s">
         <v>1822</v>
       </c>
-      <c r="ABY24" s="95" t="s">
+      <c r="ABZ24" s="95" t="s">
         <v>1823</v>
       </c>
-      <c r="ABZ24" s="95" t="s">
+      <c r="ACA24" s="95" t="s">
         <v>1824</v>
       </c>
-      <c r="ACA24" s="95" t="s">
+      <c r="ACB24" s="95" t="s">
         <v>1825</v>
       </c>
-      <c r="ACB24" s="95" t="s">
+      <c r="ACC24" s="95" t="s">
         <v>1826</v>
       </c>
-      <c r="ACC24" s="95" t="s">
+      <c r="ACD24" s="95" t="s">
         <v>1827</v>
       </c>
-      <c r="ACD24" s="95" t="s">
+      <c r="ACE24" s="95" t="s">
         <v>1828</v>
       </c>
-      <c r="ACE24" s="95" t="s">
+      <c r="ACF24" s="95" t="s">
         <v>1829</v>
       </c>
-      <c r="ACF24" s="95" t="s">
+      <c r="ACG24" s="95" t="s">
         <v>1830</v>
       </c>
-      <c r="ACG24" s="95" t="s">
+      <c r="ACH24" s="95" t="s">
         <v>1831</v>
       </c>
-      <c r="ACH24" s="95" t="s">
+      <c r="ACI24" s="95" t="s">
         <v>1832</v>
       </c>
-      <c r="ACI24" s="95" t="s">
+      <c r="ACJ24" s="95" t="s">
         <v>1833</v>
       </c>
-      <c r="ACJ24" s="95" t="s">
+      <c r="ACK24" s="95" t="s">
         <v>1834</v>
       </c>
-      <c r="ACK24" s="95" t="s">
+      <c r="ACL24" s="95" t="s">
         <v>1835</v>
       </c>
-      <c r="ACL24" s="95" t="s">
+      <c r="ACM24" s="95" t="s">
         <v>1836</v>
       </c>
-      <c r="ACM24" s="95" t="s">
+      <c r="ACN24" s="95" t="s">
         <v>1837</v>
       </c>
-      <c r="ACN24" s="95" t="s">
+      <c r="ACO24" s="95" t="s">
         <v>1838</v>
       </c>
-      <c r="ACO24" s="95" t="s">
+      <c r="ACP24" s="95" t="s">
         <v>1839</v>
       </c>
-      <c r="ACP24" s="95" t="s">
+      <c r="ACQ24" s="95" t="s">
         <v>1840</v>
       </c>
-      <c r="ACQ24" s="95" t="s">
+      <c r="ACR24" s="95" t="s">
         <v>1841</v>
       </c>
-      <c r="ACR24" s="95" t="s">
+      <c r="ACS24" s="95" t="s">
         <v>1842</v>
       </c>
-      <c r="ACS24" s="95" t="s">
+      <c r="ACT24" s="95" t="s">
         <v>1843</v>
       </c>
-      <c r="ACT24" s="95" t="s">
+      <c r="ACU24" s="95" t="s">
         <v>1844</v>
       </c>
-      <c r="ACU24" s="95" t="s">
+      <c r="ACV24" s="95" t="s">
         <v>1845</v>
       </c>
-      <c r="ACV24" s="95" t="s">
+      <c r="ACW24" s="95" t="s">
         <v>1846</v>
       </c>
-      <c r="ACW24" s="95" t="s">
+      <c r="ACX24" s="95" t="s">
         <v>1847</v>
       </c>
-      <c r="ACX24" s="95" t="s">
+      <c r="ACY24" s="95" t="s">
         <v>1848</v>
       </c>
-      <c r="ACY24" s="95" t="s">
+      <c r="ACZ24" s="95" t="s">
         <v>1849</v>
       </c>
-      <c r="ACZ24" s="95" t="s">
+      <c r="ADA24" s="95" t="s">
         <v>1850</v>
       </c>
-      <c r="ADA24" s="95" t="s">
+      <c r="ADB24" s="95" t="s">
         <v>1851</v>
       </c>
-      <c r="ADB24" s="95" t="s">
+      <c r="ADC24" s="95" t="s">
         <v>1852</v>
       </c>
-      <c r="ADC24" s="95" t="s">
+      <c r="ADD24" s="95" t="s">
         <v>1853</v>
       </c>
-      <c r="ADD24" s="95" t="s">
+      <c r="ADE24" s="95" t="s">
         <v>1854</v>
       </c>
-      <c r="ADE24" s="95" t="s">
+      <c r="ADF24" s="95" t="s">
         <v>1855</v>
       </c>
-      <c r="ADF24" s="95" t="s">
+      <c r="ADG24" s="95" t="s">
         <v>1856</v>
       </c>
-      <c r="ADG24" s="95" t="s">
+      <c r="ADH24" s="95" t="s">
         <v>1857</v>
       </c>
-      <c r="ADH24" s="95" t="s">
+      <c r="ADI24" s="95" t="s">
         <v>1858</v>
       </c>
-      <c r="ADI24" s="95" t="s">
+      <c r="ADJ24" s="95" t="s">
         <v>1859</v>
       </c>
-      <c r="ADJ24" s="95" t="s">
+      <c r="ADK24" s="95" t="s">
         <v>1860</v>
       </c>
-      <c r="ADK24" s="95" t="s">
+      <c r="ADL24" s="95" t="s">
         <v>1861</v>
       </c>
-      <c r="ADL24" s="95" t="s">
+      <c r="ADM24" s="95" t="s">
         <v>1862</v>
       </c>
-      <c r="ADM24" s="95" t="s">
+      <c r="ADN24" s="95" t="s">
         <v>1863</v>
       </c>
-      <c r="ADN24" s="95" t="s">
+      <c r="ADO24" s="95" t="s">
         <v>1864</v>
       </c>
-      <c r="ADO24" s="95" t="s">
+      <c r="ADP24" s="95" t="s">
         <v>1865</v>
       </c>
-      <c r="ADP24" s="95" t="s">
+      <c r="ADQ24" s="95" t="s">
         <v>1866</v>
       </c>
-      <c r="ADQ24" s="95" t="s">
+      <c r="ADR24" s="95" t="s">
         <v>1867</v>
       </c>
-      <c r="ADR24" s="95" t="s">
+      <c r="ADS24" s="95" t="s">
         <v>1868</v>
       </c>
-      <c r="ADS24" s="95" t="s">
+      <c r="ADT24" s="95" t="s">
         <v>1869</v>
       </c>
-      <c r="ADT24" s="95" t="s">
+      <c r="ADU24" s="95" t="s">
         <v>1870</v>
       </c>
-      <c r="ADU24" s="95" t="s">
+      <c r="ADV24" s="95" t="s">
         <v>1871</v>
       </c>
-      <c r="ADV24" s="95" t="s">
+      <c r="ADW24" s="95" t="s">
         <v>1872</v>
       </c>
-      <c r="ADW24" s="95" t="s">
+      <c r="ADX24" s="95" t="s">
         <v>1873</v>
       </c>
-      <c r="ADX24" s="95" t="s">
+      <c r="ADY24" s="95" t="s">
         <v>1874</v>
       </c>
-      <c r="ADY24" s="95" t="s">
+      <c r="ADZ24" s="95" t="s">
         <v>1875</v>
       </c>
-      <c r="ADZ24" s="95" t="s">
+      <c r="AEA24" s="95" t="s">
         <v>1876</v>
       </c>
-      <c r="AEA24" s="95" t="s">
+      <c r="AEB24" s="95" t="s">
         <v>1877</v>
       </c>
-      <c r="AEB24" s="95" t="s">
+      <c r="AEC24" s="95" t="s">
         <v>1878</v>
       </c>
-      <c r="AEC24" s="95" t="s">
+      <c r="AED24" s="95" t="s">
         <v>1879</v>
       </c>
-      <c r="AED24" s="95" t="s">
+      <c r="AEE24" s="95" t="s">
         <v>1880</v>
       </c>
-      <c r="AEE24" s="95" t="s">
+      <c r="AEF24" s="95" t="s">
         <v>1881</v>
       </c>
-      <c r="AEF24" s="95" t="s">
+      <c r="AEG24" s="95" t="s">
         <v>1882</v>
       </c>
-      <c r="AEG24" s="95" t="s">
+      <c r="AEH24" s="95" t="s">
         <v>1883</v>
       </c>
-      <c r="AEH24" s="95" t="s">
+      <c r="AEI24" s="95" t="s">
         <v>1884</v>
       </c>
-      <c r="AEI24" s="95" t="s">
+      <c r="AEJ24" s="95" t="s">
         <v>1885</v>
       </c>
-      <c r="AEJ24" s="95" t="s">
+      <c r="AEK24" s="95" t="s">
         <v>1886</v>
       </c>
-      <c r="AEK24" s="95" t="s">
+      <c r="AEL24" s="95" t="s">
         <v>1887</v>
       </c>
-      <c r="AEL24" s="95" t="s">
+      <c r="AEM24" s="95" t="s">
         <v>1888</v>
       </c>
-      <c r="AEM24" s="95" t="s">
+      <c r="AEN24" s="95" t="s">
         <v>1889</v>
       </c>
-      <c r="AEN24" s="95" t="s">
+      <c r="AEO24" s="95" t="s">
         <v>1890</v>
       </c>
-      <c r="AEO24" s="95" t="s">
+      <c r="AEP24" s="95" t="s">
         <v>1891</v>
       </c>
-      <c r="AEP24" s="95" t="s">
+      <c r="AEQ24" s="95" t="s">
         <v>1892</v>
       </c>
-      <c r="AEQ24" s="95" t="s">
+      <c r="AER24" s="95" t="s">
         <v>1893</v>
       </c>
-      <c r="AER24" s="95" t="s">
+      <c r="AES24" s="95" t="s">
         <v>1894</v>
       </c>
-      <c r="AES24" s="95" t="s">
+      <c r="AET24" s="95" t="s">
         <v>1895</v>
       </c>
-      <c r="AET24" s="95" t="s">
+      <c r="AEU24" s="95" t="s">
         <v>1896</v>
       </c>
-      <c r="AEU24" s="95" t="s">
+      <c r="AEV24" s="95" t="s">
         <v>1897</v>
       </c>
-      <c r="AEV24" s="95" t="s">
+      <c r="AEW24" s="95" t="s">
         <v>1898</v>
       </c>
-      <c r="AEW24" s="95" t="s">
+      <c r="AEX24" s="95" t="s">
         <v>1899</v>
       </c>
-      <c r="AEX24" s="95" t="s">
+      <c r="AEY24" s="95" t="s">
         <v>1900</v>
       </c>
-      <c r="AEY24" s="95" t="s">
+      <c r="AEZ24" s="95" t="s">
         <v>1901</v>
       </c>
-      <c r="AEZ24" s="95" t="s">
+      <c r="AFA24" s="95" t="s">
         <v>1902</v>
       </c>
-      <c r="AFA24" s="95" t="s">
+      <c r="AFB24" s="95" t="s">
         <v>1903</v>
       </c>
-      <c r="AFB24" s="95" t="s">
+      <c r="AFC24" s="95" t="s">
         <v>1904</v>
       </c>
-      <c r="AFC24" s="95" t="s">
+      <c r="AFD24" s="95" t="s">
         <v>1905</v>
       </c>
-      <c r="AFD24" s="95" t="s">
+      <c r="AFE24" s="95" t="s">
         <v>1906</v>
       </c>
-      <c r="AFE24" s="95" t="s">
+      <c r="AFF24" s="95" t="s">
         <v>1907</v>
       </c>
-      <c r="AFF24" s="95" t="s">
+      <c r="AFG24" s="95" t="s">
         <v>1908</v>
       </c>
-      <c r="AFG24" s="95" t="s">
+      <c r="AFH24" s="95" t="s">
         <v>1909</v>
       </c>
-      <c r="AFH24" s="95" t="s">
+      <c r="AFI24" s="95" t="s">
         <v>1910</v>
       </c>
-      <c r="AFI24" s="95" t="s">
+      <c r="AFJ24" s="95" t="s">
         <v>1911</v>
       </c>
-      <c r="AFJ24" s="95" t="s">
+      <c r="AFK24" s="95" t="s">
         <v>1912</v>
       </c>
-      <c r="AFK24" s="95" t="s">
+      <c r="AFL24" s="95" t="s">
         <v>1913</v>
       </c>
-      <c r="AFL24" s="95" t="s">
+      <c r="AFM24" s="95" t="s">
         <v>1914</v>
       </c>
-      <c r="AFM24" s="95" t="s">
+      <c r="AFN24" s="95" t="s">
         <v>1915</v>
       </c>
-      <c r="AFN24" s="95" t="s">
+      <c r="AFO24" s="95" t="s">
         <v>1916</v>
       </c>
-      <c r="AFO24" s="95" t="s">
+      <c r="AFP24" s="95" t="s">
         <v>1917</v>
       </c>
-      <c r="AFP24" s="95" t="s">
+      <c r="AFQ24" s="95" t="s">
         <v>1918</v>
       </c>
-      <c r="AFQ24" s="95" t="s">
+      <c r="AFR24" s="95" t="s">
         <v>1919</v>
       </c>
-      <c r="AFR24" s="95" t="s">
+      <c r="AFS24" s="95" t="s">
         <v>1920</v>
       </c>
-      <c r="AFS24" s="95" t="s">
+      <c r="AFT24" s="95" t="s">
         <v>1921</v>
       </c>
-      <c r="AFT24" s="95" t="s">
+      <c r="AFU24" s="95" t="s">
         <v>1922</v>
       </c>
-      <c r="AFU24" s="95" t="s">
+      <c r="AFV24" s="95" t="s">
         <v>1923</v>
       </c>
-      <c r="AFV24" s="95" t="s">
+      <c r="AFW24" s="95" t="s">
         <v>1924</v>
       </c>
-      <c r="AFW24" s="95" t="s">
+      <c r="AFX24" s="95" t="s">
         <v>1925</v>
       </c>
-      <c r="AFX24" s="95" t="s">
+      <c r="AFY24" s="95" t="s">
         <v>1926</v>
       </c>
-      <c r="AFY24" s="95" t="s">
+      <c r="AFZ24" s="95" t="s">
         <v>1927</v>
       </c>
-      <c r="AFZ24" s="95" t="s">
+      <c r="AGA24" s="95" t="s">
         <v>1928</v>
       </c>
-      <c r="AGA24" s="95" t="s">
+      <c r="AGB24" s="95" t="s">
         <v>1929</v>
       </c>
-      <c r="AGB24" s="95" t="s">
+      <c r="AGC24" s="95" t="s">
         <v>1930</v>
       </c>
-      <c r="AGC24" s="95" t="s">
+      <c r="AGD24" s="95" t="s">
         <v>1931</v>
       </c>
-      <c r="AGD24" s="95" t="s">
+      <c r="AGE24" s="95" t="s">
         <v>1932</v>
       </c>
-      <c r="AGE24" s="95" t="s">
+      <c r="AGF24" s="95" t="s">
         <v>1933</v>
       </c>
-      <c r="AGF24" s="95" t="s">
+      <c r="AGG24" s="95" t="s">
         <v>1934</v>
       </c>
-      <c r="AGG24" s="95" t="s">
+      <c r="AGH24" s="95" t="s">
         <v>1935</v>
       </c>
-      <c r="AGH24" s="95" t="s">
+      <c r="AGI24" s="95" t="s">
         <v>1936</v>
       </c>
-      <c r="AGI24" s="95" t="s">
+      <c r="AGJ24" s="95" t="s">
         <v>1937</v>
       </c>
-      <c r="AGJ24" s="95" t="s">
+      <c r="AGK24" s="95" t="s">
         <v>1938</v>
       </c>
-      <c r="AGK24" s="95" t="s">
+      <c r="AGL24" s="95" t="s">
         <v>1939</v>
       </c>
-      <c r="AGL24" s="95" t="s">
+      <c r="AGM24" s="95" t="s">
         <v>1940</v>
       </c>
-      <c r="AGM24" s="95" t="s">
+      <c r="AGN24" s="95" t="s">
         <v>1941</v>
       </c>
-      <c r="AGN24" s="95" t="s">
+      <c r="AGO24" s="95" t="s">
         <v>1942</v>
       </c>
-      <c r="AGO24" s="95" t="s">
+      <c r="AGP24" s="95" t="s">
         <v>1943</v>
       </c>
-      <c r="AGP24" s="95" t="s">
+      <c r="AGQ24" s="95" t="s">
         <v>1944</v>
       </c>
-      <c r="AGQ24" s="95" t="s">
+      <c r="AGR24" s="95" t="s">
         <v>1945</v>
       </c>
-      <c r="AGR24" s="95" t="s">
+      <c r="AGS24" s="95" t="s">
         <v>1946</v>
       </c>
-      <c r="AGS24" s="95" t="s">
+      <c r="AGT24" s="95" t="s">
         <v>1947</v>
       </c>
-      <c r="AGT24" s="95" t="s">
+      <c r="AGU24" s="95" t="s">
         <v>1948</v>
       </c>
-      <c r="AGU24" s="95" t="s">
+      <c r="AGV24" s="95" t="s">
         <v>1949</v>
       </c>
-      <c r="AGV24" s="95" t="s">
+      <c r="AGW24" s="95" t="s">
         <v>1950</v>
       </c>
-      <c r="AGW24" s="95" t="s">
+      <c r="AGX24" s="95" t="s">
         <v>1951</v>
       </c>
-      <c r="AGX24" s="95" t="s">
+      <c r="AGY24" s="95" t="s">
         <v>1952</v>
       </c>
-      <c r="AGY24" s="95" t="s">
+      <c r="AGZ24" s="95" t="s">
         <v>1953</v>
       </c>
-      <c r="AGZ24" s="95" t="s">
+      <c r="AHA24" s="95" t="s">
         <v>1954</v>
       </c>
-      <c r="AHA24" s="95" t="s">
+      <c r="AHB24" s="95" t="s">
         <v>1955</v>
       </c>
-      <c r="AHB24" s="95" t="s">
+      <c r="AHC24" s="95" t="s">
         <v>1956</v>
       </c>
-      <c r="AHC24" s="95" t="s">
+      <c r="AHD24" s="95" t="s">
         <v>1957</v>
       </c>
-      <c r="AHD24" s="95" t="s">
+      <c r="AHE24" s="95" t="s">
         <v>1958</v>
       </c>
-      <c r="AHE24" s="95" t="s">
+      <c r="AHF24" s="95" t="s">
         <v>1959</v>
       </c>
-      <c r="AHF24" s="95" t="s">
+      <c r="AHG24" s="95" t="s">
         <v>1960</v>
       </c>
-      <c r="AHG24" s="95" t="s">
+      <c r="AHH24" s="95" t="s">
         <v>1961</v>
       </c>
-      <c r="AHH24" s="95" t="s">
+      <c r="AHI24" s="95" t="s">
         <v>1962</v>
       </c>
-      <c r="AHI24" s="95" t="s">
+      <c r="AHJ24" s="95" t="s">
         <v>1963</v>
       </c>
-      <c r="AHJ24" s="95" t="s">
+      <c r="AHK24" s="95" t="s">
         <v>1964</v>
       </c>
-      <c r="AHK24" s="95" t="s">
+      <c r="AHL24" s="95" t="s">
         <v>1965</v>
       </c>
-      <c r="AHL24" s="95" t="s">
+      <c r="AHM24" s="95" t="s">
         <v>1966</v>
       </c>
-      <c r="AHM24" s="95" t="s">
+      <c r="AHN24" s="95" t="s">
         <v>1967</v>
       </c>
-      <c r="AHN24" s="95" t="s">
+      <c r="AHO24" s="95" t="s">
         <v>1968</v>
       </c>
-      <c r="AHO24" s="95" t="s">
+      <c r="AHP24" s="95" t="s">
         <v>1969</v>
-      </c>
-      <c r="AHP24" s="95" t="s">
-        <v>1970</v>
       </c>
     </row>
   </sheetData>
@@ -24020,19 +24018,19 @@
         <v>495</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F1" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G1" s="96" t="s">
         <v>1971</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="H1" s="96" t="s">
         <v>1972</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>1973</v>
-      </c>
       <c r="I1" s="96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J1" s="96" t="s">
         <v>497</v>
@@ -24047,7 +24045,7 @@
         <v>500</v>
       </c>
       <c r="N1" s="96" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="O1" s="96" t="s">
         <v>501</v>
@@ -24218,82 +24216,82 @@
         <v>504</v>
       </c>
       <c r="BS1" s="96" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="BT1" s="96" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BU1" s="96" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BV1" s="96" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BW1" s="96" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="BX1" s="96" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BY1" s="96" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="BZ1" s="96" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="CA1" s="96" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="CB1" s="96" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="CC1" s="96" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="CD1" s="96" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="CE1" s="96" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="CF1" s="96" t="s">
+        <v>1974</v>
+      </c>
+      <c r="CG1" s="96" t="s">
         <v>1975</v>
       </c>
-      <c r="CG1" s="96" t="s">
+      <c r="CH1" s="96" t="s">
         <v>1976</v>
       </c>
-      <c r="CH1" s="96" t="s">
+      <c r="CI1" s="96" t="s">
         <v>1977</v>
       </c>
-      <c r="CI1" s="96" t="s">
+      <c r="CJ1" s="96" t="s">
         <v>1978</v>
       </c>
-      <c r="CJ1" s="96" t="s">
+      <c r="CK1" s="96" t="s">
         <v>1979</v>
       </c>
-      <c r="CK1" s="96" t="s">
+      <c r="CL1" s="96" t="s">
         <v>1980</v>
       </c>
-      <c r="CL1" s="96" t="s">
+      <c r="CM1" s="96" t="s">
         <v>1981</v>
       </c>
-      <c r="CM1" s="96" t="s">
+      <c r="CN1" s="96" t="s">
         <v>1982</v>
       </c>
-      <c r="CN1" s="96" t="s">
+      <c r="CO1" s="96" t="s">
         <v>1983</v>
       </c>
-      <c r="CO1" s="96" t="s">
+      <c r="CP1" s="96" t="s">
         <v>1984</v>
       </c>
-      <c r="CP1" s="96" t="s">
+      <c r="CQ1" s="96" t="s">
         <v>1985</v>
       </c>
-      <c r="CQ1" s="96" t="s">
+      <c r="CR1" s="96" t="s">
         <v>1986</v>
-      </c>
-      <c r="CR1" s="96" t="s">
-        <v>1987</v>
       </c>
       <c r="CS1" s="96" t="s">
         <v>528</v>
@@ -24326,31 +24324,31 @@
         <v>528</v>
       </c>
       <c r="DC1" s="96" t="s">
+        <v>1987</v>
+      </c>
+      <c r="DD1" s="96" t="s">
         <v>1988</v>
       </c>
-      <c r="DD1" s="96" t="s">
+      <c r="DE1" s="96" t="s">
         <v>1989</v>
-      </c>
-      <c r="DE1" s="96" t="s">
-        <v>1990</v>
       </c>
       <c r="DF1" s="96" t="s">
         <v>530</v>
       </c>
       <c r="DG1" s="96" t="s">
+        <v>1990</v>
+      </c>
+      <c r="DH1" s="96" t="s">
         <v>1991</v>
       </c>
-      <c r="DH1" s="96" t="s">
+      <c r="DI1" s="96" t="s">
         <v>1992</v>
       </c>
-      <c r="DI1" s="96" t="s">
+      <c r="DJ1" s="96" t="s">
         <v>1993</v>
       </c>
-      <c r="DJ1" s="96" t="s">
+      <c r="DK1" s="96" t="s">
         <v>1994</v>
-      </c>
-      <c r="DK1" s="96" t="s">
-        <v>1995</v>
       </c>
       <c r="DL1" s="96" t="s">
         <v>531</v>
@@ -24359,7 +24357,7 @@
         <v>532</v>
       </c>
       <c r="DN1" s="96" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="DO1" s="96" t="s">
         <v>533</v>
@@ -24371,10 +24369,10 @@
         <v>535</v>
       </c>
       <c r="DR1" s="96" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="DS1" s="96" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="DT1" s="96" t="s">
         <v>536</v>
@@ -24386,76 +24384,76 @@
         <v>536</v>
       </c>
       <c r="DW1" s="96" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="DX1" s="96" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="DY1" s="96" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="15.75" customHeight="1">
       <c r="A2" s="96" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E2" s="96" t="s">
         <v>1998</v>
       </c>
-      <c r="E2" s="96" t="s">
-        <v>1999</v>
-      </c>
       <c r="F2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="CE2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="CS2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DD2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DE2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DH2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DI2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DJ2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DK2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DN2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DR2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="DX2" s="96" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="3" spans="1:129" ht="15.75" customHeight="1">
       <c r="A3" s="96" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="4" spans="1:129" ht="15.75" customHeight="1">
       <c r="A4" s="96" t="s">
+        <v>2000</v>
+      </c>
+      <c r="DS4" s="96" t="s">
         <v>2001</v>
-      </c>
-      <c r="DS4" s="96" t="s">
-        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -24480,7 +24478,7 @@
         <v>29153</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -24518,40 +24516,40 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="A1" s="98" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>2004</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>2005</v>
       </c>
       <c r="C1" s="98" t="s">
         <v>170</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F1" s="98" t="s">
+        <v>741</v>
+      </c>
+      <c r="G1" s="98" t="s">
         <v>742</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="H1" s="98" t="s">
         <v>743</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="I1" s="98" t="s">
         <v>744</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="J1" s="98" t="s">
         <v>745</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="K1" s="98" t="s">
         <v>746</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="L1" s="98" t="s">
         <v>747</v>
-      </c>
-      <c r="L1" s="98" t="s">
-        <v>748</v>
       </c>
       <c r="M1" s="98" t="s">
         <v>336</v>
@@ -24560,54 +24558,54 @@
         <v>282</v>
       </c>
       <c r="O1" s="98" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>2006</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>2007</v>
       </c>
       <c r="C2" s="98" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F2" s="98" t="s">
         <v>336</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J2" s="98" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K2" s="98" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L2" s="98" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M2" s="98" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N2" s="98" t="s">
+        <v>791</v>
+      </c>
+      <c r="O2" s="98" t="s">
         <v>792</v>
-      </c>
-      <c r="O2" s="98" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
@@ -24615,46 +24613,46 @@
         <v>518</v>
       </c>
       <c r="B3" s="98" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C3" s="98" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E3" s="98" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F3" s="98" t="s">
         <v>282</v>
       </c>
       <c r="G3" s="98" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H3" s="98" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K3" s="98" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L3" s="98" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M3" s="98" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N3" s="98" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O3" s="98" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
@@ -24662,46 +24660,46 @@
         <v>519</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C4" s="98" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G4" s="98" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K4" s="98" t="s">
+        <v>779</v>
+      </c>
+      <c r="L4" s="98" t="s">
         <v>780</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="M4" s="98" t="s">
         <v>781</v>
       </c>
-      <c r="M4" s="98" t="s">
+      <c r="N4" s="98" t="s">
         <v>782</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="O4" s="98" t="s">
         <v>783</v>
-      </c>
-      <c r="O4" s="98" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
@@ -24709,46 +24707,46 @@
         <v>520</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C5" s="98" t="s">
         <v>173</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G5" s="98" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H5" s="98" t="s">
+        <v>758</v>
+      </c>
+      <c r="I5" s="98" t="s">
         <v>759</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="J5" s="98" t="s">
         <v>760</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="K5" s="98" t="s">
         <v>761</v>
       </c>
-      <c r="K5" s="98" t="s">
+      <c r="L5" s="98" t="s">
         <v>762</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="M5" s="98" t="s">
         <v>763</v>
       </c>
-      <c r="M5" s="98" t="s">
+      <c r="N5" s="98" t="s">
         <v>764</v>
       </c>
-      <c r="N5" s="98" t="s">
+      <c r="O5" s="98" t="s">
         <v>765</v>
-      </c>
-      <c r="O5" s="98" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -24756,46 +24754,46 @@
         <v>521</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C6" s="98" t="s">
         <v>174</v>
       </c>
       <c r="D6" s="98" t="s">
+        <v>718</v>
+      </c>
+      <c r="E6" s="98" t="s">
         <v>719</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="F6" s="98" t="s">
         <v>720</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="G6" s="98" t="s">
         <v>721</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="H6" s="98" t="s">
         <v>722</v>
       </c>
-      <c r="H6" s="98" t="s">
+      <c r="I6" s="98" t="s">
         <v>723</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="J6" s="98" t="s">
         <v>724</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="K6" s="98" t="s">
         <v>725</v>
       </c>
-      <c r="K6" s="98" t="s">
+      <c r="L6" s="98" t="s">
         <v>726</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="M6" s="98" t="s">
         <v>727</v>
       </c>
-      <c r="M6" s="98" t="s">
+      <c r="N6" s="98" t="s">
         <v>728</v>
       </c>
-      <c r="N6" s="98" t="s">
+      <c r="O6" s="98" t="s">
         <v>729</v>
-      </c>
-      <c r="O6" s="98" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
@@ -24803,46 +24801,46 @@
         <v>522</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C7" s="98" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E7" s="98" t="s">
+        <v>730</v>
+      </c>
+      <c r="F7" s="98" t="s">
         <v>731</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="G7" s="98" t="s">
         <v>732</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="H7" s="98" t="s">
         <v>733</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="I7" s="98" t="s">
         <v>734</v>
       </c>
-      <c r="I7" s="98" t="s">
+      <c r="J7" s="98" t="s">
         <v>735</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="K7" s="98" t="s">
         <v>736</v>
       </c>
-      <c r="K7" s="98" t="s">
+      <c r="L7" s="98" t="s">
         <v>737</v>
       </c>
-      <c r="L7" s="98" t="s">
+      <c r="M7" s="98" t="s">
         <v>738</v>
       </c>
-      <c r="M7" s="98" t="s">
+      <c r="N7" s="98" t="s">
         <v>739</v>
       </c>
-      <c r="N7" s="98" t="s">
+      <c r="O7" s="98" t="s">
         <v>740</v>
-      </c>
-      <c r="O7" s="98" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
@@ -24850,46 +24848,46 @@
         <v>523</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C8" s="98" t="s">
         <v>176</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G8" s="98" t="s">
+        <v>749</v>
+      </c>
+      <c r="H8" s="98" t="s">
         <v>750</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="I8" s="98" t="s">
         <v>751</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="J8" s="98" t="s">
         <v>752</v>
       </c>
-      <c r="J8" s="98" t="s">
+      <c r="K8" s="98" t="s">
         <v>753</v>
       </c>
-      <c r="K8" s="98" t="s">
+      <c r="L8" s="98" t="s">
         <v>754</v>
       </c>
-      <c r="L8" s="98" t="s">
+      <c r="M8" s="98" t="s">
         <v>755</v>
       </c>
-      <c r="M8" s="98" t="s">
+      <c r="N8" s="98" t="s">
         <v>756</v>
       </c>
-      <c r="N8" s="98" t="s">
+      <c r="O8" s="98" t="s">
         <v>757</v>
-      </c>
-      <c r="O8" s="98" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
@@ -24897,46 +24895,46 @@
         <v>524</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" s="98" t="s">
         <v>177</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F9" s="98" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G9" s="98" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H9" s="98" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M9" s="98" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N9" s="98" t="s">
+        <v>792</v>
+      </c>
+      <c r="O9" s="98" t="s">
         <v>793</v>
-      </c>
-      <c r="O9" s="98" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
@@ -24944,93 +24942,93 @@
         <v>525</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C10" s="98" t="s">
         <v>178</v>
       </c>
       <c r="D10" s="98" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H10" s="98" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I10" s="98" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J10" s="98" t="s">
+        <v>773</v>
+      </c>
+      <c r="K10" s="98" t="s">
         <v>774</v>
       </c>
-      <c r="K10" s="98" t="s">
+      <c r="L10" s="98" t="s">
         <v>775</v>
       </c>
-      <c r="L10" s="98" t="s">
+      <c r="M10" s="98" t="s">
         <v>776</v>
       </c>
-      <c r="M10" s="98" t="s">
+      <c r="N10" s="98" t="s">
         <v>777</v>
       </c>
-      <c r="N10" s="98" t="s">
+      <c r="O10" s="98" t="s">
         <v>778</v>
-      </c>
-      <c r="O10" s="98" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="98" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="98" t="s">
         <v>2016</v>
-      </c>
-      <c r="B11" s="98" t="s">
-        <v>2017</v>
       </c>
       <c r="C11" s="98" t="s">
         <v>179</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H11" s="98" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I11" s="98" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J11" s="98" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K11" s="98" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L11" s="98" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M11" s="98" t="s">
+        <v>788</v>
+      </c>
+      <c r="N11" s="98" t="s">
         <v>789</v>
       </c>
-      <c r="N11" s="98" t="s">
+      <c r="O11" s="98" t="s">
         <v>790</v>
-      </c>
-      <c r="O11" s="98" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
@@ -25038,46 +25036,46 @@
         <v>526</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C12" s="98" t="s">
         <v>180</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I12" s="98" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L12" s="98" t="s">
+        <v>784</v>
+      </c>
+      <c r="M12" s="98" t="s">
         <v>785</v>
       </c>
-      <c r="M12" s="98" t="s">
+      <c r="N12" s="98" t="s">
         <v>786</v>
       </c>
-      <c r="N12" s="98" t="s">
+      <c r="O12" s="98" t="s">
         <v>787</v>
-      </c>
-      <c r="O12" s="98" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
@@ -25085,54 +25083,54 @@
         <v>527</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C13" s="98" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G13" s="98" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H13" s="98" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I13" s="98" t="s">
+        <v>766</v>
+      </c>
+      <c r="J13" s="98" t="s">
         <v>767</v>
       </c>
-      <c r="J13" s="98" t="s">
+      <c r="K13" s="98" t="s">
         <v>768</v>
       </c>
-      <c r="K13" s="98" t="s">
+      <c r="L13" s="98" t="s">
         <v>769</v>
       </c>
-      <c r="L13" s="98" t="s">
+      <c r="M13" s="98" t="s">
         <v>770</v>
       </c>
-      <c r="M13" s="98" t="s">
+      <c r="N13" s="98" t="s">
         <v>771</v>
       </c>
-      <c r="N13" s="98" t="s">
+      <c r="O13" s="98" t="s">
         <v>772</v>
-      </c>
-      <c r="O13" s="98" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="98" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C14" s="98" t="s">
         <v>490</v>
@@ -25143,61 +25141,61 @@
         <v>536</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F15" s="98" t="s">
         <v>452</v>
       </c>
       <c r="G15" s="98" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H15" s="98" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I15" s="98" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J15" s="98" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K15" s="98" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L15" s="98" t="s">
+        <v>969</v>
+      </c>
+      <c r="M15" s="98" t="s">
         <v>970</v>
       </c>
-      <c r="M15" s="98" t="s">
-        <v>971</v>
-      </c>
       <c r="N15" s="98" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O15" s="98" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="P15" s="98" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q15" s="98" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R15" s="98" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S15" s="98" t="s">
+        <v>1017</v>
+      </c>
+      <c r="T15" s="98" t="s">
         <v>1018</v>
-      </c>
-      <c r="T15" s="98" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
@@ -25205,7 +25203,7 @@
         <v>538</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C16" s="98" t="s">
         <v>285</v>
@@ -25214,7 +25212,7 @@
         <v>315</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
